--- a/premiumtable.xlsx
+++ b/premiumtable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chakh\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chakh\OneDrive\桌面\streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76F4647-9D84-4299-899B-EFEEE777929A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B792D51-7063-493B-9C89-108318DCA438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{2B5941AF-E55B-4360-8715-EE7BF2DCC1DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2B5941AF-E55B-4360-8715-EE7BF2DCC1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="female" sheetId="2" r:id="rId1"/>
@@ -1718,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AB666C-B717-4DAB-B43C-8A2A713B7A3F}">
   <dimension ref="A1:AZ101"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1895,10 +1895,10 @@
         <v>3841</v>
       </c>
       <c r="C2" s="5">
-        <v>3624</v>
+        <v>3950</v>
       </c>
       <c r="D2" s="5">
-        <v>6289</v>
+        <v>6855</v>
       </c>
       <c r="E2" s="5">
         <v>8703</v>
@@ -2053,10 +2053,10 @@
         <v>3841</v>
       </c>
       <c r="C3" s="7">
-        <v>3624</v>
+        <v>3950</v>
       </c>
       <c r="D3" s="7">
-        <v>6289</v>
+        <v>6855</v>
       </c>
       <c r="E3" s="7">
         <v>8703</v>
@@ -2211,10 +2211,10 @@
         <v>3841</v>
       </c>
       <c r="C4" s="7">
-        <v>3624</v>
+        <v>3950</v>
       </c>
       <c r="D4" s="7">
-        <v>6289</v>
+        <v>6855</v>
       </c>
       <c r="E4" s="7">
         <v>8703</v>
@@ -2369,10 +2369,10 @@
         <v>3841</v>
       </c>
       <c r="C5" s="7">
-        <v>3624</v>
+        <v>3950</v>
       </c>
       <c r="D5" s="7">
-        <v>6289</v>
+        <v>6855</v>
       </c>
       <c r="E5" s="7">
         <v>8703</v>
@@ -2527,10 +2527,10 @@
         <v>4394</v>
       </c>
       <c r="C6" s="7">
-        <v>4035</v>
+        <v>4519</v>
       </c>
       <c r="D6" s="7">
-        <v>6148</v>
+        <v>6886</v>
       </c>
       <c r="E6" s="7">
         <v>8703</v>
@@ -2685,10 +2685,10 @@
         <v>4394</v>
       </c>
       <c r="C7" s="7">
-        <v>4035</v>
+        <v>4519</v>
       </c>
       <c r="D7" s="7">
-        <v>6148</v>
+        <v>6886</v>
       </c>
       <c r="E7" s="7">
         <v>7956</v>
@@ -2843,10 +2843,10 @@
         <v>4394</v>
       </c>
       <c r="C8" s="7">
-        <v>4035</v>
+        <v>4519</v>
       </c>
       <c r="D8" s="7">
-        <v>6148</v>
+        <v>6886</v>
       </c>
       <c r="E8" s="7">
         <v>7956</v>
@@ -3001,10 +3001,10 @@
         <v>4394</v>
       </c>
       <c r="C9" s="7">
-        <v>4035</v>
+        <v>4519</v>
       </c>
       <c r="D9" s="7">
-        <v>6148</v>
+        <v>6886</v>
       </c>
       <c r="E9" s="7">
         <v>7956</v>
@@ -3159,10 +3159,10 @@
         <v>4394</v>
       </c>
       <c r="C10" s="7">
-        <v>4035</v>
+        <v>4519</v>
       </c>
       <c r="D10" s="7">
-        <v>6148</v>
+        <v>6886</v>
       </c>
       <c r="E10" s="7">
         <v>7956</v>
@@ -3317,10 +3317,10 @@
         <v>4394</v>
       </c>
       <c r="C11" s="7">
-        <v>4035</v>
+        <v>4519</v>
       </c>
       <c r="D11" s="7">
-        <v>6148</v>
+        <v>6886</v>
       </c>
       <c r="E11" s="7">
         <v>7956</v>
@@ -3475,10 +3475,10 @@
         <v>4394</v>
       </c>
       <c r="C12" s="7">
-        <v>4035</v>
+        <v>4519</v>
       </c>
       <c r="D12" s="7">
-        <v>6148</v>
+        <v>6886</v>
       </c>
       <c r="E12" s="7">
         <v>7956</v>
@@ -3633,10 +3633,10 @@
         <v>4394</v>
       </c>
       <c r="C13" s="7">
-        <v>4035</v>
+        <v>4519</v>
       </c>
       <c r="D13" s="7">
-        <v>6148</v>
+        <v>6886</v>
       </c>
       <c r="E13" s="7">
         <v>7956</v>
@@ -3791,10 +3791,10 @@
         <v>4394</v>
       </c>
       <c r="C14" s="7">
-        <v>4035</v>
+        <v>4519</v>
       </c>
       <c r="D14" s="7">
-        <v>6148</v>
+        <v>6886</v>
       </c>
       <c r="E14" s="7">
         <v>7956</v>
@@ -3949,10 +3949,10 @@
         <v>4394</v>
       </c>
       <c r="C15" s="7">
-        <v>4035</v>
+        <v>4519</v>
       </c>
       <c r="D15" s="7">
-        <v>6148</v>
+        <v>6886</v>
       </c>
       <c r="E15" s="7">
         <v>7956</v>
@@ -4107,10 +4107,10 @@
         <v>4394</v>
       </c>
       <c r="C16" s="7">
-        <v>4035</v>
+        <v>4519</v>
       </c>
       <c r="D16" s="7">
-        <v>6148</v>
+        <v>6886</v>
       </c>
       <c r="E16" s="7">
         <v>7956</v>
@@ -4265,10 +4265,10 @@
         <v>4394</v>
       </c>
       <c r="C17" s="7">
-        <v>4035</v>
+        <v>4519</v>
       </c>
       <c r="D17" s="7">
-        <v>6148</v>
+        <v>6886</v>
       </c>
       <c r="E17" s="7">
         <v>7956</v>
@@ -4423,10 +4423,10 @@
         <v>4394</v>
       </c>
       <c r="C18" s="7">
-        <v>4035</v>
+        <v>4519</v>
       </c>
       <c r="D18" s="7">
-        <v>6063</v>
+        <v>6791</v>
       </c>
       <c r="E18" s="7">
         <v>7956</v>
@@ -4581,10 +4581,10 @@
         <v>4394</v>
       </c>
       <c r="C19" s="7">
-        <v>4035</v>
+        <v>4519</v>
       </c>
       <c r="D19" s="7">
-        <v>6034</v>
+        <v>6758</v>
       </c>
       <c r="E19" s="7">
         <v>7956</v>
@@ -4739,10 +4739,10 @@
         <v>4420</v>
       </c>
       <c r="C20" s="7">
-        <v>4059</v>
+        <v>4546</v>
       </c>
       <c r="D20" s="7">
-        <v>6008</v>
+        <v>6729</v>
       </c>
       <c r="E20" s="7">
         <v>8177</v>
@@ -4897,10 +4897,10 @@
         <v>4446</v>
       </c>
       <c r="C21" s="7">
-        <v>4083</v>
+        <v>4573</v>
       </c>
       <c r="D21" s="7">
-        <v>6114</v>
+        <v>6848</v>
       </c>
       <c r="E21" s="7">
         <v>8244</v>
@@ -5055,10 +5055,10 @@
         <v>4473</v>
       </c>
       <c r="C22" s="7">
-        <v>4107</v>
+        <v>4600</v>
       </c>
       <c r="D22" s="7">
-        <v>6418</v>
+        <v>7188</v>
       </c>
       <c r="E22" s="7">
         <v>8437</v>
@@ -5213,10 +5213,10 @@
         <v>4500</v>
       </c>
       <c r="C23" s="7">
-        <v>4132</v>
+        <v>4628</v>
       </c>
       <c r="D23" s="7">
-        <v>6722</v>
+        <v>7529</v>
       </c>
       <c r="E23" s="7">
         <v>8697</v>
@@ -5371,10 +5371,10 @@
         <v>4520</v>
       </c>
       <c r="C24" s="7">
-        <v>4151</v>
+        <v>4649</v>
       </c>
       <c r="D24" s="7">
-        <v>6739</v>
+        <v>7548</v>
       </c>
       <c r="E24" s="7">
         <v>8948</v>
@@ -5529,10 +5529,10 @@
         <v>4659</v>
       </c>
       <c r="C25" s="7">
-        <v>4278</v>
+        <v>4791</v>
       </c>
       <c r="D25" s="7">
-        <v>6756</v>
+        <v>7567</v>
       </c>
       <c r="E25" s="7">
         <v>9131</v>
@@ -5687,10 +5687,10 @@
         <v>4855</v>
       </c>
       <c r="C26" s="7">
-        <v>4458</v>
+        <v>4993</v>
       </c>
       <c r="D26" s="7">
-        <v>6959</v>
+        <v>7794</v>
       </c>
       <c r="E26" s="7">
         <v>9267</v>
@@ -5845,10 +5845,10 @@
         <v>5184</v>
       </c>
       <c r="C27" s="7">
-        <v>4760</v>
+        <v>5331</v>
       </c>
       <c r="D27" s="7">
-        <v>7026</v>
+        <v>7869</v>
       </c>
       <c r="E27" s="7">
         <v>9723</v>
@@ -6003,10 +6003,10 @@
         <v>5459</v>
       </c>
       <c r="C28" s="7">
-        <v>5013</v>
+        <v>5615</v>
       </c>
       <c r="D28" s="7">
-        <v>7093</v>
+        <v>7944</v>
       </c>
       <c r="E28" s="7">
         <v>10254</v>
@@ -6161,10 +6161,10 @@
         <v>5751</v>
       </c>
       <c r="C29" s="7">
-        <v>5281</v>
+        <v>5915</v>
       </c>
       <c r="D29" s="7">
-        <v>7653</v>
+        <v>8571</v>
       </c>
       <c r="E29" s="7">
         <v>10778</v>
@@ -6319,10 +6319,10 @@
         <v>6015</v>
       </c>
       <c r="C30" s="7">
-        <v>5523</v>
+        <v>6186</v>
       </c>
       <c r="D30" s="7">
-        <v>8049</v>
+        <v>9015</v>
       </c>
       <c r="E30" s="7">
         <v>11167</v>
@@ -6477,10 +6477,10 @@
         <v>6302</v>
       </c>
       <c r="C31" s="7">
-        <v>5787</v>
+        <v>6481</v>
       </c>
       <c r="D31" s="7">
-        <v>8306</v>
+        <v>9303</v>
       </c>
       <c r="E31" s="7">
         <v>11417</v>
@@ -6635,10 +6635,10 @@
         <v>6464</v>
       </c>
       <c r="C32" s="7">
-        <v>5936</v>
+        <v>6648</v>
       </c>
       <c r="D32" s="7">
-        <v>8562</v>
+        <v>9589</v>
       </c>
       <c r="E32" s="7">
         <v>11587</v>
@@ -6793,10 +6793,10 @@
         <v>6655</v>
       </c>
       <c r="C33" s="7">
-        <v>6111</v>
+        <v>6844</v>
       </c>
       <c r="D33" s="7">
-        <v>8816</v>
+        <v>9874</v>
       </c>
       <c r="E33" s="7">
         <v>11851</v>
@@ -6951,10 +6951,10 @@
         <v>6868</v>
       </c>
       <c r="C34" s="7">
-        <v>6307</v>
+        <v>7064</v>
       </c>
       <c r="D34" s="7">
-        <v>9072</v>
+        <v>10161</v>
       </c>
       <c r="E34" s="7">
         <v>11951</v>
@@ -7109,10 +7109,10 @@
         <v>7068</v>
       </c>
       <c r="C35" s="7">
-        <v>6490</v>
+        <v>7269</v>
       </c>
       <c r="D35" s="7">
-        <v>9329</v>
+        <v>10448</v>
       </c>
       <c r="E35" s="7">
         <v>12208</v>
@@ -7267,10 +7267,10 @@
         <v>7243</v>
       </c>
       <c r="C36" s="7">
-        <v>6651</v>
+        <v>7449</v>
       </c>
       <c r="D36" s="7">
-        <v>9420</v>
+        <v>10550</v>
       </c>
       <c r="E36" s="7">
         <v>12440</v>
@@ -7425,10 +7425,10 @@
         <v>7283</v>
       </c>
       <c r="C37" s="5">
-        <v>6688</v>
+        <v>7491</v>
       </c>
       <c r="D37" s="5">
-        <v>9490</v>
+        <v>10629</v>
       </c>
       <c r="E37" s="5">
         <v>12884</v>
@@ -7583,10 +7583,10 @@
         <v>7338</v>
       </c>
       <c r="C38" s="7">
-        <v>6738</v>
+        <v>7547</v>
       </c>
       <c r="D38" s="7">
-        <v>9677</v>
+        <v>10838</v>
       </c>
       <c r="E38" s="7">
         <v>12908</v>
@@ -7741,10 +7741,10 @@
         <v>7377</v>
       </c>
       <c r="C39" s="7">
-        <v>6774</v>
+        <v>7587</v>
       </c>
       <c r="D39" s="7">
-        <v>9747</v>
+        <v>10917</v>
       </c>
       <c r="E39" s="7">
         <v>13172</v>
@@ -7899,10 +7899,10 @@
         <v>7431</v>
       </c>
       <c r="C40" s="7">
-        <v>6824</v>
+        <v>7643</v>
       </c>
       <c r="D40" s="7">
-        <v>9840</v>
+        <v>11021</v>
       </c>
       <c r="E40" s="7">
         <v>13517</v>
@@ -8057,10 +8057,10 @@
         <v>7487</v>
       </c>
       <c r="C41" s="7">
-        <v>6875</v>
+        <v>7700</v>
       </c>
       <c r="D41" s="7">
-        <v>9966</v>
+        <v>11162</v>
       </c>
       <c r="E41" s="7">
         <v>13622</v>
@@ -8215,10 +8215,10 @@
         <v>7542</v>
       </c>
       <c r="C42" s="7">
-        <v>6926</v>
+        <v>7757</v>
       </c>
       <c r="D42" s="7">
-        <v>10463</v>
+        <v>11719</v>
       </c>
       <c r="E42" s="7">
         <v>13808</v>
@@ -8373,10 +8373,10 @@
         <v>7598</v>
       </c>
       <c r="C43" s="7">
-        <v>6977</v>
+        <v>7814</v>
       </c>
       <c r="D43" s="7">
-        <v>10698</v>
+        <v>11982</v>
       </c>
       <c r="E43" s="7">
         <v>14076</v>
@@ -8531,10 +8531,10 @@
         <v>7939</v>
       </c>
       <c r="C44" s="7">
-        <v>7290</v>
+        <v>8165</v>
       </c>
       <c r="D44" s="7">
-        <v>11184</v>
+        <v>12526</v>
       </c>
       <c r="E44" s="7">
         <v>14424</v>
@@ -8689,10 +8689,10 @@
         <v>8174</v>
       </c>
       <c r="C45" s="7">
-        <v>7506</v>
+        <v>8407</v>
       </c>
       <c r="D45" s="7">
-        <v>11668</v>
+        <v>13068</v>
       </c>
       <c r="E45" s="7">
         <v>15097</v>
@@ -8847,10 +8847,10 @@
         <v>8480</v>
       </c>
       <c r="C46" s="7">
-        <v>7787</v>
+        <v>8721</v>
       </c>
       <c r="D46" s="7">
-        <v>12197</v>
+        <v>13661</v>
       </c>
       <c r="E46" s="7">
         <v>16015</v>
@@ -9005,10 +9005,10 @@
         <v>8805</v>
       </c>
       <c r="C47" s="7">
-        <v>8085</v>
+        <v>9055</v>
       </c>
       <c r="D47" s="7">
-        <v>12728</v>
+        <v>14255</v>
       </c>
       <c r="E47" s="7">
         <v>16816</v>
@@ -9163,10 +9163,10 @@
         <v>9120</v>
       </c>
       <c r="C48" s="7">
-        <v>8375</v>
+        <v>9380</v>
       </c>
       <c r="D48" s="7">
-        <v>13561</v>
+        <v>15188</v>
       </c>
       <c r="E48" s="7">
         <v>17778</v>
@@ -9321,10 +9321,10 @@
         <v>9505</v>
       </c>
       <c r="C49" s="7">
-        <v>8728</v>
+        <v>9775</v>
       </c>
       <c r="D49" s="7">
-        <v>14102</v>
+        <v>15794</v>
       </c>
       <c r="E49" s="7">
         <v>18334</v>
@@ -9479,10 +9479,10 @@
         <v>9755</v>
       </c>
       <c r="C50" s="7">
-        <v>8958</v>
+        <v>10033</v>
       </c>
       <c r="D50" s="7">
-        <v>14642</v>
+        <v>16399</v>
       </c>
       <c r="E50" s="7">
         <v>19053</v>
@@ -9637,10 +9637,10 @@
         <v>9986</v>
       </c>
       <c r="C51" s="7">
-        <v>9170</v>
+        <v>10270</v>
       </c>
       <c r="D51" s="7">
-        <v>15115</v>
+        <v>16929</v>
       </c>
       <c r="E51" s="7">
         <v>19851</v>
@@ -9795,10 +9795,10 @@
         <v>10232</v>
       </c>
       <c r="C52" s="7">
-        <v>9396</v>
+        <v>10524</v>
       </c>
       <c r="D52" s="7">
-        <v>15802</v>
+        <v>17698</v>
       </c>
       <c r="E52" s="7">
         <v>20245</v>
@@ -9953,10 +9953,10 @@
         <v>10479</v>
       </c>
       <c r="C53" s="7">
-        <v>9623</v>
+        <v>10778</v>
       </c>
       <c r="D53" s="7">
-        <v>15967</v>
+        <v>17883</v>
       </c>
       <c r="E53" s="7">
         <v>21005</v>
@@ -10111,10 +10111,10 @@
         <v>10857</v>
       </c>
       <c r="C54" s="7">
-        <v>9970</v>
+        <v>11166</v>
       </c>
       <c r="D54" s="7">
-        <v>17492</v>
+        <v>19591</v>
       </c>
       <c r="E54" s="7">
         <v>22748</v>
@@ -10269,10 +10269,10 @@
         <v>11195</v>
       </c>
       <c r="C55" s="7">
-        <v>10280</v>
+        <v>11514</v>
       </c>
       <c r="D55" s="7">
-        <v>18207</v>
+        <v>20392</v>
       </c>
       <c r="E55" s="7">
         <v>23758</v>
@@ -10427,10 +10427,10 @@
         <v>11528</v>
       </c>
       <c r="C56" s="7">
-        <v>10586</v>
+        <v>11856</v>
       </c>
       <c r="D56" s="7">
-        <v>18923</v>
+        <v>21194</v>
       </c>
       <c r="E56" s="7">
         <v>24754</v>
@@ -10585,10 +10585,10 @@
         <v>12078</v>
       </c>
       <c r="C57" s="7">
-        <v>11091</v>
+        <v>12422</v>
       </c>
       <c r="D57" s="7">
-        <v>20008</v>
+        <v>22409</v>
       </c>
       <c r="E57" s="7">
         <v>25821</v>
@@ -10743,10 +10743,10 @@
         <v>12613</v>
       </c>
       <c r="C58" s="7">
-        <v>11582</v>
+        <v>12972</v>
       </c>
       <c r="D58" s="7">
-        <v>21093</v>
+        <v>23624</v>
       </c>
       <c r="E58" s="7">
         <v>27464</v>
@@ -10901,10 +10901,10 @@
         <v>13349</v>
       </c>
       <c r="C59" s="7">
-        <v>12258</v>
+        <v>13729</v>
       </c>
       <c r="D59" s="7">
-        <v>21194</v>
+        <v>23737</v>
       </c>
       <c r="E59" s="7">
         <v>29052</v>
@@ -11059,10 +11059,10 @@
         <v>13903</v>
       </c>
       <c r="C60" s="7">
-        <v>12767</v>
+        <v>14299</v>
       </c>
       <c r="D60" s="7">
-        <v>22231</v>
+        <v>24899</v>
       </c>
       <c r="E60" s="7">
         <v>30560</v>
@@ -11217,10 +11217,10 @@
         <v>14476</v>
       </c>
       <c r="C61" s="7">
-        <v>13293</v>
+        <v>14888</v>
       </c>
       <c r="D61" s="7">
-        <v>23268</v>
+        <v>26060</v>
       </c>
       <c r="E61" s="7">
         <v>32643</v>
@@ -11375,10 +11375,10 @@
         <v>15345</v>
       </c>
       <c r="C62" s="7">
-        <v>14091</v>
+        <v>15782</v>
       </c>
       <c r="D62" s="7">
-        <v>25855</v>
+        <v>28958</v>
       </c>
       <c r="E62" s="7">
         <v>34291</v>
@@ -11533,10 +11533,10 @@
         <v>16412</v>
       </c>
       <c r="C63" s="7">
-        <v>15071</v>
+        <v>16880</v>
       </c>
       <c r="D63" s="7">
-        <v>27662</v>
+        <v>30981</v>
       </c>
       <c r="E63" s="7">
         <v>35999</v>
@@ -11691,10 +11691,10 @@
         <v>17411</v>
       </c>
       <c r="C64" s="7">
-        <v>15988</v>
+        <v>17907</v>
       </c>
       <c r="D64" s="7">
-        <v>28955</v>
+        <v>32430</v>
       </c>
       <c r="E64" s="7">
         <v>39079</v>
@@ -11849,10 +11849,10 @@
         <v>18498</v>
       </c>
       <c r="C65" s="7">
-        <v>16986</v>
+        <v>19024</v>
       </c>
       <c r="D65" s="7">
-        <v>30660</v>
+        <v>34339</v>
       </c>
       <c r="E65" s="7">
         <v>43151</v>
@@ -12007,10 +12007,10 @@
         <v>19585</v>
       </c>
       <c r="C66" s="7">
-        <v>17984</v>
+        <v>20142</v>
       </c>
       <c r="D66" s="7">
-        <v>32355</v>
+        <v>36238</v>
       </c>
       <c r="E66" s="7">
         <v>48281</v>
@@ -12165,10 +12165,10 @@
         <v>20747</v>
       </c>
       <c r="C67" s="7">
-        <v>19051</v>
+        <v>21337</v>
       </c>
       <c r="D67" s="7">
-        <v>33481</v>
+        <v>37499</v>
       </c>
       <c r="E67" s="7">
         <v>52440</v>
@@ -12323,10 +12323,10 @@
         <v>21963</v>
       </c>
       <c r="C68" s="7">
-        <v>20168</v>
+        <v>22588</v>
       </c>
       <c r="D68" s="7">
-        <v>34880</v>
+        <v>39066</v>
       </c>
       <c r="E68" s="7">
         <v>56687</v>
@@ -12481,10 +12481,10 @@
         <v>23164</v>
       </c>
       <c r="C69" s="7">
-        <v>21271</v>
+        <v>23824</v>
       </c>
       <c r="D69" s="7">
-        <v>36643</v>
+        <v>41040</v>
       </c>
       <c r="E69" s="7">
         <v>58921</v>
@@ -12639,10 +12639,10 @@
         <v>24386</v>
       </c>
       <c r="C70" s="7">
-        <v>22393</v>
+        <v>25080</v>
       </c>
       <c r="D70" s="7">
-        <v>39912</v>
+        <v>44701</v>
       </c>
       <c r="E70" s="7">
         <v>60257</v>
@@ -12797,10 +12797,10 @@
         <v>25599</v>
       </c>
       <c r="C71" s="7">
-        <v>23507</v>
+        <v>26328</v>
       </c>
       <c r="D71" s="7">
-        <v>41788</v>
+        <v>46803</v>
       </c>
       <c r="E71" s="7">
         <v>62245</v>
@@ -12955,10 +12955,10 @@
         <v>26759</v>
       </c>
       <c r="C72" s="5">
-        <v>24572</v>
+        <v>27521</v>
       </c>
       <c r="D72" s="5">
-        <v>43282</v>
+        <v>48476</v>
       </c>
       <c r="E72" s="5">
         <v>63951</v>
@@ -13113,10 +13113,10 @@
         <v>28327</v>
       </c>
       <c r="C73" s="7">
-        <v>26012</v>
+        <v>29133</v>
       </c>
       <c r="D73" s="7">
-        <v>43522</v>
+        <v>48745</v>
       </c>
       <c r="E73" s="7">
         <v>70703</v>
@@ -13271,10 +13271,10 @@
         <v>29332</v>
       </c>
       <c r="C74" s="7">
-        <v>26935</v>
+        <v>30167</v>
       </c>
       <c r="D74" s="7">
-        <v>48393</v>
+        <v>54200</v>
       </c>
       <c r="E74" s="7">
         <v>74620</v>
@@ -13429,10 +13429,10 @@
         <v>30286</v>
       </c>
       <c r="C75" s="7">
-        <v>27811</v>
+        <v>31148</v>
       </c>
       <c r="D75" s="7">
-        <v>49774</v>
+        <v>55747</v>
       </c>
       <c r="E75" s="7">
         <v>78472</v>
@@ -13587,10 +13587,10 @@
         <v>31058</v>
       </c>
       <c r="C76" s="7">
-        <v>28757</v>
+        <v>31920</v>
       </c>
       <c r="D76" s="7">
-        <v>51249</v>
+        <v>56886</v>
       </c>
       <c r="E76" s="7">
         <v>81706</v>
@@ -13745,10 +13745,10 @@
         <v>32413</v>
       </c>
       <c r="C77" s="7">
-        <v>30012</v>
+        <v>33313</v>
       </c>
       <c r="D77" s="7">
-        <v>53223</v>
+        <v>59078</v>
       </c>
       <c r="E77" s="7">
         <v>83193</v>
@@ -13903,10 +13903,10 @@
         <v>33679</v>
       </c>
       <c r="C78" s="7">
-        <v>31184</v>
+        <v>34614</v>
       </c>
       <c r="D78" s="7">
-        <v>55591</v>
+        <v>61706</v>
       </c>
       <c r="E78" s="7">
         <v>88458</v>
@@ -14061,10 +14061,10 @@
         <v>34656</v>
       </c>
       <c r="C79" s="7">
-        <v>32089</v>
+        <v>35619</v>
       </c>
       <c r="D79" s="7">
-        <v>56754</v>
+        <v>62997</v>
       </c>
       <c r="E79" s="7">
         <v>94582</v>
@@ -14219,10 +14219,10 @@
         <v>35932</v>
       </c>
       <c r="C80" s="7">
-        <v>33270</v>
+        <v>36930</v>
       </c>
       <c r="D80" s="7">
-        <v>58589</v>
+        <v>65034</v>
       </c>
       <c r="E80" s="7">
         <v>97235</v>
@@ -14377,10 +14377,10 @@
         <v>37243</v>
       </c>
       <c r="C81" s="7">
-        <v>34484</v>
+        <v>38277</v>
       </c>
       <c r="D81" s="7">
-        <v>60458</v>
+        <v>67108</v>
       </c>
       <c r="E81" s="7">
         <v>100306</v>
@@ -14535,10 +14535,10 @@
         <v>41188</v>
       </c>
       <c r="C82" s="7">
-        <v>38314</v>
+        <v>42337</v>
       </c>
       <c r="D82" s="7">
-        <v>67563</v>
+        <v>74657</v>
       </c>
       <c r="E82" s="7">
         <v>101890</v>
@@ -14693,10 +14693,10 @@
         <v>42532</v>
       </c>
       <c r="C83" s="7">
-        <v>39565</v>
+        <v>43719</v>
       </c>
       <c r="D83" s="7">
-        <v>69794</v>
+        <v>77122</v>
       </c>
       <c r="E83" s="7">
         <v>107790</v>
@@ -14851,10 +14851,10 @@
         <v>43904</v>
       </c>
       <c r="C84" s="7">
-        <v>40841</v>
+        <v>45129</v>
       </c>
       <c r="D84" s="7">
-        <v>71884</v>
+        <v>79432</v>
       </c>
       <c r="E84" s="7">
         <v>110927</v>
@@ -15009,10 +15009,10 @@
         <v>44752</v>
       </c>
       <c r="C85" s="7">
-        <v>41630</v>
+        <v>46001</v>
       </c>
       <c r="D85" s="7">
-        <v>73247</v>
+        <v>80938</v>
       </c>
       <c r="E85" s="7">
         <v>112893</v>
@@ -15167,10 +15167,10 @@
         <v>45999</v>
       </c>
       <c r="C86" s="7">
-        <v>42790</v>
+        <v>47283</v>
       </c>
       <c r="D86" s="7">
-        <v>75335</v>
+        <v>83245</v>
       </c>
       <c r="E86" s="7">
         <v>114681</v>
@@ -15325,10 +15325,10 @@
         <v>47537</v>
       </c>
       <c r="C87" s="7">
-        <v>44220</v>
+        <v>48863</v>
       </c>
       <c r="D87" s="7">
-        <v>77895</v>
+        <v>86074</v>
       </c>
       <c r="E87" s="7">
         <v>116737</v>
@@ -15483,10 +15483,10 @@
         <v>49073</v>
       </c>
       <c r="C88" s="7">
-        <v>45649</v>
+        <v>50442</v>
       </c>
       <c r="D88" s="7">
-        <v>80452</v>
+        <v>88899</v>
       </c>
       <c r="E88" s="7">
         <v>118882</v>
@@ -15641,10 +15641,10 @@
         <v>50755</v>
       </c>
       <c r="C89" s="7">
-        <v>47214</v>
+        <v>52171</v>
       </c>
       <c r="D89" s="7">
-        <v>83001</v>
+        <v>91716</v>
       </c>
       <c r="E89" s="7">
         <v>120759</v>
@@ -15799,10 +15799,10 @@
         <v>51816</v>
       </c>
       <c r="C90" s="7">
-        <v>48201</v>
+        <v>53262</v>
       </c>
       <c r="D90" s="7">
-        <v>84689</v>
+        <v>93581</v>
       </c>
       <c r="E90" s="7">
         <v>122636</v>
@@ -15957,10 +15957,10 @@
         <v>53365</v>
       </c>
       <c r="C91" s="7">
-        <v>49642</v>
+        <v>54854</v>
       </c>
       <c r="D91" s="7">
-        <v>87265</v>
+        <v>96428</v>
       </c>
       <c r="E91" s="7">
         <v>124603</v>
@@ -16115,10 +16115,10 @@
         <v>57132</v>
       </c>
       <c r="C92" s="7">
-        <v>53645</v>
+        <v>58741</v>
       </c>
       <c r="D92" s="7">
-        <v>88716</v>
+        <v>97144</v>
       </c>
       <c r="E92" s="7">
         <v>126570</v>
@@ -16273,10 +16273,10 @@
         <v>59052</v>
       </c>
       <c r="C93" s="7">
-        <v>55448</v>
+        <v>60716</v>
       </c>
       <c r="D93" s="7">
-        <v>90167</v>
+        <v>98733</v>
       </c>
       <c r="E93" s="7">
         <v>128625</v>
@@ -16431,10 +16431,10 @@
         <v>60914</v>
       </c>
       <c r="C94" s="7">
-        <v>57196</v>
+        <v>62630</v>
       </c>
       <c r="D94" s="7">
-        <v>92827</v>
+        <v>101646</v>
       </c>
       <c r="E94" s="7">
         <v>130502</v>
@@ -16589,10 +16589,10 @@
         <v>62239</v>
       </c>
       <c r="C95" s="7">
-        <v>58440</v>
+        <v>63992</v>
       </c>
       <c r="D95" s="7">
-        <v>94791</v>
+        <v>103796</v>
       </c>
       <c r="E95" s="7">
         <v>132468</v>
@@ -16747,10 +16747,10 @@
         <v>64062</v>
       </c>
       <c r="C96" s="7">
-        <v>60152</v>
+        <v>65866</v>
       </c>
       <c r="D96" s="7">
-        <v>97636</v>
+        <v>106911</v>
       </c>
       <c r="E96" s="7">
         <v>134614</v>
@@ -16905,10 +16905,10 @@
         <v>65722</v>
       </c>
       <c r="C97" s="7">
-        <v>61711</v>
+        <v>67574</v>
       </c>
       <c r="D97" s="7">
-        <v>100230</v>
+        <v>109752</v>
       </c>
       <c r="E97" s="7">
         <v>136580</v>
@@ -17063,10 +17063,10 @@
         <v>67446</v>
       </c>
       <c r="C98" s="7">
-        <v>63330</v>
+        <v>69346</v>
       </c>
       <c r="D98" s="7">
-        <v>102917</v>
+        <v>112694</v>
       </c>
       <c r="E98" s="7">
         <v>138636</v>
@@ -17221,10 +17221,10 @@
         <v>69255</v>
       </c>
       <c r="C99" s="7">
-        <v>65028</v>
+        <v>71206</v>
       </c>
       <c r="D99" s="7">
-        <v>105454</v>
+        <v>115472</v>
       </c>
       <c r="E99" s="7">
         <v>141125</v>
@@ -17379,10 +17379,10 @@
         <v>70217</v>
       </c>
       <c r="C100" s="7">
-        <v>65931</v>
+        <v>72194</v>
       </c>
       <c r="D100" s="7">
-        <v>106902</v>
+        <v>117058</v>
       </c>
       <c r="E100" s="7">
         <v>143609</v>
@@ -17537,10 +17537,10 @@
         <v>71825</v>
       </c>
       <c r="C101" s="7">
-        <v>67441</v>
+        <v>73848</v>
       </c>
       <c r="D101" s="7">
-        <v>111317</v>
+        <v>121892</v>
       </c>
       <c r="E101" s="7">
         <v>149539</v>
@@ -17697,8 +17697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B896F2-12D2-429B-9B09-4A097A6AF099}">
   <dimension ref="A1:AZ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM25" sqref="AM25"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -17874,10 +17874,10 @@
         <v>5524</v>
       </c>
       <c r="C2" s="5">
-        <v>5211</v>
+        <v>5680</v>
       </c>
       <c r="D2" s="5">
-        <v>7159</v>
+        <v>7803</v>
       </c>
       <c r="E2" s="5">
         <v>8703</v>
@@ -18032,10 +18032,10 @@
         <v>5524</v>
       </c>
       <c r="C3" s="7">
-        <v>5211</v>
+        <v>5680</v>
       </c>
       <c r="D3" s="7">
-        <v>7159</v>
+        <v>7803</v>
       </c>
       <c r="E3" s="7">
         <v>8703</v>
@@ -18190,10 +18190,10 @@
         <v>5524</v>
       </c>
       <c r="C4" s="7">
-        <v>5211</v>
+        <v>5680</v>
       </c>
       <c r="D4" s="7">
-        <v>7159</v>
+        <v>7803</v>
       </c>
       <c r="E4" s="7">
         <v>8703</v>
@@ -18348,10 +18348,10 @@
         <v>5524</v>
       </c>
       <c r="C5" s="7">
-        <v>5211</v>
+        <v>5680</v>
       </c>
       <c r="D5" s="7">
-        <v>7159</v>
+        <v>7803</v>
       </c>
       <c r="E5" s="7">
         <v>8703</v>
@@ -18506,10 +18506,10 @@
         <v>4728</v>
       </c>
       <c r="C6" s="7">
-        <v>4342</v>
+        <v>4863</v>
       </c>
       <c r="D6" s="7">
-        <v>6781</v>
+        <v>7595</v>
       </c>
       <c r="E6" s="7">
         <v>8703</v>
@@ -18664,10 +18664,10 @@
         <v>4728</v>
       </c>
       <c r="C7" s="7">
-        <v>4342</v>
+        <v>4863</v>
       </c>
       <c r="D7" s="7">
-        <v>6781</v>
+        <v>7595</v>
       </c>
       <c r="E7" s="7">
         <v>7956</v>
@@ -18822,10 +18822,10 @@
         <v>4728</v>
       </c>
       <c r="C8" s="7">
-        <v>4342</v>
+        <v>4863</v>
       </c>
       <c r="D8" s="7">
-        <v>6781</v>
+        <v>7595</v>
       </c>
       <c r="E8" s="7">
         <v>7956</v>
@@ -18980,10 +18980,10 @@
         <v>4728</v>
       </c>
       <c r="C9" s="7">
-        <v>4342</v>
+        <v>4863</v>
       </c>
       <c r="D9" s="7">
-        <v>6781</v>
+        <v>7595</v>
       </c>
       <c r="E9" s="7">
         <v>7956</v>
@@ -19138,10 +19138,10 @@
         <v>4728</v>
       </c>
       <c r="C10" s="7">
-        <v>4342</v>
+        <v>4863</v>
       </c>
       <c r="D10" s="7">
-        <v>6781</v>
+        <v>7595</v>
       </c>
       <c r="E10" s="7">
         <v>7956</v>
@@ -19296,10 +19296,10 @@
         <v>4728</v>
       </c>
       <c r="C11" s="7">
-        <v>4342</v>
+        <v>4863</v>
       </c>
       <c r="D11" s="7">
-        <v>6781</v>
+        <v>7595</v>
       </c>
       <c r="E11" s="7">
         <v>7956</v>
@@ -19454,10 +19454,10 @@
         <v>4728</v>
       </c>
       <c r="C12" s="7">
-        <v>4342</v>
+        <v>4863</v>
       </c>
       <c r="D12" s="7">
-        <v>6781</v>
+        <v>7595</v>
       </c>
       <c r="E12" s="7">
         <v>7956</v>
@@ -19612,10 +19612,10 @@
         <v>4728</v>
       </c>
       <c r="C13" s="7">
-        <v>4342</v>
+        <v>4863</v>
       </c>
       <c r="D13" s="7">
-        <v>6781</v>
+        <v>7595</v>
       </c>
       <c r="E13" s="7">
         <v>7956</v>
@@ -19770,10 +19770,10 @@
         <v>4728</v>
       </c>
       <c r="C14" s="7">
-        <v>4342</v>
+        <v>4863</v>
       </c>
       <c r="D14" s="7">
-        <v>6781</v>
+        <v>7595</v>
       </c>
       <c r="E14" s="7">
         <v>7956</v>
@@ -19928,10 +19928,10 @@
         <v>4728</v>
       </c>
       <c r="C15" s="7">
-        <v>4342</v>
+        <v>4863</v>
       </c>
       <c r="D15" s="7">
-        <v>6781</v>
+        <v>7595</v>
       </c>
       <c r="E15" s="7">
         <v>7956</v>
@@ -20086,10 +20086,10 @@
         <v>4728</v>
       </c>
       <c r="C16" s="7">
-        <v>4342</v>
+        <v>4863</v>
       </c>
       <c r="D16" s="7">
-        <v>6781</v>
+        <v>7595</v>
       </c>
       <c r="E16" s="7">
         <v>7956</v>
@@ -20244,10 +20244,10 @@
         <v>4728</v>
       </c>
       <c r="C17" s="7">
-        <v>4342</v>
+        <v>4863</v>
       </c>
       <c r="D17" s="7">
-        <v>6781</v>
+        <v>7595</v>
       </c>
       <c r="E17" s="7">
         <v>7956</v>
@@ -20402,10 +20402,10 @@
         <v>4728</v>
       </c>
       <c r="C18" s="7">
-        <v>4342</v>
+        <v>4863</v>
       </c>
       <c r="D18" s="7">
-        <v>6685</v>
+        <v>7487</v>
       </c>
       <c r="E18" s="7">
         <v>7956</v>
@@ -20560,10 +20560,10 @@
         <v>4728</v>
       </c>
       <c r="C19" s="7">
-        <v>4342</v>
+        <v>4863</v>
       </c>
       <c r="D19" s="7">
-        <v>6802</v>
+        <v>7618</v>
       </c>
       <c r="E19" s="7">
         <v>7956</v>
@@ -20718,10 +20718,10 @@
         <v>4647</v>
       </c>
       <c r="C20" s="7">
-        <v>4267</v>
+        <v>4779</v>
       </c>
       <c r="D20" s="7">
-        <v>6770</v>
+        <v>7582</v>
       </c>
       <c r="E20" s="7">
         <v>8177</v>
@@ -20876,10 +20876,10 @@
         <v>3718</v>
       </c>
       <c r="C21" s="7">
-        <v>3414</v>
+        <v>3824</v>
       </c>
       <c r="D21" s="7">
-        <v>6484</v>
+        <v>7262</v>
       </c>
       <c r="E21" s="7">
         <v>8244</v>
@@ -21034,10 +21034,10 @@
         <v>3754</v>
       </c>
       <c r="C22" s="7">
-        <v>3447</v>
+        <v>3861</v>
       </c>
       <c r="D22" s="7">
-        <v>6398</v>
+        <v>7166</v>
       </c>
       <c r="E22" s="7">
         <v>8437</v>
@@ -21192,10 +21192,10 @@
         <v>3696</v>
       </c>
       <c r="C23" s="7">
-        <v>3394</v>
+        <v>3801</v>
       </c>
       <c r="D23" s="7">
-        <v>6288</v>
+        <v>7043</v>
       </c>
       <c r="E23" s="7">
         <v>8697</v>
@@ -21350,10 +21350,10 @@
         <v>3611</v>
       </c>
       <c r="C24" s="7">
-        <v>3316</v>
+        <v>3714</v>
       </c>
       <c r="D24" s="7">
-        <v>6433</v>
+        <v>7205</v>
       </c>
       <c r="E24" s="7">
         <v>8948</v>
@@ -21508,10 +21508,10 @@
         <v>3644</v>
       </c>
       <c r="C25" s="7">
-        <v>3346</v>
+        <v>3748</v>
       </c>
       <c r="D25" s="7">
-        <v>6579</v>
+        <v>7368</v>
       </c>
       <c r="E25" s="7">
         <v>9131</v>
@@ -21666,10 +21666,10 @@
         <v>3682</v>
       </c>
       <c r="C26" s="7">
-        <v>3381</v>
+        <v>3787</v>
       </c>
       <c r="D26" s="7">
-        <v>6914</v>
+        <v>7744</v>
       </c>
       <c r="E26" s="7">
         <v>9267</v>
@@ -21824,10 +21824,10 @@
         <v>3853</v>
       </c>
       <c r="C27" s="7">
-        <v>3538</v>
+        <v>3963</v>
       </c>
       <c r="D27" s="7">
-        <v>7342</v>
+        <v>8223</v>
       </c>
       <c r="E27" s="7">
         <v>9723</v>
@@ -21982,10 +21982,10 @@
         <v>4082</v>
       </c>
       <c r="C28" s="7">
-        <v>3748</v>
+        <v>4198</v>
       </c>
       <c r="D28" s="7">
-        <v>7773</v>
+        <v>8706</v>
       </c>
       <c r="E28" s="7">
         <v>10254</v>
@@ -22140,10 +22140,10 @@
         <v>4304</v>
       </c>
       <c r="C29" s="7">
-        <v>3952</v>
+        <v>4426</v>
       </c>
       <c r="D29" s="7">
-        <v>7778</v>
+        <v>8711</v>
       </c>
       <c r="E29" s="7">
         <v>10778</v>
@@ -22298,10 +22298,10 @@
         <v>4538</v>
       </c>
       <c r="C30" s="7">
-        <v>4167</v>
+        <v>4667</v>
       </c>
       <c r="D30" s="7">
-        <v>7782</v>
+        <v>8716</v>
       </c>
       <c r="E30" s="7">
         <v>11167</v>
@@ -22456,10 +22456,10 @@
         <v>4751</v>
       </c>
       <c r="C31" s="7">
-        <v>4363</v>
+        <v>4887</v>
       </c>
       <c r="D31" s="7">
-        <v>8165</v>
+        <v>9145</v>
       </c>
       <c r="E31" s="7">
         <v>11417</v>
@@ -22614,10 +22614,10 @@
         <v>4917</v>
       </c>
       <c r="C32" s="7">
-        <v>4515</v>
+        <v>5057</v>
       </c>
       <c r="D32" s="7">
-        <v>8415</v>
+        <v>9425</v>
       </c>
       <c r="E32" s="7">
         <v>11587</v>
@@ -22772,10 +22772,10 @@
         <v>5054</v>
       </c>
       <c r="C33" s="7">
-        <v>4641</v>
+        <v>5198</v>
       </c>
       <c r="D33" s="7">
-        <v>8664</v>
+        <v>9704</v>
       </c>
       <c r="E33" s="7">
         <v>11851</v>
@@ -22930,10 +22930,10 @@
         <v>5210</v>
       </c>
       <c r="C34" s="7">
-        <v>4784</v>
+        <v>5358</v>
       </c>
       <c r="D34" s="7">
-        <v>8782</v>
+        <v>9836</v>
       </c>
       <c r="E34" s="7">
         <v>11951</v>
@@ -23088,10 +23088,10 @@
         <v>5337</v>
       </c>
       <c r="C35" s="7">
-        <v>4901</v>
+        <v>5489</v>
       </c>
       <c r="D35" s="7">
-        <v>9026</v>
+        <v>10109</v>
       </c>
       <c r="E35" s="7">
         <v>12208</v>
@@ -23246,10 +23246,10 @@
         <v>5491</v>
       </c>
       <c r="C36" s="7">
-        <v>5042</v>
+        <v>5647</v>
       </c>
       <c r="D36" s="7">
-        <v>9061</v>
+        <v>10148</v>
       </c>
       <c r="E36" s="7">
         <v>12440</v>
@@ -23404,10 +23404,10 @@
         <v>5568</v>
       </c>
       <c r="C37" s="5">
-        <v>5113</v>
+        <v>5727</v>
       </c>
       <c r="D37" s="5">
-        <v>9149</v>
+        <v>10247</v>
       </c>
       <c r="E37" s="5">
         <v>12884</v>
@@ -23562,10 +23562,10 @@
         <v>5603</v>
       </c>
       <c r="C38" s="7">
-        <v>5145</v>
+        <v>5762</v>
       </c>
       <c r="D38" s="7">
-        <v>9296</v>
+        <v>10412</v>
       </c>
       <c r="E38" s="7">
         <v>12908</v>
@@ -23720,10 +23720,10 @@
         <v>5605</v>
       </c>
       <c r="C39" s="7">
-        <v>5147</v>
+        <v>5765</v>
       </c>
       <c r="D39" s="7">
-        <v>9591</v>
+        <v>10742</v>
       </c>
       <c r="E39" s="7">
         <v>13172</v>
@@ -23878,10 +23878,10 @@
         <v>5607</v>
       </c>
       <c r="C40" s="7">
-        <v>5149</v>
+        <v>5767</v>
       </c>
       <c r="D40" s="7">
-        <v>9591</v>
+        <v>10742</v>
       </c>
       <c r="E40" s="7">
         <v>13517</v>
@@ -24036,10 +24036,10 @@
         <v>5609</v>
       </c>
       <c r="C41" s="7">
-        <v>5151</v>
+        <v>5769</v>
       </c>
       <c r="D41" s="7">
-        <v>9738</v>
+        <v>10907</v>
       </c>
       <c r="E41" s="7">
         <v>13622</v>
@@ -24194,10 +24194,10 @@
         <v>5689</v>
       </c>
       <c r="C42" s="7">
-        <v>5224</v>
+        <v>5851</v>
       </c>
       <c r="D42" s="7">
-        <v>9860</v>
+        <v>11043</v>
       </c>
       <c r="E42" s="7">
         <v>13808</v>
@@ -24352,10 +24352,10 @@
         <v>5920</v>
       </c>
       <c r="C43" s="7">
-        <v>5436</v>
+        <v>6088</v>
       </c>
       <c r="D43" s="7">
-        <v>10431</v>
+        <v>11683</v>
       </c>
       <c r="E43" s="7">
         <v>14076</v>
@@ -24510,10 +24510,10 @@
         <v>6171</v>
       </c>
       <c r="C44" s="7">
-        <v>5667</v>
+        <v>6347</v>
       </c>
       <c r="D44" s="7">
-        <v>11157</v>
+        <v>12496</v>
       </c>
       <c r="E44" s="7">
         <v>14424</v>
@@ -24668,10 +24668,10 @@
         <v>6379</v>
       </c>
       <c r="C45" s="7">
-        <v>5858</v>
+        <v>6561</v>
       </c>
       <c r="D45" s="7">
-        <v>11379</v>
+        <v>12744</v>
       </c>
       <c r="E45" s="7">
         <v>15097</v>
@@ -24826,10 +24826,10 @@
         <v>6667</v>
       </c>
       <c r="C46" s="7">
-        <v>6122</v>
+        <v>6857</v>
       </c>
       <c r="D46" s="7">
-        <v>12254</v>
+        <v>13724</v>
       </c>
       <c r="E46" s="7">
         <v>16015</v>
@@ -24984,10 +24984,10 @@
         <v>6995</v>
       </c>
       <c r="C47" s="7">
-        <v>6423</v>
+        <v>7194</v>
       </c>
       <c r="D47" s="7">
-        <v>12792</v>
+        <v>14327</v>
       </c>
       <c r="E47" s="7">
         <v>16816</v>
@@ -25142,10 +25142,10 @@
         <v>7332</v>
       </c>
       <c r="C48" s="7">
-        <v>6733</v>
+        <v>7541</v>
       </c>
       <c r="D48" s="7">
-        <v>13332</v>
+        <v>14932</v>
       </c>
       <c r="E48" s="7">
         <v>17778</v>
@@ -25300,10 +25300,10 @@
         <v>7846</v>
       </c>
       <c r="C49" s="7">
-        <v>7205</v>
+        <v>8070</v>
       </c>
       <c r="D49" s="7">
-        <v>13972</v>
+        <v>15649</v>
       </c>
       <c r="E49" s="7">
         <v>18334</v>
@@ -25458,10 +25458,10 @@
         <v>8258</v>
       </c>
       <c r="C50" s="7">
-        <v>7583</v>
+        <v>8493</v>
       </c>
       <c r="D50" s="7">
-        <v>14513</v>
+        <v>16255</v>
       </c>
       <c r="E50" s="7">
         <v>19053</v>
@@ -25616,10 +25616,10 @@
         <v>8686</v>
       </c>
       <c r="C51" s="7">
-        <v>7976</v>
+        <v>8933</v>
       </c>
       <c r="D51" s="7">
-        <v>15709</v>
+        <v>17594</v>
       </c>
       <c r="E51" s="7">
         <v>19851</v>
@@ -25774,10 +25774,10 @@
         <v>8802</v>
       </c>
       <c r="C52" s="7">
-        <v>8083</v>
+        <v>9053</v>
       </c>
       <c r="D52" s="7">
-        <v>16204</v>
+        <v>18148</v>
       </c>
       <c r="E52" s="7">
         <v>20245</v>
@@ -25932,10 +25932,10 @@
         <v>8882</v>
       </c>
       <c r="C53" s="7">
-        <v>8156</v>
+        <v>9135</v>
       </c>
       <c r="D53" s="7">
-        <v>16924</v>
+        <v>18955</v>
       </c>
       <c r="E53" s="7">
         <v>21005</v>
@@ -26090,10 +26090,10 @@
         <v>9447</v>
       </c>
       <c r="C54" s="7">
-        <v>8675</v>
+        <v>9716</v>
       </c>
       <c r="D54" s="7">
-        <v>18395</v>
+        <v>20602</v>
       </c>
       <c r="E54" s="7">
         <v>22748</v>
@@ -26248,10 +26248,10 @@
         <v>9922</v>
       </c>
       <c r="C55" s="7">
-        <v>9111</v>
+        <v>10204</v>
       </c>
       <c r="D55" s="7">
-        <v>19149</v>
+        <v>21447</v>
       </c>
       <c r="E55" s="7">
         <v>23758</v>
@@ -26406,10 +26406,10 @@
         <v>10408</v>
       </c>
       <c r="C56" s="7">
-        <v>9557</v>
+        <v>10704</v>
       </c>
       <c r="D56" s="7">
-        <v>20094</v>
+        <v>22505</v>
       </c>
       <c r="E56" s="7">
         <v>24754</v>
@@ -26564,10 +26564,10 @@
         <v>11090</v>
       </c>
       <c r="C57" s="7">
-        <v>10184</v>
+        <v>11406</v>
       </c>
       <c r="D57" s="7">
-        <v>21247</v>
+        <v>23797</v>
       </c>
       <c r="E57" s="7">
         <v>25821</v>
@@ -26722,10 +26722,10 @@
         <v>11793</v>
       </c>
       <c r="C58" s="7">
-        <v>10829</v>
+        <v>12128</v>
       </c>
       <c r="D58" s="7">
-        <v>23580</v>
+        <v>26410</v>
       </c>
       <c r="E58" s="7">
         <v>27464</v>
@@ -26880,10 +26880,10 @@
         <v>12677</v>
       </c>
       <c r="C59" s="7">
-        <v>11641</v>
+        <v>13038</v>
       </c>
       <c r="D59" s="7">
-        <v>25030</v>
+        <v>28034</v>
       </c>
       <c r="E59" s="7">
         <v>29052</v>
@@ -27038,10 +27038,10 @@
         <v>13377</v>
       </c>
       <c r="C60" s="7">
-        <v>12284</v>
+        <v>13758</v>
       </c>
       <c r="D60" s="7">
-        <v>26260</v>
+        <v>29411</v>
       </c>
       <c r="E60" s="7">
         <v>30560</v>
@@ -27196,10 +27196,10 @@
         <v>14062</v>
       </c>
       <c r="C61" s="7">
-        <v>12913</v>
+        <v>14463</v>
       </c>
       <c r="D61" s="7">
-        <v>27485</v>
+        <v>30783</v>
       </c>
       <c r="E61" s="7">
         <v>32643</v>
@@ -27354,10 +27354,10 @@
         <v>15246</v>
       </c>
       <c r="C62" s="7">
-        <v>14000</v>
+        <v>15680</v>
       </c>
       <c r="D62" s="7">
-        <v>28607</v>
+        <v>32040</v>
       </c>
       <c r="E62" s="7">
         <v>34291</v>
@@ -27512,10 +27512,10 @@
         <v>16263</v>
       </c>
       <c r="C63" s="7">
-        <v>14934</v>
+        <v>16726</v>
       </c>
       <c r="D63" s="7">
-        <v>30556</v>
+        <v>34223</v>
       </c>
       <c r="E63" s="7">
         <v>35999</v>
@@ -27670,10 +27670,10 @@
         <v>17547</v>
       </c>
       <c r="C64" s="7">
-        <v>16113</v>
+        <v>18047</v>
       </c>
       <c r="D64" s="7">
-        <v>31712</v>
+        <v>35517</v>
       </c>
       <c r="E64" s="7">
         <v>39079</v>
@@ -27828,10 +27828,10 @@
         <v>18734</v>
       </c>
       <c r="C65" s="7">
-        <v>17203</v>
+        <v>19267</v>
       </c>
       <c r="D65" s="7">
-        <v>33687</v>
+        <v>37729</v>
       </c>
       <c r="E65" s="7">
         <v>43151</v>
@@ -27986,10 +27986,10 @@
         <v>19942</v>
       </c>
       <c r="C66" s="7">
-        <v>18312</v>
+        <v>20509</v>
       </c>
       <c r="D66" s="7">
-        <v>35670</v>
+        <v>39950</v>
       </c>
       <c r="E66" s="7">
         <v>48281</v>
@@ -28144,10 +28144,10 @@
         <v>21449</v>
       </c>
       <c r="C67" s="7">
-        <v>19696</v>
+        <v>22060</v>
       </c>
       <c r="D67" s="7">
-        <v>38096</v>
+        <v>42668</v>
       </c>
       <c r="E67" s="7">
         <v>52440</v>
@@ -28302,10 +28302,10 @@
         <v>22953</v>
       </c>
       <c r="C68" s="7">
-        <v>21077</v>
+        <v>23606</v>
       </c>
       <c r="D68" s="7">
-        <v>41549</v>
+        <v>46535</v>
       </c>
       <c r="E68" s="7">
         <v>56687</v>
@@ -28460,10 +28460,10 @@
         <v>24758</v>
       </c>
       <c r="C69" s="7">
-        <v>22735</v>
+        <v>25463</v>
       </c>
       <c r="D69" s="7">
-        <v>42780</v>
+        <v>47914</v>
       </c>
       <c r="E69" s="7">
         <v>58921</v>
@@ -28618,10 +28618,10 @@
         <v>26322</v>
       </c>
       <c r="C70" s="7">
-        <v>24171</v>
+        <v>27072</v>
       </c>
       <c r="D70" s="7">
-        <v>45200</v>
+        <v>50624</v>
       </c>
       <c r="E70" s="7">
         <v>60257</v>
@@ -28776,10 +28776,10 @@
         <v>27888</v>
       </c>
       <c r="C71" s="7">
-        <v>25609</v>
+        <v>28682</v>
       </c>
       <c r="D71" s="7">
-        <v>48271</v>
+        <v>54064</v>
       </c>
       <c r="E71" s="7">
         <v>62245</v>
@@ -28934,10 +28934,10 @@
         <v>30737</v>
       </c>
       <c r="C72" s="5">
-        <v>28225</v>
+        <v>31612</v>
       </c>
       <c r="D72" s="5">
-        <v>51222</v>
+        <v>57369</v>
       </c>
       <c r="E72" s="5">
         <v>63951</v>
@@ -29092,10 +29092,10 @@
         <v>32747</v>
       </c>
       <c r="C73" s="7">
-        <v>30071</v>
+        <v>33680</v>
       </c>
       <c r="D73" s="7">
-        <v>54638</v>
+        <v>61195</v>
       </c>
       <c r="E73" s="7">
         <v>70703</v>
@@ -29250,10 +29250,10 @@
         <v>34980</v>
       </c>
       <c r="C74" s="7">
-        <v>32121</v>
+        <v>35976</v>
       </c>
       <c r="D74" s="7">
-        <v>56503</v>
+        <v>63283</v>
       </c>
       <c r="E74" s="7">
         <v>74620</v>
@@ -29408,10 +29408,10 @@
         <v>36340</v>
       </c>
       <c r="C75" s="7">
-        <v>33370</v>
+        <v>37374</v>
       </c>
       <c r="D75" s="7">
-        <v>58402</v>
+        <v>65410</v>
       </c>
       <c r="E75" s="7">
         <v>78472</v>
@@ -29566,10 +29566,10 @@
         <v>37297</v>
       </c>
       <c r="C76" s="7">
-        <v>34534</v>
+        <v>38333</v>
       </c>
       <c r="D76" s="7">
-        <v>59790</v>
+        <v>66367</v>
       </c>
       <c r="E76" s="7">
         <v>81706</v>
@@ -29724,10 +29724,10 @@
         <v>38607</v>
       </c>
       <c r="C77" s="7">
-        <v>35747</v>
+        <v>39679</v>
       </c>
       <c r="D77" s="7">
-        <v>61666</v>
+        <v>68449</v>
       </c>
       <c r="E77" s="7">
         <v>83193</v>
@@ -29882,10 +29882,10 @@
         <v>40023</v>
       </c>
       <c r="C78" s="7">
-        <v>37058</v>
+        <v>41134</v>
       </c>
       <c r="D78" s="7">
-        <v>64287</v>
+        <v>71359</v>
       </c>
       <c r="E78" s="7">
         <v>88458</v>
@@ -30040,10 +30040,10 @@
         <v>42216</v>
       </c>
       <c r="C79" s="7">
-        <v>39089</v>
+        <v>43389</v>
       </c>
       <c r="D79" s="7">
-        <v>67706</v>
+        <v>75154</v>
       </c>
       <c r="E79" s="7">
         <v>94582</v>
@@ -30198,10 +30198,10 @@
         <v>43676</v>
       </c>
       <c r="C80" s="7">
-        <v>40441</v>
+        <v>44890</v>
       </c>
       <c r="D80" s="7">
-        <v>69771</v>
+        <v>77446</v>
       </c>
       <c r="E80" s="7">
         <v>97235</v>
@@ -30356,10 +30356,10 @@
         <v>45121</v>
       </c>
       <c r="C81" s="7">
-        <v>41779</v>
+        <v>46375</v>
       </c>
       <c r="D81" s="7">
-        <v>77513</v>
+        <v>86039</v>
       </c>
       <c r="E81" s="7">
         <v>100306</v>
@@ -30514,10 +30514,10 @@
         <v>49893</v>
       </c>
       <c r="C82" s="7">
-        <v>46412</v>
+        <v>51285</v>
       </c>
       <c r="D82" s="7">
-        <v>78389</v>
+        <v>86620</v>
       </c>
       <c r="E82" s="7">
         <v>101890</v>
@@ -30672,10 +30672,10 @@
         <v>51552</v>
       </c>
       <c r="C83" s="7">
-        <v>47955</v>
+        <v>52990</v>
       </c>
       <c r="D83" s="7">
-        <v>84746</v>
+        <v>93644</v>
       </c>
       <c r="E83" s="7">
         <v>107790</v>
@@ -30830,10 +30830,10 @@
         <v>54404</v>
       </c>
       <c r="C84" s="7">
-        <v>50608</v>
+        <v>55922</v>
       </c>
       <c r="D84" s="7">
-        <v>85665</v>
+        <v>94660</v>
       </c>
       <c r="E84" s="7">
         <v>110927</v>
@@ -30988,10 +30988,10 @@
         <v>55970</v>
       </c>
       <c r="C85" s="7">
-        <v>52065</v>
+        <v>57532</v>
       </c>
       <c r="D85" s="7">
-        <v>88191</v>
+        <v>97451</v>
       </c>
       <c r="E85" s="7">
         <v>112893</v>
@@ -31146,10 +31146,10 @@
         <v>57732</v>
       </c>
       <c r="C86" s="7">
-        <v>53704</v>
+        <v>59343</v>
       </c>
       <c r="D86" s="7">
-        <v>90974</v>
+        <v>100526</v>
       </c>
       <c r="E86" s="7">
         <v>114681</v>
@@ -31304,10 +31304,10 @@
         <v>59775</v>
       </c>
       <c r="C87" s="7">
-        <v>55605</v>
+        <v>61444</v>
       </c>
       <c r="D87" s="7">
-        <v>94217</v>
+        <v>104110</v>
       </c>
       <c r="E87" s="7">
         <v>116737</v>
@@ -31462,10 +31462,10 @@
         <v>61779</v>
       </c>
       <c r="C88" s="7">
-        <v>57469</v>
+        <v>63503</v>
       </c>
       <c r="D88" s="7">
-        <v>101759</v>
+        <v>112444</v>
       </c>
       <c r="E88" s="7">
         <v>118882</v>
@@ -31620,10 +31620,10 @@
         <v>65034</v>
       </c>
       <c r="C89" s="7">
-        <v>60497</v>
+        <v>66849</v>
       </c>
       <c r="D89" s="7">
-        <v>104673</v>
+        <v>115664</v>
       </c>
       <c r="E89" s="7">
         <v>120759</v>
@@ -31778,10 +31778,10 @@
         <v>66816</v>
       </c>
       <c r="C90" s="7">
-        <v>62154</v>
+        <v>68680</v>
       </c>
       <c r="D90" s="7">
-        <v>107857</v>
+        <v>119182</v>
       </c>
       <c r="E90" s="7">
         <v>122636</v>
@@ -31936,10 +31936,10 @@
         <v>68804</v>
       </c>
       <c r="C91" s="7">
-        <v>64004</v>
+        <v>70724</v>
       </c>
       <c r="D91" s="7">
-        <v>109905</v>
+        <v>121445</v>
       </c>
       <c r="E91" s="7">
         <v>124603</v>
@@ -32094,10 +32094,10 @@
         <v>73462</v>
       </c>
       <c r="C92" s="7">
-        <v>68978</v>
+        <v>75531</v>
       </c>
       <c r="D92" s="7">
-        <v>111953</v>
+        <v>122589</v>
       </c>
       <c r="E92" s="7">
         <v>126570</v>
@@ -32252,10 +32252,10 @@
         <v>75855</v>
       </c>
       <c r="C93" s="7">
-        <v>71225</v>
+        <v>77991</v>
       </c>
       <c r="D93" s="7">
-        <v>112817</v>
+        <v>123535</v>
       </c>
       <c r="E93" s="7">
         <v>128625</v>
@@ -32410,10 +32410,10 @@
         <v>79958</v>
       </c>
       <c r="C94" s="7">
-        <v>75078</v>
+        <v>82210</v>
       </c>
       <c r="D94" s="7">
-        <v>119144</v>
+        <v>130463</v>
       </c>
       <c r="E94" s="7">
         <v>130502</v>
@@ -32568,10 +32568,10 @@
         <v>82087</v>
       </c>
       <c r="C95" s="7">
-        <v>77077</v>
+        <v>84399</v>
       </c>
       <c r="D95" s="7">
-        <v>119388</v>
+        <v>130730</v>
       </c>
       <c r="E95" s="7">
         <v>132468</v>
@@ -32726,10 +32726,10 @@
         <v>84565</v>
       </c>
       <c r="C96" s="7">
-        <v>79404</v>
+        <v>86947</v>
       </c>
       <c r="D96" s="7">
-        <v>123060</v>
+        <v>134751</v>
       </c>
       <c r="E96" s="7">
         <v>134614</v>
@@ -32884,10 +32884,10 @@
         <v>86691</v>
       </c>
       <c r="C97" s="7">
-        <v>81400</v>
+        <v>89133</v>
       </c>
       <c r="D97" s="7">
-        <v>126249</v>
+        <v>138243</v>
       </c>
       <c r="E97" s="7">
         <v>136580</v>
@@ -33042,10 +33042,10 @@
         <v>88738</v>
       </c>
       <c r="C98" s="7">
-        <v>83322</v>
+        <v>91238</v>
       </c>
       <c r="D98" s="7">
-        <v>127083</v>
+        <v>139156</v>
       </c>
       <c r="E98" s="7">
         <v>138636</v>
@@ -33200,10 +33200,10 @@
         <v>92622</v>
       </c>
       <c r="C99" s="7">
-        <v>86969</v>
+        <v>95231</v>
       </c>
       <c r="D99" s="7">
-        <v>129364</v>
+        <v>141654</v>
       </c>
       <c r="E99" s="7">
         <v>141125</v>
@@ -33358,10 +33358,10 @@
         <v>94459</v>
       </c>
       <c r="C100" s="7">
-        <v>88694</v>
+        <v>97120</v>
       </c>
       <c r="D100" s="7">
-        <v>131641</v>
+        <v>144147</v>
       </c>
       <c r="E100" s="7">
         <v>143609</v>
@@ -33516,10 +33516,10 @@
         <v>96571</v>
       </c>
       <c r="C101" s="7">
-        <v>90677</v>
+        <v>99291</v>
       </c>
       <c r="D101" s="7">
-        <v>137077</v>
+        <v>150099</v>
       </c>
       <c r="E101" s="7">
         <v>149539</v>

--- a/premiumtable.xlsx
+++ b/premiumtable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chakh\OneDrive\桌面\streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B792D51-7063-493B-9C89-108318DCA438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84365C9D-302C-4FFA-A4AE-C6AD5ED62014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2B5941AF-E55B-4360-8715-EE7BF2DCC1DA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
   <si>
     <t>醫家保</t>
   </si>
@@ -1272,6 +1272,14 @@
     <t>Age</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Plan x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plan X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1716,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AB666C-B717-4DAB-B43C-8A2A713B7A3F}">
-  <dimension ref="A1:AZ101"/>
+  <dimension ref="A1:BA101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1729,7 +1737,7 @@
     <col min="53" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
@@ -1886,8 +1894,11 @@
       <c r="AZ1" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="BA1" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2045,7 +2056,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2203,7 +2214,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -2361,7 +2372,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -2519,7 +2530,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -2677,7 +2688,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -2835,7 +2846,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -2993,7 +3004,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -3151,7 +3162,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -3309,7 +3320,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -3467,7 +3478,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -3625,7 +3636,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -3783,7 +3794,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -3941,7 +3952,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -4099,7 +4110,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -17695,10 +17706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B896F2-12D2-429B-9B09-4A097A6AF099}">
-  <dimension ref="A1:AZ101"/>
+  <dimension ref="A1:BA101"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D101"/>
+    <sheetView topLeftCell="U40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BA1" sqref="BA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -17708,7 +17719,7 @@
     <col min="53" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
@@ -17865,8 +17876,11 @@
       <c r="AZ1" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="BA1" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -18024,7 +18038,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -18182,7 +18196,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -18340,7 +18354,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -18498,7 +18512,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -18656,7 +18670,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -18814,7 +18828,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -18972,7 +18986,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -19130,7 +19144,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -19288,7 +19302,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -19446,7 +19460,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -19604,7 +19618,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -19762,7 +19776,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -19920,7 +19934,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -20078,7 +20092,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>

--- a/premiumtable.xlsx
+++ b/premiumtable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chakh\OneDrive\桌面\streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16965FCE-7D40-4FFD-8032-E0BD011E4C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F089911D-18CC-48E5-959D-4E2937AA57D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{2B5941AF-E55B-4360-8715-EE7BF2DCC1DA}"/>
   </bookViews>
@@ -26,330 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
-  <si>
-    <t>醫家保</t>
-  </si>
-  <si>
-    <t>易衛您-標準</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>易衛您-特等</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>尊衛你</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(2023</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>舊版</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 0 墊底</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>尊衛你</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(2023</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>舊版</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 16000 墊底</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>尊衛你</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(2023</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>舊版</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 25000 墊底</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>尊衛你</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(2023</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>舊版</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 50000 墊底</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>尊衛你</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(2023</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>舊版</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 100000 墊底</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>尊衛你</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(2023</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>舊版</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 250000 墊底</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
   <si>
     <r>
       <t>尊衛您（寰譽版）醫療計劃</t>
@@ -1277,10 +954,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plan X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>確衛您醫療計劃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1290,6 +963,42 @@
   </si>
   <si>
     <t>更衛您（優越版）醫療計劃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醫家保醫療計劃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易衛您醫療計劃-標準</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易衛您醫療計劃-特等</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊衛您醫療計劃 0 墊底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊衛您醫療計劃 16000 墊底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊衛您醫療計劃 25000 墊底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊衛您醫療計劃 50000 墊底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊衛您醫療計劃 100000 墊底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊衛您醫療計劃 250000 墊底</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1758,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AB666C-B717-4DAB-B43C-8A2A713B7A3F}">
-  <dimension ref="A1:BD101"/>
+  <dimension ref="A1:BC101"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="BC1" sqref="B1:BC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1772,177 +1481,174 @@
     <col min="56" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="J1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="N1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="O1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="P1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="Q1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="R1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="S1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="T1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="U1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="V1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="W1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="X1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Y1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Z1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AA1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AB1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AC1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AD1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AE1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AF1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AG1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AH1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AI1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AK1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AL1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AM1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AN1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AO1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AP1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AR1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AS1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AT1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AU1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AV1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AW1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AX1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AY1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AZ1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS1" s="2" t="s">
+      <c r="BB1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="BC1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2109,7 +1815,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2276,7 +1982,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -2443,7 +2149,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -2610,7 +2316,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -2777,7 +2483,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -2944,7 +2650,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -3111,7 +2817,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -3278,7 +2984,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -3445,7 +3151,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -3612,7 +3318,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -3779,7 +3485,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -3946,7 +3652,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -4113,7 +3819,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -4280,7 +3986,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -18653,7 +18359,7 @@
   <dimension ref="A1:BD101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R53" sqref="R53"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -18664,174 +18370,174 @@
     <col min="56" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="J1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="N1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="O1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="P1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="Q1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="R1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="S1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="T1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="U1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="V1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="W1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="X1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Y1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Z1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AA1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AB1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AC1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AD1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AE1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AF1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AG1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AH1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AI1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AK1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AL1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AM1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AN1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AO1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AP1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AR1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AS1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AT1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AU1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AV1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AW1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AX1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AY1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AZ1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS1" s="2" t="s">
+      <c r="BB1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="BC1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV1" s="2" t="s">
+      <c r="BD1" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">

--- a/premiumtable.xlsx
+++ b/premiumtable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chakh\OneDrive\桌面\streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F089911D-18CC-48E5-959D-4E2937AA57D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA029BDA-9B20-4D6D-AC4B-28103A04117B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{2B5941AF-E55B-4360-8715-EE7BF2DCC1DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2B5941AF-E55B-4360-8715-EE7BF2DCC1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="female" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
   <si>
     <r>
       <t>尊衛您（寰譽版）醫療計劃</t>
@@ -950,10 +950,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plan x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>確衛您醫療計劃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1469,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AB666C-B717-4DAB-B43C-8A2A713B7A3F}">
   <dimension ref="A1:BC101"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BC1" sqref="B1:BC1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1486,40 +1482,40 @@
         <v>42</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>0</v>
@@ -18356,10 +18352,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B896F2-12D2-429B-9B09-4A097A6AF099}">
-  <dimension ref="A1:BD101"/>
+  <dimension ref="A1:BC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -18370,45 +18366,45 @@
     <col min="56" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>0</v>
@@ -18536,11 +18532,8 @@
       <c r="BC1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="BD1" s="3" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -18707,7 +18700,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -18874,7 +18867,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -19041,7 +19034,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -19208,7 +19201,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -19375,7 +19368,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -19542,7 +19535,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -19709,7 +19702,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -19876,7 +19869,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -20043,7 +20036,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -20210,7 +20203,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -20377,7 +20370,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -20544,7 +20537,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -20711,7 +20704,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -20878,7 +20871,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>

--- a/premiumtable.xlsx
+++ b/premiumtable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chakh\OneDrive\桌面\streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA029BDA-9B20-4D6D-AC4B-28103A04117B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AE4EDF-8ABB-4F40-A3BB-7397F4BF90FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2B5941AF-E55B-4360-8715-EE7BF2DCC1DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{2B5941AF-E55B-4360-8715-EE7BF2DCC1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="female" sheetId="2" r:id="rId1"/>
@@ -1166,6 +1166,392 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE84AB8-9D22-4DE1-B6B3-78922A195251}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="24821029" y="10948147"/>
+          <a:ext cx="6350" cy="455743"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="6350" cy="535546"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Shape 3160">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4BE6ED-B56F-CE7C-D7B6-DD72F8B778C2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="535546"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path h="535546">
+                <a:moveTo>
+                  <a:pt x="0" y="535546"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:ln w="6350" cap="flat">
+            <a:miter lim="127000"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:srgbClr val="FFFFFF"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="none"/>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Group 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37A19B2-6732-4711-9071-2C0C2D15D87A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="24821029" y="12203206"/>
+          <a:ext cx="6350" cy="455743"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="6350" cy="535546"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Shape 5445">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD7E9DC-1C58-3A5A-E571-B20A498F74F5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="535546"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path h="535546">
+                <a:moveTo>
+                  <a:pt x="0" y="535546"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:ln w="6350" cap="flat">
+            <a:miter lim="127000"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:srgbClr val="FFFFFF"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="none"/>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE2BAEE5-BDB0-41CB-A40F-C842E7A93F21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="24821029" y="10948147"/>
+          <a:ext cx="6350" cy="455743"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="6350" cy="535546"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Shape 3160">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316A1C12-0DED-20BC-C1D1-1EAF94B25CA2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="535546"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path h="535546">
+                <a:moveTo>
+                  <a:pt x="0" y="535546"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:ln w="6350" cap="flat">
+            <a:miter lim="127000"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:srgbClr val="FFFFFF"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="none"/>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Group 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AA1ED6-0213-466C-9407-61C64E98DDE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="24821029" y="12203206"/>
+          <a:ext cx="6350" cy="455743"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="6350" cy="535546"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Shape 5445">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B06A622-8ED4-EEF0-F578-03D3A3AC4A4D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="535546"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path h="535546">
+                <a:moveTo>
+                  <a:pt x="0" y="535546"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:ln w="6350" cap="flat">
+            <a:miter lim="127000"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:srgbClr val="FFFFFF"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="none"/>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1465,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AB666C-B717-4DAB-B43C-8A2A713B7A3F}">
   <dimension ref="A1:BC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:AE101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1649,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="10">
-        <v>2873</v>
+        <v>3059</v>
       </c>
       <c r="C2" s="10">
-        <v>3449</v>
+        <v>3673</v>
       </c>
       <c r="D2" s="10">
         <v>4671</v>
@@ -1721,22 +2107,22 @@
         <v>2305</v>
       </c>
       <c r="Z2" s="5">
-        <v>5854</v>
+        <v>6234</v>
       </c>
       <c r="AA2" s="5">
-        <v>3862</v>
+        <v>4113</v>
       </c>
       <c r="AB2" s="5">
-        <v>3431</v>
+        <v>3654</v>
       </c>
       <c r="AC2" s="5">
-        <v>2138</v>
+        <v>2276</v>
       </c>
       <c r="AD2" s="5">
-        <v>1984</v>
+        <v>2112</v>
       </c>
       <c r="AE2" s="5">
-        <v>1765</v>
+        <v>1879</v>
       </c>
       <c r="AF2" s="5">
         <v>14465</v>
@@ -1816,10 +2202,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="9">
-        <v>2873</v>
+        <v>3059</v>
       </c>
       <c r="C3" s="9">
-        <v>3449</v>
+        <v>3673</v>
       </c>
       <c r="D3" s="9">
         <v>4671</v>
@@ -1888,22 +2274,22 @@
         <v>2305</v>
       </c>
       <c r="Z3" s="7">
-        <v>5854</v>
+        <v>6234</v>
       </c>
       <c r="AA3" s="7">
-        <v>3862</v>
+        <v>4113</v>
       </c>
       <c r="AB3" s="7">
-        <v>3431</v>
+        <v>3654</v>
       </c>
       <c r="AC3" s="7">
-        <v>2138</v>
+        <v>2276</v>
       </c>
       <c r="AD3" s="7">
-        <v>1984</v>
+        <v>2112</v>
       </c>
       <c r="AE3" s="7">
-        <v>1765</v>
+        <v>1879</v>
       </c>
       <c r="AF3" s="7">
         <v>14465</v>
@@ -1983,10 +2369,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="9">
-        <v>2873</v>
+        <v>3059</v>
       </c>
       <c r="C4" s="9">
-        <v>3449</v>
+        <v>3673</v>
       </c>
       <c r="D4" s="9">
         <v>4671</v>
@@ -2055,22 +2441,22 @@
         <v>2305</v>
       </c>
       <c r="Z4" s="7">
-        <v>5854</v>
+        <v>6234</v>
       </c>
       <c r="AA4" s="7">
-        <v>3862</v>
+        <v>4113</v>
       </c>
       <c r="AB4" s="7">
-        <v>3431</v>
+        <v>3654</v>
       </c>
       <c r="AC4" s="7">
-        <v>2138</v>
+        <v>2276</v>
       </c>
       <c r="AD4" s="7">
-        <v>1984</v>
+        <v>2112</v>
       </c>
       <c r="AE4" s="7">
-        <v>1765</v>
+        <v>1879</v>
       </c>
       <c r="AF4" s="7">
         <v>14465</v>
@@ -2150,10 +2536,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="9">
-        <v>2873</v>
+        <v>3059</v>
       </c>
       <c r="C5" s="9">
-        <v>3449</v>
+        <v>3673</v>
       </c>
       <c r="D5" s="9">
         <v>4671</v>
@@ -2222,22 +2608,22 @@
         <v>2305</v>
       </c>
       <c r="Z5" s="7">
-        <v>5854</v>
+        <v>6234</v>
       </c>
       <c r="AA5" s="7">
-        <v>3862</v>
+        <v>4113</v>
       </c>
       <c r="AB5" s="7">
-        <v>3431</v>
+        <v>3654</v>
       </c>
       <c r="AC5" s="7">
-        <v>2138</v>
+        <v>2276</v>
       </c>
       <c r="AD5" s="7">
-        <v>1984</v>
+        <v>2112</v>
       </c>
       <c r="AE5" s="7">
-        <v>1765</v>
+        <v>1879</v>
       </c>
       <c r="AF5" s="7">
         <v>14465</v>
@@ -2317,10 +2703,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="9">
-        <v>1966</v>
+        <v>2093</v>
       </c>
       <c r="C6" s="9">
-        <v>2380</v>
+        <v>2534</v>
       </c>
       <c r="D6" s="9">
         <v>3251</v>
@@ -2389,22 +2775,22 @@
         <v>2305</v>
       </c>
       <c r="Z6" s="7">
-        <v>5854</v>
+        <v>6234</v>
       </c>
       <c r="AA6" s="7">
-        <v>3862</v>
+        <v>4113</v>
       </c>
       <c r="AB6" s="7">
-        <v>3431</v>
+        <v>3654</v>
       </c>
       <c r="AC6" s="7">
-        <v>2138</v>
+        <v>2276</v>
       </c>
       <c r="AD6" s="7">
-        <v>1984</v>
+        <v>2112</v>
       </c>
       <c r="AE6" s="7">
-        <v>1765</v>
+        <v>1879</v>
       </c>
       <c r="AF6" s="7">
         <v>14465</v>
@@ -2484,10 +2870,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="9">
-        <v>1966</v>
+        <v>2093</v>
       </c>
       <c r="C7" s="9">
-        <v>2380</v>
+        <v>2534</v>
       </c>
       <c r="D7" s="9">
         <v>3251</v>
@@ -2556,22 +2942,22 @@
         <v>2065</v>
       </c>
       <c r="Z7" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA7" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB7" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC7" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD7" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE7" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF7" s="7">
         <v>14465</v>
@@ -2651,10 +3037,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="9">
-        <v>1966</v>
+        <v>2093</v>
       </c>
       <c r="C8" s="9">
-        <v>2380</v>
+        <v>2534</v>
       </c>
       <c r="D8" s="9">
         <v>3251</v>
@@ -2723,22 +3109,22 @@
         <v>2065</v>
       </c>
       <c r="Z8" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA8" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB8" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC8" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD8" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE8" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF8" s="7">
         <v>14465</v>
@@ -2818,10 +3204,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="9">
-        <v>1966</v>
+        <v>2093</v>
       </c>
       <c r="C9" s="9">
-        <v>2380</v>
+        <v>2534</v>
       </c>
       <c r="D9" s="9">
         <v>3251</v>
@@ -2890,22 +3276,22 @@
         <v>2065</v>
       </c>
       <c r="Z9" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA9" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB9" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC9" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD9" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE9" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF9" s="7">
         <v>14465</v>
@@ -2985,10 +3371,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="9">
-        <v>1966</v>
+        <v>2093</v>
       </c>
       <c r="C10" s="9">
-        <v>2380</v>
+        <v>2534</v>
       </c>
       <c r="D10" s="9">
         <v>3251</v>
@@ -3057,22 +3443,22 @@
         <v>2065</v>
       </c>
       <c r="Z10" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA10" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB10" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC10" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD10" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE10" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF10" s="7">
         <v>14465</v>
@@ -3152,10 +3538,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="9">
-        <v>1966</v>
+        <v>2093</v>
       </c>
       <c r="C11" s="9">
-        <v>2380</v>
+        <v>2534</v>
       </c>
       <c r="D11" s="9">
         <v>3251</v>
@@ -3224,22 +3610,22 @@
         <v>2065</v>
       </c>
       <c r="Z11" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA11" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB11" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC11" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD11" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE11" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF11" s="7">
         <v>14465</v>
@@ -3319,10 +3705,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="9">
-        <v>1966</v>
+        <v>2093</v>
       </c>
       <c r="C12" s="9">
-        <v>2380</v>
+        <v>2534</v>
       </c>
       <c r="D12" s="9">
         <v>3251</v>
@@ -3391,22 +3777,22 @@
         <v>2065</v>
       </c>
       <c r="Z12" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA12" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB12" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC12" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD12" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE12" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF12" s="7">
         <v>14465</v>
@@ -3486,10 +3872,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="9">
-        <v>1966</v>
+        <v>2093</v>
       </c>
       <c r="C13" s="9">
-        <v>2380</v>
+        <v>2534</v>
       </c>
       <c r="D13" s="9">
         <v>3251</v>
@@ -3558,22 +3944,22 @@
         <v>2065</v>
       </c>
       <c r="Z13" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA13" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB13" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC13" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD13" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE13" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF13" s="7">
         <v>14465</v>
@@ -3653,10 +4039,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="9">
-        <v>1966</v>
+        <v>2093</v>
       </c>
       <c r="C14" s="9">
-        <v>2380</v>
+        <v>2534</v>
       </c>
       <c r="D14" s="9">
         <v>3251</v>
@@ -3725,22 +4111,22 @@
         <v>2065</v>
       </c>
       <c r="Z14" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA14" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB14" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC14" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD14" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE14" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF14" s="7">
         <v>14465</v>
@@ -3820,10 +4206,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="9">
-        <v>1966</v>
+        <v>2093</v>
       </c>
       <c r="C15" s="9">
-        <v>2380</v>
+        <v>2534</v>
       </c>
       <c r="D15" s="9">
         <v>3251</v>
@@ -3892,22 +4278,22 @@
         <v>2065</v>
       </c>
       <c r="Z15" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA15" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB15" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC15" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD15" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE15" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF15" s="7">
         <v>14465</v>
@@ -3987,10 +4373,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="9">
-        <v>1966</v>
+        <v>2093</v>
       </c>
       <c r="C16" s="9">
-        <v>2380</v>
+        <v>2534</v>
       </c>
       <c r="D16" s="9">
         <v>3251</v>
@@ -4059,22 +4445,22 @@
         <v>2065</v>
       </c>
       <c r="Z16" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA16" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB16" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC16" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD16" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE16" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF16" s="7">
         <v>14465</v>
@@ -4154,10 +4540,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="9">
-        <v>2042</v>
+        <v>2174</v>
       </c>
       <c r="C17" s="9">
-        <v>2472</v>
+        <v>2632</v>
       </c>
       <c r="D17" s="9">
         <v>3442</v>
@@ -4226,22 +4612,22 @@
         <v>2065</v>
       </c>
       <c r="Z17" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA17" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB17" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC17" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD17" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE17" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF17" s="7">
         <v>14499</v>
@@ -4321,10 +4707,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="9">
-        <v>2116</v>
+        <v>2253</v>
       </c>
       <c r="C18" s="9">
-        <v>2562</v>
+        <v>2728</v>
       </c>
       <c r="D18" s="9">
         <v>3624</v>
@@ -4393,22 +4779,22 @@
         <v>2065</v>
       </c>
       <c r="Z18" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA18" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB18" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC18" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD18" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE18" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF18" s="7">
         <v>14533</v>
@@ -4488,10 +4874,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="9">
-        <v>2193</v>
+        <v>2335</v>
       </c>
       <c r="C19" s="9">
-        <v>2656</v>
+        <v>2828</v>
       </c>
       <c r="D19" s="9">
         <v>3764</v>
@@ -4560,22 +4946,22 @@
         <v>2065</v>
       </c>
       <c r="Z19" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA19" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB19" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC19" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD19" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE19" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF19" s="7">
         <v>14566</v>
@@ -4655,10 +5041,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="9">
-        <v>2259</v>
+        <v>2405</v>
       </c>
       <c r="C20" s="9">
-        <v>2735</v>
+        <v>2912</v>
       </c>
       <c r="D20" s="9">
         <v>3899</v>
@@ -4727,22 +5113,22 @@
         <v>2080</v>
       </c>
       <c r="Z20" s="7">
-        <v>5525</v>
+        <v>5884</v>
       </c>
       <c r="AA20" s="7">
-        <v>3332</v>
+        <v>3548</v>
       </c>
       <c r="AB20" s="7">
-        <v>2889</v>
+        <v>3076</v>
       </c>
       <c r="AC20" s="7">
-        <v>1960</v>
+        <v>2087</v>
       </c>
       <c r="AD20" s="7">
-        <v>1706</v>
+        <v>1816</v>
       </c>
       <c r="AE20" s="7">
-        <v>1518</v>
+        <v>1616</v>
       </c>
       <c r="AF20" s="7">
         <v>14588</v>
@@ -4822,10 +5208,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="9">
-        <v>2323</v>
+        <v>2473</v>
       </c>
       <c r="C21" s="9">
-        <v>2793</v>
+        <v>2974</v>
       </c>
       <c r="D21" s="9">
         <v>4014</v>
@@ -4894,22 +5280,22 @@
         <v>2118</v>
       </c>
       <c r="Z21" s="7">
-        <v>5570</v>
+        <v>5932</v>
       </c>
       <c r="AA21" s="7">
-        <v>3431</v>
+        <v>3654</v>
       </c>
       <c r="AB21" s="7">
-        <v>2928</v>
+        <v>3118</v>
       </c>
       <c r="AC21" s="7">
-        <v>2002</v>
+        <v>2132</v>
       </c>
       <c r="AD21" s="7">
-        <v>1742</v>
+        <v>1855</v>
       </c>
       <c r="AE21" s="7">
-        <v>1550</v>
+        <v>1650</v>
       </c>
       <c r="AF21" s="7">
         <v>14610</v>
@@ -4989,10 +5375,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="9">
-        <v>2376</v>
+        <v>2530</v>
       </c>
       <c r="C22" s="9">
-        <v>2857</v>
+        <v>3042</v>
       </c>
       <c r="D22" s="9">
         <v>4116</v>
@@ -5061,22 +5447,22 @@
         <v>2159</v>
       </c>
       <c r="Z22" s="7">
-        <v>5701</v>
+        <v>6071</v>
       </c>
       <c r="AA22" s="7">
-        <v>3458</v>
+        <v>3682</v>
       </c>
       <c r="AB22" s="7">
-        <v>2967</v>
+        <v>3159</v>
       </c>
       <c r="AC22" s="7">
-        <v>2062</v>
+        <v>2196</v>
       </c>
       <c r="AD22" s="7">
-        <v>1784</v>
+        <v>1899</v>
       </c>
       <c r="AE22" s="7">
-        <v>1586</v>
+        <v>1689</v>
       </c>
       <c r="AF22" s="7">
         <v>14632</v>
@@ -5156,10 +5542,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="9">
-        <v>2426</v>
+        <v>2583</v>
       </c>
       <c r="C23" s="9">
-        <v>2917</v>
+        <v>3106</v>
       </c>
       <c r="D23" s="9">
         <v>4194</v>
@@ -5228,22 +5614,22 @@
         <v>2209</v>
       </c>
       <c r="Z23" s="7">
-        <v>5798</v>
+        <v>6174</v>
       </c>
       <c r="AA23" s="7">
-        <v>3515</v>
+        <v>3743</v>
       </c>
       <c r="AB23" s="7">
-        <v>2969</v>
+        <v>3161</v>
       </c>
       <c r="AC23" s="7">
-        <v>2090</v>
+        <v>2225</v>
       </c>
       <c r="AD23" s="7">
-        <v>1808</v>
+        <v>1925</v>
       </c>
       <c r="AE23" s="7">
-        <v>1607</v>
+        <v>1711</v>
       </c>
       <c r="AF23" s="7">
         <v>14654</v>
@@ -5323,10 +5709,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="9">
-        <v>2481</v>
+        <v>2642</v>
       </c>
       <c r="C24" s="9">
-        <v>2983</v>
+        <v>3176</v>
       </c>
       <c r="D24" s="9">
         <v>4278</v>
@@ -5395,22 +5781,22 @@
         <v>2272</v>
       </c>
       <c r="Z24" s="7">
-        <v>5885</v>
+        <v>6267</v>
       </c>
       <c r="AA24" s="7">
-        <v>3740</v>
+        <v>3983</v>
       </c>
       <c r="AB24" s="7">
-        <v>3149</v>
+        <v>3353</v>
       </c>
       <c r="AC24" s="7">
-        <v>2131</v>
+        <v>2269</v>
       </c>
       <c r="AD24" s="7">
-        <v>1843</v>
+        <v>1962</v>
       </c>
       <c r="AE24" s="7">
-        <v>1638</v>
+        <v>1744</v>
       </c>
       <c r="AF24" s="7">
         <v>14676</v>
@@ -5490,10 +5876,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="9">
-        <v>2552</v>
+        <v>2717</v>
       </c>
       <c r="C25" s="9">
-        <v>3069</v>
+        <v>3268</v>
       </c>
       <c r="D25" s="9">
         <v>4419</v>
@@ -5562,22 +5948,22 @@
         <v>2328</v>
       </c>
       <c r="Z25" s="7">
-        <v>5923</v>
+        <v>6307</v>
       </c>
       <c r="AA25" s="7">
-        <v>3752</v>
+        <v>3995</v>
       </c>
       <c r="AB25" s="7">
-        <v>3262</v>
+        <v>3474</v>
       </c>
       <c r="AC25" s="7">
-        <v>2162</v>
+        <v>2302</v>
       </c>
       <c r="AD25" s="7">
-        <v>1870</v>
+        <v>1991</v>
       </c>
       <c r="AE25" s="7">
-        <v>1663</v>
+        <v>1771</v>
       </c>
       <c r="AF25" s="7">
         <v>14698</v>
@@ -5657,10 +6043,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="9">
-        <v>2626</v>
+        <v>2796</v>
       </c>
       <c r="C26" s="9">
-        <v>3158</v>
+        <v>3363</v>
       </c>
       <c r="D26" s="9">
         <v>4553</v>
@@ -5729,22 +6115,22 @@
         <v>2366</v>
       </c>
       <c r="Z26" s="7">
-        <v>5928</v>
+        <v>6313</v>
       </c>
       <c r="AA26" s="7">
-        <v>4058</v>
+        <v>4321</v>
       </c>
       <c r="AB26" s="7">
-        <v>3377</v>
+        <v>3596</v>
       </c>
       <c r="AC26" s="7">
-        <v>2192</v>
+        <v>2334</v>
       </c>
       <c r="AD26" s="7">
-        <v>1885</v>
+        <v>2007</v>
       </c>
       <c r="AE26" s="7">
-        <v>1674</v>
+        <v>1782</v>
       </c>
       <c r="AF26" s="7">
         <v>14720</v>
@@ -5824,10 +6210,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="9">
-        <v>2696</v>
+        <v>2871</v>
       </c>
       <c r="C27" s="9">
-        <v>3242</v>
+        <v>3452</v>
       </c>
       <c r="D27" s="9">
         <v>4643</v>
@@ -5896,22 +6282,22 @@
         <v>2418</v>
       </c>
       <c r="Z27" s="7">
-        <v>6162</v>
+        <v>6562</v>
       </c>
       <c r="AA27" s="7">
-        <v>4085</v>
+        <v>4350</v>
       </c>
       <c r="AB27" s="7">
-        <v>3486</v>
+        <v>3712</v>
       </c>
       <c r="AC27" s="7">
-        <v>2220</v>
+        <v>2364</v>
       </c>
       <c r="AD27" s="7">
-        <v>1910</v>
+        <v>2034</v>
       </c>
       <c r="AE27" s="7">
-        <v>1697</v>
+        <v>1807</v>
       </c>
       <c r="AF27" s="7">
         <v>14742</v>
@@ -5991,10 +6377,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="9">
-        <v>2772</v>
+        <v>2952</v>
       </c>
       <c r="C28" s="9">
-        <v>3333</v>
+        <v>3549</v>
       </c>
       <c r="D28" s="9">
         <v>4747</v>
@@ -6063,22 +6449,22 @@
         <v>2469</v>
       </c>
       <c r="Z28" s="7">
-        <v>6531</v>
+        <v>6955</v>
       </c>
       <c r="AA28" s="7">
-        <v>4099</v>
+        <v>4365</v>
       </c>
       <c r="AB28" s="7">
-        <v>3585</v>
+        <v>3818</v>
       </c>
       <c r="AC28" s="7">
-        <v>2278</v>
+        <v>2426</v>
       </c>
       <c r="AD28" s="7">
-        <v>1959</v>
+        <v>2086</v>
       </c>
       <c r="AE28" s="7">
-        <v>1740</v>
+        <v>1853</v>
       </c>
       <c r="AF28" s="7">
         <v>15401</v>
@@ -6158,10 +6544,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="9">
-        <v>2848</v>
+        <v>3033</v>
       </c>
       <c r="C29" s="9">
-        <v>3424</v>
+        <v>3646</v>
       </c>
       <c r="D29" s="9">
         <v>4861</v>
@@ -6230,22 +6616,22 @@
         <v>2520</v>
       </c>
       <c r="Z29" s="7">
-        <v>6899</v>
+        <v>7347</v>
       </c>
       <c r="AA29" s="7">
-        <v>4409</v>
+        <v>4695</v>
       </c>
       <c r="AB29" s="7">
-        <v>3673</v>
+        <v>3911</v>
       </c>
       <c r="AC29" s="7">
-        <v>2335</v>
+        <v>2486</v>
       </c>
       <c r="AD29" s="7">
-        <v>2008</v>
+        <v>2138</v>
       </c>
       <c r="AE29" s="7">
-        <v>1784</v>
+        <v>1899</v>
       </c>
       <c r="AF29" s="7">
         <v>15459</v>
@@ -6325,10 +6711,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="9">
-        <v>2924</v>
+        <v>3114</v>
       </c>
       <c r="C30" s="9">
-        <v>3516</v>
+        <v>3744</v>
       </c>
       <c r="D30" s="9">
         <v>4978</v>
@@ -6397,22 +6783,22 @@
         <v>2520</v>
       </c>
       <c r="Z30" s="7">
-        <v>7185</v>
+        <v>7652</v>
       </c>
       <c r="AA30" s="7">
-        <v>4516</v>
+        <v>4809</v>
       </c>
       <c r="AB30" s="7">
-        <v>3748</v>
+        <v>3991</v>
       </c>
       <c r="AC30" s="7">
-        <v>2345</v>
+        <v>2497</v>
       </c>
       <c r="AD30" s="7">
-        <v>2016</v>
+        <v>2147</v>
       </c>
       <c r="AE30" s="7">
-        <v>1791</v>
+        <v>1907</v>
       </c>
       <c r="AF30" s="7">
         <v>15524</v>
@@ -6492,10 +6878,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="9">
-        <v>3002</v>
+        <v>3197</v>
       </c>
       <c r="C31" s="9">
-        <v>3609</v>
+        <v>3843</v>
       </c>
       <c r="D31" s="9">
         <v>5097</v>
@@ -6564,22 +6950,22 @@
         <v>2536</v>
       </c>
       <c r="Z31" s="7">
-        <v>7383</v>
+        <v>7862</v>
       </c>
       <c r="AA31" s="7">
-        <v>4624</v>
+        <v>4924</v>
       </c>
       <c r="AB31" s="7">
-        <v>3828</v>
+        <v>4076</v>
       </c>
       <c r="AC31" s="7">
-        <v>2372</v>
+        <v>2526</v>
       </c>
       <c r="AD31" s="7">
-        <v>2039</v>
+        <v>2171</v>
       </c>
       <c r="AE31" s="7">
-        <v>1812</v>
+        <v>1929</v>
       </c>
       <c r="AF31" s="7">
         <v>15657</v>
@@ -6659,10 +7045,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="9">
-        <v>3083</v>
+        <v>3283</v>
       </c>
       <c r="C32" s="9">
-        <v>3707</v>
+        <v>3947</v>
       </c>
       <c r="D32" s="9">
         <v>5222</v>
@@ -6731,22 +7117,22 @@
         <v>2649</v>
       </c>
       <c r="Z32" s="7">
-        <v>7531</v>
+        <v>8020</v>
       </c>
       <c r="AA32" s="7">
-        <v>4731</v>
+        <v>5038</v>
       </c>
       <c r="AB32" s="7">
-        <v>3908</v>
+        <v>4162</v>
       </c>
       <c r="AC32" s="7">
-        <v>2507</v>
+        <v>2669</v>
       </c>
       <c r="AD32" s="7">
-        <v>2156</v>
+        <v>2296</v>
       </c>
       <c r="AE32" s="7">
-        <v>1909</v>
+        <v>2033</v>
       </c>
       <c r="AF32" s="7">
         <v>16551</v>
@@ -6826,10 +7212,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="9">
-        <v>3164</v>
+        <v>3369</v>
       </c>
       <c r="C33" s="9">
-        <v>3804</v>
+        <v>4051</v>
       </c>
       <c r="D33" s="9">
         <v>5352</v>
@@ -6898,22 +7284,22 @@
         <v>2649</v>
       </c>
       <c r="Z33" s="7">
-        <v>7742</v>
+        <v>8245</v>
       </c>
       <c r="AA33" s="7">
-        <v>4838</v>
+        <v>5152</v>
       </c>
       <c r="AB33" s="7">
-        <v>4022</v>
+        <v>4283</v>
       </c>
       <c r="AC33" s="7">
-        <v>2511</v>
+        <v>2674</v>
       </c>
       <c r="AD33" s="7">
-        <v>2159</v>
+        <v>2299</v>
       </c>
       <c r="AE33" s="7">
-        <v>1912</v>
+        <v>2036</v>
       </c>
       <c r="AF33" s="7">
         <v>16802</v>
@@ -6993,10 +7379,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="9">
-        <v>3245</v>
+        <v>3455</v>
       </c>
       <c r="C34" s="9">
-        <v>3902</v>
+        <v>4155</v>
       </c>
       <c r="D34" s="9">
         <v>5497</v>
@@ -7065,22 +7451,22 @@
         <v>2658</v>
       </c>
       <c r="Z34" s="7">
-        <v>7848</v>
+        <v>8358</v>
       </c>
       <c r="AA34" s="7">
-        <v>4945</v>
+        <v>5266</v>
       </c>
       <c r="AB34" s="7">
-        <v>4138</v>
+        <v>4406</v>
       </c>
       <c r="AC34" s="7">
-        <v>2538</v>
+        <v>2702</v>
       </c>
       <c r="AD34" s="7">
-        <v>2183</v>
+        <v>2324</v>
       </c>
       <c r="AE34" s="7">
-        <v>1932</v>
+        <v>2057</v>
       </c>
       <c r="AF34" s="7">
         <v>17222</v>
@@ -7160,10 +7546,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="9">
-        <v>3331</v>
+        <v>3547</v>
       </c>
       <c r="C35" s="9">
-        <v>4005</v>
+        <v>4265</v>
       </c>
       <c r="D35" s="9">
         <v>5640</v>
@@ -7232,22 +7618,22 @@
         <v>2677</v>
       </c>
       <c r="Z35" s="7">
-        <v>8058</v>
+        <v>8581</v>
       </c>
       <c r="AA35" s="7">
-        <v>5018</v>
+        <v>5344</v>
       </c>
       <c r="AB35" s="7">
-        <v>4273</v>
+        <v>4550</v>
       </c>
       <c r="AC35" s="7">
-        <v>2568</v>
+        <v>2734</v>
       </c>
       <c r="AD35" s="7">
-        <v>2209</v>
+        <v>2352</v>
       </c>
       <c r="AE35" s="7">
-        <v>1955</v>
+        <v>2082</v>
       </c>
       <c r="AF35" s="7">
         <v>17513</v>
@@ -7327,10 +7713,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="9">
-        <v>3422</v>
+        <v>3644</v>
       </c>
       <c r="C36" s="9">
-        <v>4115</v>
+        <v>4382</v>
       </c>
       <c r="D36" s="9">
         <v>5800</v>
@@ -7399,22 +7785,22 @@
         <v>2677</v>
       </c>
       <c r="Z36" s="7">
-        <v>8254</v>
+        <v>8790</v>
       </c>
       <c r="AA36" s="7">
-        <v>5160</v>
+        <v>5495</v>
       </c>
       <c r="AB36" s="7">
-        <v>4427</v>
+        <v>4714</v>
       </c>
       <c r="AC36" s="7">
-        <v>2568</v>
+        <v>2734</v>
       </c>
       <c r="AD36" s="7">
-        <v>2209</v>
+        <v>2352</v>
       </c>
       <c r="AE36" s="7">
-        <v>1955</v>
+        <v>2082</v>
       </c>
       <c r="AF36" s="7">
         <v>17759</v>
@@ -7494,10 +7880,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="10">
-        <v>3508</v>
+        <v>3736</v>
       </c>
       <c r="C37" s="10">
-        <v>4250</v>
+        <v>4526</v>
       </c>
       <c r="D37" s="10">
         <v>5962</v>
@@ -7566,22 +7952,22 @@
         <v>2724</v>
       </c>
       <c r="Z37" s="5">
-        <v>8532</v>
+        <v>9086</v>
       </c>
       <c r="AA37" s="5">
-        <v>5230</v>
+        <v>5569</v>
       </c>
       <c r="AB37" s="5">
-        <v>4594</v>
+        <v>4892</v>
       </c>
       <c r="AC37" s="5">
-        <v>2649</v>
+        <v>2821</v>
       </c>
       <c r="AD37" s="5">
-        <v>2279</v>
+        <v>2427</v>
       </c>
       <c r="AE37" s="5">
-        <v>2010</v>
+        <v>2140</v>
       </c>
       <c r="AF37" s="5">
         <v>18103</v>
@@ -7661,10 +8047,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="9">
-        <v>3593</v>
+        <v>3826</v>
       </c>
       <c r="C38" s="9">
-        <v>4354</v>
+        <v>4637</v>
       </c>
       <c r="D38" s="9">
         <v>6119</v>
@@ -7733,22 +8119,22 @@
         <v>2804</v>
       </c>
       <c r="Z38" s="7">
-        <v>8532</v>
+        <v>9086</v>
       </c>
       <c r="AA38" s="7">
-        <v>5513</v>
+        <v>5871</v>
       </c>
       <c r="AB38" s="7">
-        <v>4736</v>
+        <v>5043</v>
       </c>
       <c r="AC38" s="7">
-        <v>2731</v>
+        <v>2908</v>
       </c>
       <c r="AD38" s="7">
-        <v>2348</v>
+        <v>2500</v>
       </c>
       <c r="AE38" s="7">
-        <v>2071</v>
+        <v>2205</v>
       </c>
       <c r="AF38" s="7">
         <v>18376</v>
@@ -7828,10 +8214,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="9">
-        <v>3684</v>
+        <v>3923</v>
       </c>
       <c r="C39" s="9">
-        <v>4464</v>
+        <v>4754</v>
       </c>
       <c r="D39" s="9">
         <v>6284</v>
@@ -7900,22 +8286,22 @@
         <v>2804</v>
       </c>
       <c r="Z39" s="7">
-        <v>8691</v>
+        <v>9255</v>
       </c>
       <c r="AA39" s="7">
-        <v>5513</v>
+        <v>5871</v>
       </c>
       <c r="AB39" s="7">
-        <v>4736</v>
+        <v>5043</v>
       </c>
       <c r="AC39" s="7">
-        <v>2731</v>
+        <v>2908</v>
       </c>
       <c r="AD39" s="7">
-        <v>2348</v>
+        <v>2500</v>
       </c>
       <c r="AE39" s="7">
-        <v>2071</v>
+        <v>2205</v>
       </c>
       <c r="AF39" s="7">
         <v>18922</v>
@@ -7995,10 +8381,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="9">
-        <v>3781</v>
+        <v>4026</v>
       </c>
       <c r="C40" s="9">
-        <v>4581</v>
+        <v>4878</v>
       </c>
       <c r="D40" s="9">
         <v>6357</v>
@@ -8067,22 +8453,22 @@
         <v>2838</v>
       </c>
       <c r="Z40" s="7">
-        <v>8901</v>
+        <v>9479</v>
       </c>
       <c r="AA40" s="7">
-        <v>5654</v>
+        <v>6021</v>
       </c>
       <c r="AB40" s="7">
-        <v>4806</v>
+        <v>5118</v>
       </c>
       <c r="AC40" s="7">
-        <v>2772</v>
+        <v>2952</v>
       </c>
       <c r="AD40" s="7">
-        <v>2384</v>
+        <v>2538</v>
       </c>
       <c r="AE40" s="7">
-        <v>2103</v>
+        <v>2239</v>
       </c>
       <c r="AF40" s="7">
         <v>19516</v>
@@ -8162,10 +8548,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="9">
-        <v>3877</v>
+        <v>4129</v>
       </c>
       <c r="C41" s="9">
-        <v>4698</v>
+        <v>5003</v>
       </c>
       <c r="D41" s="9">
         <v>6387</v>
@@ -8234,22 +8620,22 @@
         <v>2849</v>
       </c>
       <c r="Z41" s="7">
-        <v>8954</v>
+        <v>9536</v>
       </c>
       <c r="AA41" s="7">
-        <v>5654</v>
+        <v>6021</v>
       </c>
       <c r="AB41" s="7">
-        <v>4806</v>
+        <v>5118</v>
       </c>
       <c r="AC41" s="7">
-        <v>2788</v>
+        <v>2969</v>
       </c>
       <c r="AD41" s="7">
-        <v>2398</v>
+        <v>2553</v>
       </c>
       <c r="AE41" s="7">
-        <v>2115</v>
+        <v>2252</v>
       </c>
       <c r="AF41" s="7">
         <v>20014</v>
@@ -8329,10 +8715,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="9">
-        <v>3992</v>
+        <v>4251</v>
       </c>
       <c r="C42" s="9">
-        <v>4883</v>
+        <v>5200</v>
       </c>
       <c r="D42" s="9">
         <v>6678</v>
@@ -8401,22 +8787,22 @@
         <v>3040</v>
       </c>
       <c r="Z42" s="7">
-        <v>9059</v>
+        <v>9647</v>
       </c>
       <c r="AA42" s="7">
-        <v>5725</v>
+        <v>6097</v>
       </c>
       <c r="AB42" s="7">
-        <v>4948</v>
+        <v>5269</v>
       </c>
       <c r="AC42" s="7">
-        <v>2978</v>
+        <v>3171</v>
       </c>
       <c r="AD42" s="7">
-        <v>2561</v>
+        <v>2727</v>
       </c>
       <c r="AE42" s="7">
-        <v>2260</v>
+        <v>2406</v>
       </c>
       <c r="AF42" s="7">
         <v>20644</v>
@@ -8496,10 +8882,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="9">
-        <v>4144</v>
+        <v>4413</v>
       </c>
       <c r="C43" s="9">
-        <v>5069</v>
+        <v>5398</v>
       </c>
       <c r="D43" s="9">
         <v>6996</v>
@@ -8568,22 +8954,22 @@
         <v>3251</v>
       </c>
       <c r="Z43" s="7">
-        <v>9217</v>
+        <v>9816</v>
       </c>
       <c r="AA43" s="7">
-        <v>6078</v>
+        <v>6473</v>
       </c>
       <c r="AB43" s="7">
-        <v>5160</v>
+        <v>5495</v>
       </c>
       <c r="AC43" s="7">
-        <v>3191</v>
+        <v>3398</v>
       </c>
       <c r="AD43" s="7">
-        <v>2744</v>
+        <v>2922</v>
       </c>
       <c r="AE43" s="7">
-        <v>2421</v>
+        <v>2578</v>
       </c>
       <c r="AF43" s="7">
         <v>21915</v>
@@ -8663,10 +9049,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="9">
-        <v>4300</v>
+        <v>4579</v>
       </c>
       <c r="C44" s="9">
-        <v>5259</v>
+        <v>5600</v>
       </c>
       <c r="D44" s="9">
         <v>7213</v>
@@ -8735,22 +9121,22 @@
         <v>3365</v>
       </c>
       <c r="Z44" s="7">
-        <v>9428</v>
+        <v>10040</v>
       </c>
       <c r="AA44" s="7">
-        <v>6220</v>
+        <v>6624</v>
       </c>
       <c r="AB44" s="7">
-        <v>5336</v>
+        <v>5682</v>
       </c>
       <c r="AC44" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AD44" s="7">
-        <v>2844</v>
+        <v>3028</v>
       </c>
       <c r="AE44" s="7">
-        <v>2509</v>
+        <v>2672</v>
       </c>
       <c r="AF44" s="7">
         <v>22662</v>
@@ -8830,10 +9216,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="9">
-        <v>4467</v>
+        <v>4757</v>
       </c>
       <c r="C45" s="9">
-        <v>5464</v>
+        <v>5819</v>
       </c>
       <c r="D45" s="9">
         <v>7497</v>
@@ -8902,22 +9288,22 @@
         <v>3552</v>
       </c>
       <c r="Z45" s="7">
-        <v>9849</v>
+        <v>10489</v>
       </c>
       <c r="AA45" s="7">
-        <v>6503</v>
+        <v>6925</v>
       </c>
       <c r="AB45" s="7">
-        <v>5640</v>
+        <v>6006</v>
       </c>
       <c r="AC45" s="7">
-        <v>3496</v>
+        <v>3723</v>
       </c>
       <c r="AD45" s="7">
-        <v>3006</v>
+        <v>3201</v>
       </c>
       <c r="AE45" s="7">
-        <v>2652</v>
+        <v>2824</v>
       </c>
       <c r="AF45" s="7">
         <v>23597</v>
@@ -8997,10 +9383,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="9">
-        <v>4638</v>
+        <v>4939</v>
       </c>
       <c r="C46" s="9">
-        <v>5673</v>
+        <v>6041</v>
       </c>
       <c r="D46" s="9">
         <v>7797</v>
@@ -9069,22 +9455,22 @@
         <v>3609</v>
       </c>
       <c r="Z46" s="7">
-        <v>10429</v>
+        <v>11106</v>
       </c>
       <c r="AA46" s="7">
-        <v>6715</v>
+        <v>7151</v>
       </c>
       <c r="AB46" s="7">
-        <v>5654</v>
+        <v>6021</v>
       </c>
       <c r="AC46" s="7">
-        <v>3557</v>
+        <v>3788</v>
       </c>
       <c r="AD46" s="7">
-        <v>3059</v>
+        <v>3257</v>
       </c>
       <c r="AE46" s="7">
-        <v>2699</v>
+        <v>2874</v>
       </c>
       <c r="AF46" s="7">
         <v>25027</v>
@@ -9164,10 +9550,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="9">
-        <v>4812</v>
+        <v>5124</v>
       </c>
       <c r="C47" s="9">
-        <v>5886</v>
+        <v>6268</v>
       </c>
       <c r="D47" s="9">
         <v>8090</v>
@@ -9236,22 +9622,22 @@
         <v>3886</v>
       </c>
       <c r="Z47" s="7">
-        <v>10955</v>
+        <v>11667</v>
       </c>
       <c r="AA47" s="7">
-        <v>7068</v>
+        <v>7527</v>
       </c>
       <c r="AB47" s="7">
-        <v>6278</v>
+        <v>6686</v>
       </c>
       <c r="AC47" s="7">
-        <v>3891</v>
+        <v>4143</v>
       </c>
       <c r="AD47" s="7">
-        <v>3347</v>
+        <v>3564</v>
       </c>
       <c r="AE47" s="7">
-        <v>2932</v>
+        <v>3122</v>
       </c>
       <c r="AF47" s="7">
         <v>26592</v>
@@ -9331,10 +9717,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="9">
-        <v>4986</v>
+        <v>5310</v>
       </c>
       <c r="C48" s="9">
-        <v>6099</v>
+        <v>6495</v>
       </c>
       <c r="D48" s="9">
         <v>8412</v>
@@ -9403,22 +9789,22 @@
         <v>4076</v>
       </c>
       <c r="Z48" s="7">
-        <v>11587</v>
+        <v>12340</v>
       </c>
       <c r="AA48" s="7">
-        <v>7421</v>
+        <v>7903</v>
       </c>
       <c r="AB48" s="7">
-        <v>6588</v>
+        <v>7016</v>
       </c>
       <c r="AC48" s="7">
-        <v>4083</v>
+        <v>4348</v>
       </c>
       <c r="AD48" s="7">
-        <v>3512</v>
+        <v>3740</v>
       </c>
       <c r="AE48" s="7">
-        <v>3076</v>
+        <v>3275</v>
       </c>
       <c r="AF48" s="7">
         <v>28697</v>
@@ -9498,10 +9884,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="9">
-        <v>5160</v>
+        <v>5495</v>
       </c>
       <c r="C49" s="9">
-        <v>6312</v>
+        <v>6722</v>
       </c>
       <c r="D49" s="9">
         <v>8679</v>
@@ -9570,22 +9956,22 @@
         <v>4366</v>
       </c>
       <c r="Z49" s="7">
-        <v>11955</v>
+        <v>12732</v>
       </c>
       <c r="AA49" s="7">
-        <v>7845</v>
+        <v>8354</v>
       </c>
       <c r="AB49" s="7">
-        <v>7060</v>
+        <v>7518</v>
       </c>
       <c r="AC49" s="7">
-        <v>4375</v>
+        <v>4659</v>
       </c>
       <c r="AD49" s="7">
-        <v>3762</v>
+        <v>4006</v>
       </c>
       <c r="AE49" s="7">
-        <v>3296</v>
+        <v>3510</v>
       </c>
       <c r="AF49" s="7">
         <v>29832</v>
@@ -9665,10 +10051,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="9">
-        <v>5336</v>
+        <v>5682</v>
       </c>
       <c r="C50" s="9">
-        <v>6527</v>
+        <v>6951</v>
       </c>
       <c r="D50" s="9">
         <v>8819</v>
@@ -9737,22 +10123,22 @@
         <v>4549</v>
       </c>
       <c r="Z50" s="7">
-        <v>12430</v>
+        <v>13237</v>
       </c>
       <c r="AA50" s="7">
-        <v>8260</v>
+        <v>8796</v>
       </c>
       <c r="AB50" s="7">
-        <v>7360</v>
+        <v>7838</v>
       </c>
       <c r="AC50" s="7">
-        <v>4562</v>
+        <v>4858</v>
       </c>
       <c r="AD50" s="7">
-        <v>3923</v>
+        <v>4177</v>
       </c>
       <c r="AE50" s="7">
-        <v>3437</v>
+        <v>3660</v>
       </c>
       <c r="AF50" s="7">
         <v>30982</v>
@@ -9832,10 +10218,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="9">
-        <v>5514</v>
+        <v>5872</v>
       </c>
       <c r="C51" s="9">
-        <v>6745</v>
+        <v>7183</v>
       </c>
       <c r="D51" s="9">
         <v>8839</v>
@@ -9904,22 +10290,22 @@
         <v>4767</v>
       </c>
       <c r="Z51" s="7">
-        <v>12956</v>
+        <v>13798</v>
       </c>
       <c r="AA51" s="7">
-        <v>8682</v>
+        <v>9246</v>
       </c>
       <c r="AB51" s="7">
-        <v>7647</v>
+        <v>8144</v>
       </c>
       <c r="AC51" s="7">
-        <v>4782</v>
+        <v>5092</v>
       </c>
       <c r="AD51" s="7">
-        <v>4112</v>
+        <v>4379</v>
       </c>
       <c r="AE51" s="7">
-        <v>3602</v>
+        <v>3836</v>
       </c>
       <c r="AF51" s="7">
         <v>32388</v>
@@ -9999,10 +10385,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="9">
-        <v>5695</v>
+        <v>6065</v>
       </c>
       <c r="C52" s="9">
-        <v>6967</v>
+        <v>7419</v>
       </c>
       <c r="D52" s="9">
         <v>9350</v>
@@ -10071,22 +10457,22 @@
         <v>5097</v>
       </c>
       <c r="Z52" s="7">
-        <v>13220</v>
+        <v>14079</v>
       </c>
       <c r="AA52" s="7">
-        <v>9202</v>
+        <v>9800</v>
       </c>
       <c r="AB52" s="7">
-        <v>7960</v>
+        <v>8477</v>
       </c>
       <c r="AC52" s="7">
-        <v>5116</v>
+        <v>5448</v>
       </c>
       <c r="AD52" s="7">
-        <v>4400</v>
+        <v>4686</v>
       </c>
       <c r="AE52" s="7">
-        <v>3854</v>
+        <v>4104</v>
       </c>
       <c r="AF52" s="7">
         <v>33559</v>
@@ -10166,10 +10552,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="9">
-        <v>5880</v>
+        <v>6262</v>
       </c>
       <c r="C53" s="9">
-        <v>7192</v>
+        <v>7659</v>
       </c>
       <c r="D53" s="9">
         <v>9700</v>
@@ -10238,22 +10624,22 @@
         <v>5355</v>
       </c>
       <c r="Z53" s="7">
-        <v>13722</v>
+        <v>14613</v>
       </c>
       <c r="AA53" s="7">
-        <v>9499</v>
+        <v>10116</v>
       </c>
       <c r="AB53" s="7">
-        <v>8263</v>
+        <v>8800</v>
       </c>
       <c r="AC53" s="7">
-        <v>5378</v>
+        <v>5727</v>
       </c>
       <c r="AD53" s="7">
-        <v>4625</v>
+        <v>4925</v>
       </c>
       <c r="AE53" s="7">
-        <v>4051</v>
+        <v>4314</v>
       </c>
       <c r="AF53" s="7">
         <v>34742</v>
@@ -10333,10 +10719,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="9">
-        <v>6072</v>
+        <v>6466</v>
       </c>
       <c r="C54" s="9">
-        <v>7428</v>
+        <v>7910</v>
       </c>
       <c r="D54" s="9">
         <v>10014</v>
@@ -10405,22 +10791,22 @@
         <v>5612</v>
       </c>
       <c r="Z54" s="7">
-        <v>14868</v>
+        <v>15834</v>
       </c>
       <c r="AA54" s="7">
-        <v>9722</v>
+        <v>10353</v>
       </c>
       <c r="AB54" s="7">
-        <v>8427</v>
+        <v>8974</v>
       </c>
       <c r="AC54" s="7">
-        <v>5639</v>
+        <v>6005</v>
       </c>
       <c r="AD54" s="7">
-        <v>4849</v>
+        <v>5164</v>
       </c>
       <c r="AE54" s="7">
-        <v>4248</v>
+        <v>4524</v>
       </c>
       <c r="AF54" s="7">
         <v>36437</v>
@@ -10500,10 +10886,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="9">
-        <v>6268</v>
+        <v>6675</v>
       </c>
       <c r="C55" s="9">
-        <v>7667</v>
+        <v>8165</v>
       </c>
       <c r="D55" s="9">
         <v>10322</v>
@@ -10572,22 +10958,22 @@
         <v>5869</v>
       </c>
       <c r="Z55" s="7">
-        <v>15535</v>
+        <v>16544</v>
       </c>
       <c r="AA55" s="7">
-        <v>10165</v>
+        <v>10825</v>
       </c>
       <c r="AB55" s="7">
-        <v>9029</v>
+        <v>9615</v>
       </c>
       <c r="AC55" s="7">
-        <v>5900</v>
+        <v>6283</v>
       </c>
       <c r="AD55" s="7">
-        <v>5075</v>
+        <v>5404</v>
       </c>
       <c r="AE55" s="7">
-        <v>4445</v>
+        <v>4733</v>
       </c>
       <c r="AF55" s="7">
         <v>37897</v>
@@ -10667,10 +11053,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="9">
-        <v>6476</v>
+        <v>6896</v>
       </c>
       <c r="C56" s="9">
-        <v>7922</v>
+        <v>8436</v>
       </c>
       <c r="D56" s="9">
         <v>10734</v>
@@ -10739,22 +11125,22 @@
         <v>6126</v>
       </c>
       <c r="Z56" s="7">
-        <v>16195</v>
+        <v>17247</v>
       </c>
       <c r="AA56" s="7">
-        <v>10607</v>
+        <v>11296</v>
       </c>
       <c r="AB56" s="7">
-        <v>9405</v>
+        <v>10016</v>
       </c>
       <c r="AC56" s="7">
-        <v>6161</v>
+        <v>6561</v>
       </c>
       <c r="AD56" s="7">
-        <v>5299</v>
+        <v>5643</v>
       </c>
       <c r="AE56" s="7">
-        <v>4642</v>
+        <v>4943</v>
       </c>
       <c r="AF56" s="7">
         <v>39877</v>
@@ -10834,10 +11220,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="9">
-        <v>6688</v>
+        <v>7122</v>
       </c>
       <c r="C57" s="9">
-        <v>8181</v>
+        <v>8712</v>
       </c>
       <c r="D57" s="9">
         <v>11180</v>
@@ -10906,22 +11292,22 @@
         <v>6485</v>
       </c>
       <c r="Z57" s="7">
-        <v>16882</v>
+        <v>17979</v>
       </c>
       <c r="AA57" s="7">
-        <v>10975</v>
+        <v>11688</v>
       </c>
       <c r="AB57" s="7">
-        <v>9631</v>
+        <v>10257</v>
       </c>
       <c r="AC57" s="7">
-        <v>6423</v>
+        <v>6840</v>
       </c>
       <c r="AD57" s="7">
-        <v>5588</v>
+        <v>5951</v>
       </c>
       <c r="AE57" s="7">
-        <v>4903</v>
+        <v>5221</v>
       </c>
       <c r="AF57" s="7">
         <v>42125</v>
@@ -11001,10 +11387,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="9">
-        <v>6916</v>
+        <v>7365</v>
       </c>
       <c r="C58" s="9">
-        <v>8460</v>
+        <v>9009</v>
       </c>
       <c r="D58" s="9">
         <v>11617</v>
@@ -11073,22 +11459,22 @@
         <v>6852</v>
       </c>
       <c r="Z58" s="7">
-        <v>17945</v>
+        <v>19111</v>
       </c>
       <c r="AA58" s="7">
-        <v>11711</v>
+        <v>12472</v>
       </c>
       <c r="AB58" s="7">
-        <v>10157</v>
+        <v>10817</v>
       </c>
       <c r="AC58" s="7">
-        <v>6684</v>
+        <v>7118</v>
       </c>
       <c r="AD58" s="7">
-        <v>5815</v>
+        <v>6192</v>
       </c>
       <c r="AE58" s="7">
-        <v>5138</v>
+        <v>5471</v>
       </c>
       <c r="AF58" s="7">
         <v>44930</v>
@@ -11168,10 +11554,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="9">
-        <v>7151</v>
+        <v>7615</v>
       </c>
       <c r="C59" s="9">
-        <v>8747</v>
+        <v>9315</v>
       </c>
       <c r="D59" s="9">
         <v>12050</v>
@@ -11240,22 +11626,22 @@
         <v>7122</v>
       </c>
       <c r="Z59" s="7">
-        <v>18971</v>
+        <v>20204</v>
       </c>
       <c r="AA59" s="7">
-        <v>12448</v>
+        <v>13257</v>
       </c>
       <c r="AB59" s="7">
-        <v>10835</v>
+        <v>11539</v>
       </c>
       <c r="AC59" s="7">
-        <v>6946</v>
+        <v>7397</v>
       </c>
       <c r="AD59" s="7">
-        <v>6043</v>
+        <v>6435</v>
       </c>
       <c r="AE59" s="7">
-        <v>5339</v>
+        <v>5686</v>
       </c>
       <c r="AF59" s="7">
         <v>47787</v>
@@ -11335,10 +11721,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="9">
-        <v>7393</v>
+        <v>7873</v>
       </c>
       <c r="C60" s="9">
-        <v>9043</v>
+        <v>9630</v>
       </c>
       <c r="D60" s="9">
         <v>12519</v>
@@ -11407,22 +11793,22 @@
         <v>7501</v>
       </c>
       <c r="Z60" s="7">
-        <v>19943</v>
+        <v>21239</v>
       </c>
       <c r="AA60" s="7">
-        <v>13185</v>
+        <v>14042</v>
       </c>
       <c r="AB60" s="7">
-        <v>11587</v>
+        <v>12340</v>
       </c>
       <c r="AC60" s="7">
-        <v>7207</v>
+        <v>7675</v>
       </c>
       <c r="AD60" s="7">
-        <v>6342</v>
+        <v>6754</v>
       </c>
       <c r="AE60" s="7">
-        <v>5612</v>
+        <v>5976</v>
       </c>
       <c r="AF60" s="7">
         <v>50384</v>
@@ -11502,10 +11888,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="9">
-        <v>7642</v>
+        <v>8138</v>
       </c>
       <c r="C61" s="9">
-        <v>9412</v>
+        <v>10023</v>
       </c>
       <c r="D61" s="9">
         <v>13128</v>
@@ -11574,22 +11960,22 @@
         <v>7776</v>
       </c>
       <c r="Z61" s="7">
-        <v>21289</v>
+        <v>22672</v>
       </c>
       <c r="AA61" s="7">
-        <v>14142</v>
+        <v>15061</v>
       </c>
       <c r="AB61" s="7">
-        <v>12340</v>
+        <v>13142</v>
       </c>
       <c r="AC61" s="7">
-        <v>7469</v>
+        <v>7954</v>
       </c>
       <c r="AD61" s="7">
-        <v>6572</v>
+        <v>6999</v>
       </c>
       <c r="AE61" s="7">
-        <v>5815</v>
+        <v>6192</v>
       </c>
       <c r="AF61" s="7">
         <v>53368</v>
@@ -11669,10 +12055,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="9">
-        <v>7909</v>
+        <v>8423</v>
       </c>
       <c r="C62" s="9">
-        <v>9740</v>
+        <v>10373</v>
       </c>
       <c r="D62" s="9">
         <v>13782</v>
@@ -11741,22 +12127,22 @@
         <v>8209</v>
       </c>
       <c r="Z62" s="7">
-        <v>22350</v>
+        <v>23802</v>
       </c>
       <c r="AA62" s="7">
-        <v>15086</v>
+        <v>16066</v>
       </c>
       <c r="AB62" s="7">
-        <v>13092</v>
+        <v>13942</v>
       </c>
       <c r="AC62" s="7">
-        <v>7881</v>
+        <v>8393</v>
       </c>
       <c r="AD62" s="7">
-        <v>6935</v>
+        <v>7385</v>
       </c>
       <c r="AE62" s="7">
-        <v>6137</v>
+        <v>6535</v>
       </c>
       <c r="AF62" s="7">
         <v>56707</v>
@@ -11836,10 +12222,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="9">
-        <v>8238</v>
+        <v>8773</v>
       </c>
       <c r="C63" s="9">
-        <v>10146</v>
+        <v>10805</v>
       </c>
       <c r="D63" s="9">
         <v>14465</v>
@@ -11908,22 +12294,22 @@
         <v>8674</v>
       </c>
       <c r="Z63" s="7">
-        <v>23449</v>
+        <v>24973</v>
       </c>
       <c r="AA63" s="7">
-        <v>16004</v>
+        <v>17044</v>
       </c>
       <c r="AB63" s="7">
-        <v>14089</v>
+        <v>15004</v>
       </c>
       <c r="AC63" s="7">
-        <v>8547</v>
+        <v>9102</v>
       </c>
       <c r="AD63" s="7">
-        <v>7521</v>
+        <v>8009</v>
       </c>
       <c r="AE63" s="7">
-        <v>6655</v>
+        <v>7087</v>
       </c>
       <c r="AF63" s="7">
         <v>60654</v>
@@ -12003,10 +12389,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="9">
-        <v>8635</v>
+        <v>9196</v>
       </c>
       <c r="C64" s="9">
-        <v>10634</v>
+        <v>11325</v>
       </c>
       <c r="D64" s="9">
         <v>15149</v>
@@ -12075,22 +12461,22 @@
         <v>9180</v>
       </c>
       <c r="Z64" s="7">
-        <v>25439</v>
+        <v>27092</v>
       </c>
       <c r="AA64" s="7">
-        <v>17217</v>
+        <v>18336</v>
       </c>
       <c r="AB64" s="7">
-        <v>15154</v>
+        <v>16139</v>
       </c>
       <c r="AC64" s="7">
-        <v>9277</v>
+        <v>9880</v>
       </c>
       <c r="AD64" s="7">
-        <v>8164</v>
+        <v>8694</v>
       </c>
       <c r="AE64" s="7">
-        <v>7224</v>
+        <v>7693</v>
       </c>
       <c r="AF64" s="7">
         <v>65223</v>
@@ -12170,10 +12556,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="9">
-        <v>9051</v>
+        <v>9639</v>
       </c>
       <c r="C65" s="9">
-        <v>11147</v>
+        <v>11871</v>
       </c>
       <c r="D65" s="9">
         <v>15838</v>
@@ -12242,22 +12628,22 @@
         <v>9666</v>
       </c>
       <c r="Z65" s="7">
-        <v>28072</v>
+        <v>29896</v>
       </c>
       <c r="AA65" s="7">
-        <v>19032</v>
+        <v>20269</v>
       </c>
       <c r="AB65" s="7">
-        <v>16774</v>
+        <v>17864</v>
       </c>
       <c r="AC65" s="7">
-        <v>10159</v>
+        <v>10819</v>
       </c>
       <c r="AD65" s="7">
-        <v>8839</v>
+        <v>9413</v>
       </c>
       <c r="AE65" s="7">
-        <v>7809</v>
+        <v>8316</v>
       </c>
       <c r="AF65" s="7">
         <v>70523</v>
@@ -12337,10 +12723,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="9">
-        <v>9478</v>
+        <v>10094</v>
       </c>
       <c r="C66" s="9">
-        <v>11672</v>
+        <v>12430</v>
       </c>
       <c r="D66" s="9">
         <v>16507</v>
@@ -12409,22 +12795,22 @@
         <v>10223</v>
       </c>
       <c r="Z66" s="7">
-        <v>31390</v>
+        <v>33430</v>
       </c>
       <c r="AA66" s="7">
-        <v>21299</v>
+        <v>22683</v>
       </c>
       <c r="AB66" s="7">
-        <v>18802</v>
+        <v>20024</v>
       </c>
       <c r="AC66" s="7">
-        <v>11007</v>
+        <v>11722</v>
       </c>
       <c r="AD66" s="7">
-        <v>9576</v>
+        <v>10198</v>
       </c>
       <c r="AE66" s="7">
-        <v>8460</v>
+        <v>9009</v>
       </c>
       <c r="AF66" s="7">
         <v>75351</v>
@@ -12504,10 +12890,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="9">
-        <v>9911</v>
+        <v>10555</v>
       </c>
       <c r="C67" s="9">
-        <v>12206</v>
+        <v>12999</v>
       </c>
       <c r="D67" s="9">
         <v>17183</v>
@@ -12576,22 +12962,22 @@
         <v>10704</v>
       </c>
       <c r="Z67" s="7">
-        <v>34073</v>
+        <v>36287</v>
       </c>
       <c r="AA67" s="7">
-        <v>23516</v>
+        <v>25044</v>
       </c>
       <c r="AB67" s="7">
-        <v>20556</v>
+        <v>21892</v>
       </c>
       <c r="AC67" s="7">
-        <v>11798</v>
+        <v>12564</v>
       </c>
       <c r="AD67" s="7">
-        <v>10265</v>
+        <v>10932</v>
       </c>
       <c r="AE67" s="7">
-        <v>9069</v>
+        <v>9658</v>
       </c>
       <c r="AF67" s="7">
         <v>79169</v>
@@ -12671,10 +13057,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="9">
-        <v>10342</v>
+        <v>11014</v>
       </c>
       <c r="C68" s="9">
-        <v>12845</v>
+        <v>13679</v>
       </c>
       <c r="D68" s="9">
         <v>17905</v>
@@ -12743,22 +13129,22 @@
         <v>11308</v>
       </c>
       <c r="Z68" s="7">
-        <v>36810</v>
+        <v>39202</v>
       </c>
       <c r="AA68" s="7">
-        <v>25755</v>
+        <v>27429</v>
       </c>
       <c r="AB68" s="7">
-        <v>22493</v>
+        <v>23955</v>
       </c>
       <c r="AC68" s="7">
-        <v>12944</v>
+        <v>13785</v>
       </c>
       <c r="AD68" s="7">
-        <v>11261</v>
+        <v>11992</v>
       </c>
       <c r="AE68" s="7">
-        <v>9880</v>
+        <v>10522</v>
       </c>
       <c r="AF68" s="7">
         <v>83342</v>
@@ -12838,10 +13224,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="9">
-        <v>10773</v>
+        <v>11473</v>
       </c>
       <c r="C69" s="9">
-        <v>13380</v>
+        <v>14249</v>
       </c>
       <c r="D69" s="9">
         <v>18673</v>
@@ -12910,22 +13296,22 @@
         <v>11849</v>
       </c>
       <c r="Z69" s="7">
-        <v>38237</v>
+        <v>40722</v>
       </c>
       <c r="AA69" s="7">
-        <v>26329</v>
+        <v>28040</v>
       </c>
       <c r="AB69" s="7">
-        <v>22865</v>
+        <v>24351</v>
       </c>
       <c r="AC69" s="7">
-        <v>14079</v>
+        <v>14994</v>
       </c>
       <c r="AD69" s="7">
-        <v>12108</v>
+        <v>12895</v>
       </c>
       <c r="AE69" s="7">
-        <v>10606</v>
+        <v>11295</v>
       </c>
       <c r="AF69" s="7">
         <v>87620</v>
@@ -13005,10 +13391,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="9">
-        <v>11202</v>
+        <v>11930</v>
       </c>
       <c r="C70" s="9">
-        <v>13912</v>
+        <v>14816</v>
       </c>
       <c r="D70" s="9">
         <v>19483</v>
@@ -13077,22 +13463,22 @@
         <v>12701</v>
       </c>
       <c r="Z70" s="7">
-        <v>39080</v>
+        <v>41620</v>
       </c>
       <c r="AA70" s="7">
-        <v>27129</v>
+        <v>28892</v>
       </c>
       <c r="AB70" s="7">
-        <v>23461</v>
+        <v>24985</v>
       </c>
       <c r="AC70" s="7">
-        <v>15426</v>
+        <v>16428</v>
       </c>
       <c r="AD70" s="7">
-        <v>13267</v>
+        <v>14129</v>
       </c>
       <c r="AE70" s="7">
-        <v>11621</v>
+        <v>12376</v>
       </c>
       <c r="AF70" s="7">
         <v>91751</v>
@@ -13172,10 +13558,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="9">
-        <v>11636</v>
+        <v>12392</v>
       </c>
       <c r="C71" s="9">
-        <v>14574</v>
+        <v>15521</v>
       </c>
       <c r="D71" s="9">
         <v>20324</v>
@@ -13244,22 +13630,22 @@
         <v>13564</v>
       </c>
       <c r="Z71" s="7">
-        <v>40344</v>
+        <v>42966</v>
       </c>
       <c r="AA71" s="7">
-        <v>28158</v>
+        <v>29988</v>
       </c>
       <c r="AB71" s="7">
-        <v>24280</v>
+        <v>25858</v>
       </c>
       <c r="AC71" s="7">
-        <v>16830</v>
+        <v>17923</v>
       </c>
       <c r="AD71" s="7">
-        <v>14474</v>
+        <v>15414</v>
       </c>
       <c r="AE71" s="7">
-        <v>12679</v>
+        <v>13503</v>
       </c>
       <c r="AF71" s="7">
         <v>96026</v>
@@ -13339,10 +13725,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="10">
-        <v>12065</v>
+        <v>12849</v>
       </c>
       <c r="C72" s="10">
-        <v>15237</v>
+        <v>16227</v>
       </c>
       <c r="D72" s="10">
         <v>21175</v>
@@ -13411,22 +13797,22 @@
         <v>14464</v>
       </c>
       <c r="Z72" s="5">
-        <v>41450</v>
+        <v>44144</v>
       </c>
       <c r="AA72" s="5">
-        <v>29196</v>
+        <v>31093</v>
       </c>
       <c r="AB72" s="5">
-        <v>25025</v>
+        <v>26651</v>
       </c>
       <c r="AC72" s="5">
-        <v>18332</v>
+        <v>19523</v>
       </c>
       <c r="AD72" s="5">
-        <v>15765</v>
+        <v>16789</v>
       </c>
       <c r="AE72" s="5">
-        <v>13810</v>
+        <v>14707</v>
       </c>
       <c r="AF72" s="5">
         <v>101114</v>
@@ -13506,10 +13892,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="9">
-        <v>12511</v>
+        <v>13324</v>
       </c>
       <c r="C73" s="9">
-        <v>15800</v>
+        <v>16827</v>
       </c>
       <c r="D73" s="9">
         <v>22022</v>
@@ -13578,22 +13964,22 @@
         <v>15329</v>
       </c>
       <c r="Z73" s="7">
-        <v>45826</v>
+        <v>48804</v>
       </c>
       <c r="AA73" s="7">
-        <v>32287</v>
+        <v>34385</v>
       </c>
       <c r="AB73" s="7">
-        <v>27655</v>
+        <v>29452</v>
       </c>
       <c r="AC73" s="7">
-        <v>19429</v>
+        <v>20691</v>
       </c>
       <c r="AD73" s="7">
-        <v>16710</v>
+        <v>17796</v>
       </c>
       <c r="AE73" s="7">
-        <v>14637</v>
+        <v>15588</v>
       </c>
       <c r="AF73" s="7">
         <v>106350</v>
@@ -13673,10 +14059,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="9">
-        <v>12965</v>
+        <v>13807</v>
       </c>
       <c r="C74" s="9">
-        <v>16779</v>
+        <v>17869</v>
       </c>
       <c r="D74" s="9">
         <v>22855</v>
@@ -13745,22 +14131,22 @@
         <v>16285</v>
       </c>
       <c r="Z74" s="7">
-        <v>48365</v>
+        <v>51508</v>
       </c>
       <c r="AA74" s="7">
-        <v>34157</v>
+        <v>36377</v>
       </c>
       <c r="AB74" s="7">
-        <v>29204</v>
+        <v>31102</v>
       </c>
       <c r="AC74" s="7">
-        <v>20642</v>
+        <v>21983</v>
       </c>
       <c r="AD74" s="7">
-        <v>17752</v>
+        <v>18905</v>
       </c>
       <c r="AE74" s="7">
-        <v>15550</v>
+        <v>16560</v>
       </c>
       <c r="AF74" s="7">
         <v>111411</v>
@@ -13840,10 +14226,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="9">
-        <v>13415</v>
+        <v>14286</v>
       </c>
       <c r="C75" s="9">
-        <v>17362</v>
+        <v>18490</v>
       </c>
       <c r="D75" s="9">
         <v>23664</v>
@@ -13912,22 +14298,22 @@
         <v>17181</v>
       </c>
       <c r="Z75" s="7">
-        <v>50861</v>
+        <v>54166</v>
       </c>
       <c r="AA75" s="7">
-        <v>35684</v>
+        <v>38003</v>
       </c>
       <c r="AB75" s="7">
-        <v>30708</v>
+        <v>32704</v>
       </c>
       <c r="AC75" s="7">
-        <v>21777</v>
+        <v>23192</v>
       </c>
       <c r="AD75" s="7">
-        <v>18728</v>
+        <v>19945</v>
       </c>
       <c r="AE75" s="7">
-        <v>16405</v>
+        <v>17471</v>
       </c>
       <c r="AF75" s="7">
         <v>116561</v>
@@ -14007,10 +14393,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="9">
-        <v>13871</v>
+        <v>14772</v>
       </c>
       <c r="C76" s="9">
-        <v>18096</v>
+        <v>19272</v>
       </c>
       <c r="D76" s="9">
         <v>24803</v>
@@ -14079,22 +14465,22 @@
         <v>18088</v>
       </c>
       <c r="Z76" s="7">
-        <v>52958</v>
+        <v>56400</v>
       </c>
       <c r="AA76" s="7">
-        <v>37486</v>
+        <v>39922</v>
       </c>
       <c r="AB76" s="7">
-        <v>32093</v>
+        <v>34179</v>
       </c>
       <c r="AC76" s="7">
-        <v>22926</v>
+        <v>24416</v>
       </c>
       <c r="AD76" s="7">
-        <v>19716</v>
+        <v>20997</v>
       </c>
       <c r="AE76" s="7">
-        <v>17271</v>
+        <v>18393</v>
       </c>
       <c r="AF76" s="7">
         <v>121761</v>
@@ -14174,10 +14560,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="9">
-        <v>14326</v>
+        <v>15257</v>
       </c>
       <c r="C77" s="9">
-        <v>18839</v>
+        <v>20063</v>
       </c>
       <c r="D77" s="9">
         <v>25907</v>
@@ -14246,22 +14632,22 @@
         <v>19059</v>
       </c>
       <c r="Z77" s="7">
-        <v>53922</v>
+        <v>57426</v>
       </c>
       <c r="AA77" s="7">
-        <v>38372</v>
+        <v>40866</v>
       </c>
       <c r="AB77" s="7">
-        <v>32898</v>
+        <v>35036</v>
       </c>
       <c r="AC77" s="7">
-        <v>24158</v>
+        <v>25728</v>
       </c>
       <c r="AD77" s="7">
-        <v>20776</v>
+        <v>22126</v>
       </c>
       <c r="AE77" s="7">
-        <v>18199</v>
+        <v>19381</v>
       </c>
       <c r="AF77" s="7">
         <v>127704</v>
@@ -14341,10 +14727,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="9">
-        <v>14781</v>
+        <v>15741</v>
       </c>
       <c r="C78" s="9">
-        <v>19592</v>
+        <v>20865</v>
       </c>
       <c r="D78" s="9">
         <v>27056</v>
@@ -14413,22 +14799,22 @@
         <v>19742</v>
       </c>
       <c r="Z78" s="7">
-        <v>58972</v>
+        <v>62805</v>
       </c>
       <c r="AA78" s="7">
-        <v>40383</v>
+        <v>43007</v>
       </c>
       <c r="AB78" s="7">
-        <v>34588</v>
+        <v>36836</v>
       </c>
       <c r="AC78" s="7">
-        <v>25023</v>
+        <v>26649</v>
       </c>
       <c r="AD78" s="7">
-        <v>21519</v>
+        <v>22917</v>
       </c>
       <c r="AE78" s="7">
-        <v>18850</v>
+        <v>20075</v>
       </c>
       <c r="AF78" s="7">
         <v>133824</v>
@@ -14508,10 +14894,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="9">
-        <v>15238</v>
+        <v>16228</v>
       </c>
       <c r="C79" s="9">
-        <v>20358</v>
+        <v>21681</v>
       </c>
       <c r="D79" s="9">
         <v>28174</v>
@@ -14580,22 +14966,22 @@
         <v>20732</v>
       </c>
       <c r="Z79" s="7">
-        <v>64806</v>
+        <v>69018</v>
       </c>
       <c r="AA79" s="7">
-        <v>43116</v>
+        <v>45918</v>
       </c>
       <c r="AB79" s="7">
-        <v>37002</v>
+        <v>39407</v>
       </c>
       <c r="AC79" s="7">
-        <v>26278</v>
+        <v>27986</v>
       </c>
       <c r="AD79" s="7">
-        <v>22599</v>
+        <v>24067</v>
       </c>
       <c r="AE79" s="7">
-        <v>19796</v>
+        <v>21082</v>
       </c>
       <c r="AF79" s="7">
         <v>139768</v>
@@ -14675,10 +15061,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="9">
-        <v>15692</v>
+        <v>16711</v>
       </c>
       <c r="C80" s="9">
-        <v>21126</v>
+        <v>22499</v>
       </c>
       <c r="D80" s="9">
         <v>29124</v>
@@ -14747,22 +15133,22 @@
         <v>21138</v>
       </c>
       <c r="Z80" s="7">
-        <v>68424</v>
+        <v>72871</v>
       </c>
       <c r="AA80" s="7">
-        <v>44003</v>
+        <v>46863</v>
       </c>
       <c r="AB80" s="7">
-        <v>37724</v>
+        <v>40176</v>
       </c>
       <c r="AC80" s="7">
-        <v>26792</v>
+        <v>28533</v>
       </c>
       <c r="AD80" s="7">
-        <v>23041</v>
+        <v>24538</v>
       </c>
       <c r="AE80" s="7">
-        <v>20183</v>
+        <v>21494</v>
       </c>
       <c r="AF80" s="7">
         <v>145630</v>
@@ -14842,10 +15228,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="9">
-        <v>16169</v>
+        <v>17219</v>
       </c>
       <c r="C81" s="9">
-        <v>22108</v>
+        <v>23545</v>
       </c>
       <c r="D81" s="9">
         <v>29942</v>
@@ -14914,22 +15300,22 @@
         <v>22355</v>
       </c>
       <c r="Z81" s="7">
-        <v>72443</v>
+        <v>77151</v>
       </c>
       <c r="AA81" s="7">
-        <v>46573</v>
+        <v>49600</v>
       </c>
       <c r="AB81" s="7">
-        <v>39899</v>
+        <v>42492</v>
       </c>
       <c r="AC81" s="7">
-        <v>28335</v>
+        <v>30176</v>
       </c>
       <c r="AD81" s="7">
-        <v>24368</v>
+        <v>25951</v>
       </c>
       <c r="AE81" s="7">
-        <v>21346</v>
+        <v>22733</v>
       </c>
       <c r="AF81" s="7">
         <v>149974</v>
@@ -15009,10 +15395,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="9">
-        <v>16641</v>
+        <v>17722</v>
       </c>
       <c r="C82" s="9">
-        <v>22926</v>
+        <v>24416</v>
       </c>
       <c r="D82" s="9">
         <v>31012</v>
@@ -15081,22 +15467,22 @@
         <v>23677</v>
       </c>
       <c r="Z82" s="7">
-        <v>75474</v>
+        <v>80379</v>
       </c>
       <c r="AA82" s="7">
-        <v>47622</v>
+        <v>50717</v>
       </c>
       <c r="AB82" s="7">
-        <v>40786</v>
+        <v>43437</v>
       </c>
       <c r="AC82" s="7">
-        <v>30011</v>
+        <v>31961</v>
       </c>
       <c r="AD82" s="7">
-        <v>25809</v>
+        <v>27486</v>
       </c>
       <c r="AE82" s="7">
-        <v>22608</v>
+        <v>24077</v>
       </c>
       <c r="AF82" s="7">
         <v>157973</v>
@@ -15176,10 +15562,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="9">
-        <v>17056</v>
+        <v>18164</v>
       </c>
       <c r="C83" s="9">
-        <v>23676</v>
+        <v>25214</v>
       </c>
       <c r="D83" s="9">
         <v>31929</v>
@@ -15248,22 +15634,22 @@
         <v>24307</v>
       </c>
       <c r="Z83" s="7">
-        <v>79845</v>
+        <v>85034</v>
       </c>
       <c r="AA83" s="7">
-        <v>48710</v>
+        <v>51876</v>
       </c>
       <c r="AB83" s="7">
-        <v>41813</v>
+        <v>44530</v>
       </c>
       <c r="AC83" s="7">
-        <v>30809</v>
+        <v>32811</v>
       </c>
       <c r="AD83" s="7">
-        <v>26496</v>
+        <v>28218</v>
       </c>
       <c r="AE83" s="7">
-        <v>23210</v>
+        <v>24718</v>
       </c>
       <c r="AF83" s="7">
         <v>165390</v>
@@ -15343,10 +15729,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="9">
-        <v>17434</v>
+        <v>18567</v>
       </c>
       <c r="C84" s="9">
-        <v>24383</v>
+        <v>25967</v>
       </c>
       <c r="D84" s="9">
         <v>32828</v>
@@ -15415,22 +15801,22 @@
         <v>25213</v>
       </c>
       <c r="Z84" s="7">
-        <v>82168</v>
+        <v>87508</v>
       </c>
       <c r="AA84" s="7">
-        <v>50303</v>
+        <v>53572</v>
       </c>
       <c r="AB84" s="7">
-        <v>43095</v>
+        <v>45896</v>
       </c>
       <c r="AC84" s="7">
-        <v>31957</v>
+        <v>34034</v>
       </c>
       <c r="AD84" s="7">
-        <v>27484</v>
+        <v>29270</v>
       </c>
       <c r="AE84" s="7">
-        <v>24075</v>
+        <v>25639</v>
       </c>
       <c r="AF84" s="7">
         <v>171612</v>
@@ -15510,10 +15896,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="9">
-        <v>17796</v>
+        <v>18952</v>
       </c>
       <c r="C85" s="9">
-        <v>25074</v>
+        <v>26703</v>
       </c>
       <c r="D85" s="9">
         <v>33745</v>
@@ -15582,22 +15968,22 @@
         <v>26188</v>
       </c>
       <c r="Z85" s="7">
-        <v>83625</v>
+        <v>89060</v>
       </c>
       <c r="AA85" s="7">
-        <v>51123</v>
+        <v>54445</v>
       </c>
       <c r="AB85" s="7">
-        <v>43749</v>
+        <v>46592</v>
       </c>
       <c r="AC85" s="7">
-        <v>33193</v>
+        <v>35350</v>
       </c>
       <c r="AD85" s="7">
-        <v>28546</v>
+        <v>30401</v>
       </c>
       <c r="AE85" s="7">
-        <v>25005</v>
+        <v>26630</v>
       </c>
       <c r="AF85" s="7">
         <v>178294</v>
@@ -15677,10 +16063,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="9">
-        <v>18117</v>
+        <v>19294</v>
       </c>
       <c r="C86" s="9">
-        <v>25716</v>
+        <v>27387</v>
       </c>
       <c r="D86" s="9">
         <v>34744</v>
@@ -15749,22 +16135,22 @@
         <v>27074</v>
       </c>
       <c r="Z86" s="7">
-        <v>84949</v>
+        <v>90470</v>
       </c>
       <c r="AA86" s="7">
-        <v>52188</v>
+        <v>55580</v>
       </c>
       <c r="AB86" s="7">
-        <v>44962</v>
+        <v>47884</v>
       </c>
       <c r="AC86" s="7">
-        <v>34315</v>
+        <v>36545</v>
       </c>
       <c r="AD86" s="7">
-        <v>29511</v>
+        <v>31429</v>
       </c>
       <c r="AE86" s="7">
-        <v>25851</v>
+        <v>27531</v>
       </c>
       <c r="AF86" s="7">
         <v>183803</v>
@@ -15844,10 +16230,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="9">
-        <v>18401</v>
+        <v>19597</v>
       </c>
       <c r="C87" s="9">
-        <v>26311</v>
+        <v>28021</v>
       </c>
       <c r="D87" s="9">
         <v>35814</v>
@@ -15916,22 +16302,22 @@
         <v>28055</v>
       </c>
       <c r="Z87" s="7">
-        <v>86472</v>
+        <v>92092</v>
       </c>
       <c r="AA87" s="7">
-        <v>52844</v>
+        <v>56278</v>
       </c>
       <c r="AB87" s="7">
-        <v>46592</v>
+        <v>49620</v>
       </c>
       <c r="AC87" s="7">
-        <v>35559</v>
+        <v>37870</v>
       </c>
       <c r="AD87" s="7">
-        <v>30581</v>
+        <v>32568</v>
       </c>
       <c r="AE87" s="7">
-        <v>26788</v>
+        <v>28529</v>
       </c>
       <c r="AF87" s="7">
         <v>190139</v>
@@ -16011,10 +16397,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="9">
-        <v>18638</v>
+        <v>19849</v>
       </c>
       <c r="C88" s="9">
-        <v>26651</v>
+        <v>28383</v>
       </c>
       <c r="D88" s="9">
         <v>36908</v>
@@ -16083,22 +16469,22 @@
         <v>28674</v>
       </c>
       <c r="Z88" s="7">
-        <v>88061</v>
+        <v>93784</v>
       </c>
       <c r="AA88" s="7">
-        <v>54088</v>
+        <v>57603</v>
       </c>
       <c r="AB88" s="7">
-        <v>47620</v>
+        <v>50715</v>
       </c>
       <c r="AC88" s="7">
-        <v>36343</v>
+        <v>38705</v>
       </c>
       <c r="AD88" s="7">
-        <v>31255</v>
+        <v>33286</v>
       </c>
       <c r="AE88" s="7">
-        <v>27379</v>
+        <v>29158</v>
       </c>
       <c r="AF88" s="7">
         <v>194854</v>
@@ -16178,10 +16564,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="9">
-        <v>18876</v>
+        <v>20102</v>
       </c>
       <c r="C89" s="9">
-        <v>26991</v>
+        <v>28745</v>
       </c>
       <c r="D89" s="9">
         <v>38000</v>
@@ -16250,22 +16636,22 @@
         <v>29395</v>
       </c>
       <c r="Z89" s="7">
-        <v>89451</v>
+        <v>95265</v>
       </c>
       <c r="AA89" s="7">
-        <v>55404</v>
+        <v>59005</v>
       </c>
       <c r="AB89" s="7">
-        <v>48817</v>
+        <v>51990</v>
       </c>
       <c r="AC89" s="7">
-        <v>37257</v>
+        <v>39678</v>
       </c>
       <c r="AD89" s="7">
-        <v>32041</v>
+        <v>34123</v>
       </c>
       <c r="AE89" s="7">
-        <v>28067</v>
+        <v>29891</v>
       </c>
       <c r="AF89" s="7">
         <v>199616</v>
@@ -16345,10 +16731,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="9">
-        <v>19110</v>
+        <v>20352</v>
       </c>
       <c r="C90" s="9">
-        <v>27325</v>
+        <v>29101</v>
       </c>
       <c r="D90" s="9">
         <v>39105</v>
@@ -16417,22 +16803,22 @@
         <v>29840</v>
       </c>
       <c r="Z90" s="7">
-        <v>90842</v>
+        <v>96746</v>
       </c>
       <c r="AA90" s="7">
-        <v>56188</v>
+        <v>59840</v>
       </c>
       <c r="AB90" s="7">
-        <v>49556</v>
+        <v>52777</v>
       </c>
       <c r="AC90" s="7">
-        <v>37821</v>
+        <v>40279</v>
       </c>
       <c r="AD90" s="7">
-        <v>32526</v>
+        <v>34640</v>
       </c>
       <c r="AE90" s="7">
-        <v>28492</v>
+        <v>30343</v>
       </c>
       <c r="AF90" s="7">
         <v>204142</v>
@@ -16512,10 +16898,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="9">
-        <v>19321</v>
+        <v>20576</v>
       </c>
       <c r="C91" s="9">
-        <v>27627</v>
+        <v>29422</v>
       </c>
       <c r="D91" s="9">
         <v>40253</v>
@@ -16584,22 +16970,22 @@
         <v>30650</v>
       </c>
       <c r="Z91" s="7">
-        <v>92298</v>
+        <v>98297</v>
       </c>
       <c r="AA91" s="7">
-        <v>57563</v>
+        <v>61304</v>
       </c>
       <c r="AB91" s="7">
-        <v>50901</v>
+        <v>54209</v>
       </c>
       <c r="AC91" s="7">
-        <v>38847</v>
+        <v>41372</v>
       </c>
       <c r="AD91" s="7">
-        <v>33409</v>
+        <v>35580</v>
       </c>
       <c r="AE91" s="7">
-        <v>29266</v>
+        <v>31168</v>
       </c>
       <c r="AF91" s="7">
         <v>208198</v>
@@ -16679,10 +17065,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="9">
-        <v>19528</v>
+        <v>20797</v>
       </c>
       <c r="C92" s="9">
-        <v>27923</v>
+        <v>29737</v>
       </c>
       <c r="D92" s="9">
         <v>41187</v>
@@ -16751,22 +17137,22 @@
         <v>31135</v>
       </c>
       <c r="Z92" s="7">
-        <v>93755</v>
+        <v>99849</v>
       </c>
       <c r="AA92" s="7">
-        <v>58613</v>
+        <v>62422</v>
       </c>
       <c r="AB92" s="7">
-        <v>51658</v>
+        <v>55015</v>
       </c>
       <c r="AC92" s="7">
-        <v>39462</v>
+        <v>42027</v>
       </c>
       <c r="AD92" s="7">
-        <v>33938</v>
+        <v>36143</v>
       </c>
       <c r="AE92" s="7">
-        <v>29728</v>
+        <v>31660</v>
       </c>
       <c r="AF92" s="7">
         <v>211543</v>
@@ -16846,10 +17232,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="9">
-        <v>19732</v>
+        <v>21014</v>
       </c>
       <c r="C93" s="9">
-        <v>28214</v>
+        <v>30047</v>
       </c>
       <c r="D93" s="9">
         <v>41812</v>
@@ -16918,22 +17304,22 @@
         <v>33842</v>
       </c>
       <c r="Z93" s="7">
-        <v>95278</v>
+        <v>101471</v>
       </c>
       <c r="AA93" s="7">
-        <v>59833</v>
+        <v>63722</v>
       </c>
       <c r="AB93" s="7">
-        <v>52606</v>
+        <v>56025</v>
       </c>
       <c r="AC93" s="7">
-        <v>42893</v>
+        <v>45681</v>
       </c>
       <c r="AD93" s="7">
-        <v>36889</v>
+        <v>39286</v>
       </c>
       <c r="AE93" s="7">
-        <v>32314</v>
+        <v>34414</v>
       </c>
       <c r="AF93" s="7">
         <v>214888</v>
@@ -17013,10 +17399,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="9">
-        <v>19891</v>
+        <v>21183</v>
       </c>
       <c r="C94" s="9">
-        <v>28441</v>
+        <v>30289</v>
       </c>
       <c r="D94" s="9">
         <v>42561</v>
@@ -17085,22 +17471,22 @@
         <v>34472</v>
       </c>
       <c r="Z94" s="7">
-        <v>96668</v>
+        <v>102951</v>
       </c>
       <c r="AA94" s="7">
-        <v>61092</v>
+        <v>65062</v>
       </c>
       <c r="AB94" s="7">
-        <v>53296</v>
+        <v>56760</v>
       </c>
       <c r="AC94" s="7">
-        <v>43693</v>
+        <v>46533</v>
       </c>
       <c r="AD94" s="7">
-        <v>37576</v>
+        <v>40018</v>
       </c>
       <c r="AE94" s="7">
-        <v>32915</v>
+        <v>35054</v>
       </c>
       <c r="AF94" s="7">
         <v>218233</v>
@@ -17180,10 +17566,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="9">
-        <v>20049</v>
+        <v>21352</v>
       </c>
       <c r="C95" s="9">
-        <v>28668</v>
+        <v>30531</v>
       </c>
       <c r="D95" s="9">
         <v>42973</v>
@@ -17252,22 +17638,22 @@
         <v>35229</v>
       </c>
       <c r="Z95" s="7">
-        <v>98125</v>
+        <v>104503</v>
       </c>
       <c r="AA95" s="7">
-        <v>62206</v>
+        <v>66249</v>
       </c>
       <c r="AB95" s="7">
-        <v>54159</v>
+        <v>57679</v>
       </c>
       <c r="AC95" s="7">
-        <v>44651</v>
+        <v>47553</v>
       </c>
       <c r="AD95" s="7">
-        <v>38400</v>
+        <v>40896</v>
       </c>
       <c r="AE95" s="7">
-        <v>33637</v>
+        <v>35823</v>
       </c>
       <c r="AF95" s="7">
         <v>221576</v>
@@ -17347,10 +17733,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="9">
-        <v>20204</v>
+        <v>21517</v>
       </c>
       <c r="C96" s="9">
-        <v>28889</v>
+        <v>30766</v>
       </c>
       <c r="D96" s="9">
         <v>43507</v>
@@ -17419,22 +17805,22 @@
         <v>36069</v>
       </c>
       <c r="Z96" s="7">
-        <v>99714</v>
+        <v>106195</v>
       </c>
       <c r="AA96" s="7">
-        <v>63708</v>
+        <v>67849</v>
       </c>
       <c r="AB96" s="7">
-        <v>54786</v>
+        <v>58347</v>
       </c>
       <c r="AC96" s="7">
-        <v>45716</v>
+        <v>48687</v>
       </c>
       <c r="AD96" s="7">
-        <v>39316</v>
+        <v>41871</v>
       </c>
       <c r="AE96" s="7">
-        <v>34440</v>
+        <v>36678</v>
       </c>
       <c r="AF96" s="7">
         <v>224921</v>
@@ -17514,10 +17900,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="9">
-        <v>20316</v>
+        <v>21636</v>
       </c>
       <c r="C97" s="9">
-        <v>29049</v>
+        <v>30937</v>
       </c>
       <c r="D97" s="9">
         <v>44170</v>
@@ -17586,22 +17972,22 @@
         <v>36748</v>
       </c>
       <c r="Z97" s="7">
-        <v>101170</v>
+        <v>107746</v>
       </c>
       <c r="AA97" s="7">
-        <v>64716</v>
+        <v>68922</v>
       </c>
       <c r="AB97" s="7">
-        <v>55343</v>
+        <v>58940</v>
       </c>
       <c r="AC97" s="7">
-        <v>46578</v>
+        <v>49605</v>
       </c>
       <c r="AD97" s="7">
-        <v>40057</v>
+        <v>42660</v>
       </c>
       <c r="AE97" s="7">
-        <v>35088</v>
+        <v>37368</v>
       </c>
       <c r="AF97" s="7">
         <v>228266</v>
@@ -17681,10 +18067,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="9">
-        <v>20418</v>
+        <v>21745</v>
       </c>
       <c r="C98" s="9">
-        <v>29195</v>
+        <v>31092</v>
       </c>
       <c r="D98" s="9">
         <v>44718</v>
@@ -17753,22 +18139,22 @@
         <v>37801</v>
       </c>
       <c r="Z98" s="7">
-        <v>102694</v>
+        <v>109369</v>
       </c>
       <c r="AA98" s="7">
-        <v>65867</v>
+        <v>70148</v>
       </c>
       <c r="AB98" s="7">
-        <v>56444</v>
+        <v>60112</v>
       </c>
       <c r="AC98" s="7">
-        <v>47912</v>
+        <v>51026</v>
       </c>
       <c r="AD98" s="7">
-        <v>41204</v>
+        <v>43882</v>
       </c>
       <c r="AE98" s="7">
-        <v>36094</v>
+        <v>38440</v>
       </c>
       <c r="AF98" s="7">
         <v>231611</v>
@@ -17848,10 +18234,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="9">
-        <v>20522</v>
+        <v>21855</v>
       </c>
       <c r="C99" s="9">
-        <v>29344</v>
+        <v>31251</v>
       </c>
       <c r="D99" s="9">
         <v>45271</v>
@@ -17920,22 +18306,22 @@
         <v>38924</v>
       </c>
       <c r="Z99" s="7">
-        <v>104537</v>
+        <v>111331</v>
       </c>
       <c r="AA99" s="7">
-        <v>66539</v>
+        <v>70864</v>
       </c>
       <c r="AB99" s="7">
-        <v>57152</v>
+        <v>60866</v>
       </c>
       <c r="AC99" s="7">
-        <v>49335</v>
+        <v>52541</v>
       </c>
       <c r="AD99" s="7">
-        <v>42429</v>
+        <v>45186</v>
       </c>
       <c r="AE99" s="7">
-        <v>37166</v>
+        <v>39581</v>
       </c>
       <c r="AF99" s="7">
         <v>234676</v>
@@ -18015,10 +18401,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="9">
-        <v>20593</v>
+        <v>21931</v>
       </c>
       <c r="C100" s="9">
-        <v>29446</v>
+        <v>31359</v>
       </c>
       <c r="D100" s="9">
         <v>45828</v>
@@ -18087,22 +18473,22 @@
         <v>39680</v>
       </c>
       <c r="Z100" s="7">
-        <v>106377</v>
+        <v>113291</v>
       </c>
       <c r="AA100" s="7">
-        <v>67763</v>
+        <v>72167</v>
       </c>
       <c r="AB100" s="7">
-        <v>57780</v>
+        <v>61535</v>
       </c>
       <c r="AC100" s="7">
-        <v>50294</v>
+        <v>53563</v>
       </c>
       <c r="AD100" s="7">
-        <v>43253</v>
+        <v>46064</v>
       </c>
       <c r="AE100" s="7">
-        <v>37888</v>
+        <v>40350</v>
       </c>
       <c r="AF100" s="7">
         <v>238021</v>
@@ -18182,10 +18568,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="9">
-        <v>20664</v>
+        <v>22007</v>
       </c>
       <c r="C101" s="9">
-        <v>29547</v>
+        <v>31467</v>
       </c>
       <c r="D101" s="9">
         <v>46290</v>
@@ -18254,22 +18640,22 @@
         <v>40548</v>
       </c>
       <c r="Z101" s="7">
-        <v>110770</v>
+        <v>117970</v>
       </c>
       <c r="AA101" s="7">
-        <v>68167</v>
+        <v>72597</v>
       </c>
       <c r="AB101" s="7">
-        <v>58558</v>
+        <v>62364</v>
       </c>
       <c r="AC101" s="7">
-        <v>51394</v>
+        <v>54734</v>
       </c>
       <c r="AD101" s="7">
-        <v>44199</v>
+        <v>47071</v>
       </c>
       <c r="AE101" s="7">
-        <v>38717</v>
+        <v>41233</v>
       </c>
       <c r="AF101" s="7">
         <v>241366</v>
@@ -18347,6 +18733,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18354,8 +18741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B896F2-12D2-429B-9B09-4A097A6AF099}">
   <dimension ref="A1:BC101"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BD1" sqref="BD1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -18538,10 +18925,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="9">
-        <v>3708</v>
+        <v>3949</v>
       </c>
       <c r="C2" s="9">
-        <v>4489</v>
+        <v>4780</v>
       </c>
       <c r="D2" s="9">
         <v>6043</v>
@@ -18610,22 +18997,22 @@
         <v>2305</v>
       </c>
       <c r="Z2" s="5">
-        <v>5854</v>
+        <v>6234</v>
       </c>
       <c r="AA2" s="5">
-        <v>3862</v>
+        <v>4113</v>
       </c>
       <c r="AB2" s="5">
-        <v>3431</v>
+        <v>3654</v>
       </c>
       <c r="AC2" s="5">
-        <v>2138</v>
+        <v>2276</v>
       </c>
       <c r="AD2" s="5">
-        <v>1984</v>
+        <v>2112</v>
       </c>
       <c r="AE2" s="5">
-        <v>1765</v>
+        <v>1879</v>
       </c>
       <c r="AF2" s="5">
         <v>14465</v>
@@ -18705,10 +19092,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="9">
-        <v>3708</v>
+        <v>3949</v>
       </c>
       <c r="C3" s="9">
-        <v>4489</v>
+        <v>4780</v>
       </c>
       <c r="D3" s="9">
         <v>6043</v>
@@ -18777,22 +19164,22 @@
         <v>2305</v>
       </c>
       <c r="Z3" s="7">
-        <v>5854</v>
+        <v>6234</v>
       </c>
       <c r="AA3" s="7">
-        <v>3862</v>
+        <v>4113</v>
       </c>
       <c r="AB3" s="7">
-        <v>3431</v>
+        <v>3654</v>
       </c>
       <c r="AC3" s="7">
-        <v>2138</v>
+        <v>2276</v>
       </c>
       <c r="AD3" s="7">
-        <v>1984</v>
+        <v>2112</v>
       </c>
       <c r="AE3" s="7">
-        <v>1765</v>
+        <v>1879</v>
       </c>
       <c r="AF3" s="7">
         <v>14465</v>
@@ -18872,10 +19259,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="9">
-        <v>3708</v>
+        <v>3949</v>
       </c>
       <c r="C4" s="9">
-        <v>4489</v>
+        <v>4780</v>
       </c>
       <c r="D4" s="9">
         <v>6043</v>
@@ -18944,22 +19331,22 @@
         <v>2305</v>
       </c>
       <c r="Z4" s="7">
-        <v>5854</v>
+        <v>6234</v>
       </c>
       <c r="AA4" s="7">
-        <v>3862</v>
+        <v>4113</v>
       </c>
       <c r="AB4" s="7">
-        <v>3431</v>
+        <v>3654</v>
       </c>
       <c r="AC4" s="7">
-        <v>2138</v>
+        <v>2276</v>
       </c>
       <c r="AD4" s="7">
-        <v>1984</v>
+        <v>2112</v>
       </c>
       <c r="AE4" s="7">
-        <v>1765</v>
+        <v>1879</v>
       </c>
       <c r="AF4" s="7">
         <v>14465</v>
@@ -19039,10 +19426,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="9">
-        <v>3708</v>
+        <v>3949</v>
       </c>
       <c r="C5" s="9">
-        <v>4489</v>
+        <v>4780</v>
       </c>
       <c r="D5" s="9">
         <v>6043</v>
@@ -19111,22 +19498,22 @@
         <v>2305</v>
       </c>
       <c r="Z5" s="7">
-        <v>5854</v>
+        <v>6234</v>
       </c>
       <c r="AA5" s="7">
-        <v>3862</v>
+        <v>4113</v>
       </c>
       <c r="AB5" s="7">
-        <v>3431</v>
+        <v>3654</v>
       </c>
       <c r="AC5" s="7">
-        <v>2138</v>
+        <v>2276</v>
       </c>
       <c r="AD5" s="7">
-        <v>1984</v>
+        <v>2112</v>
       </c>
       <c r="AE5" s="7">
-        <v>1765</v>
+        <v>1879</v>
       </c>
       <c r="AF5" s="7">
         <v>14465</v>
@@ -19206,10 +19593,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="9">
-        <v>1652</v>
+        <v>1759</v>
       </c>
       <c r="C6" s="9">
-        <v>2034</v>
+        <v>2166</v>
       </c>
       <c r="D6" s="9">
         <v>2709</v>
@@ -19278,22 +19665,22 @@
         <v>2305</v>
       </c>
       <c r="Z6" s="7">
-        <v>5854</v>
+        <v>6234</v>
       </c>
       <c r="AA6" s="7">
-        <v>3862</v>
+        <v>4113</v>
       </c>
       <c r="AB6" s="7">
-        <v>3431</v>
+        <v>3654</v>
       </c>
       <c r="AC6" s="7">
-        <v>2138</v>
+        <v>2276</v>
       </c>
       <c r="AD6" s="7">
-        <v>1984</v>
+        <v>2112</v>
       </c>
       <c r="AE6" s="7">
-        <v>1765</v>
+        <v>1879</v>
       </c>
       <c r="AF6" s="7">
         <v>14465</v>
@@ -19373,10 +19760,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="9">
-        <v>1652</v>
+        <v>1759</v>
       </c>
       <c r="C7" s="9">
-        <v>2034</v>
+        <v>2166</v>
       </c>
       <c r="D7" s="9">
         <v>2709</v>
@@ -19445,22 +19832,22 @@
         <v>2065</v>
       </c>
       <c r="Z7" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA7" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB7" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC7" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD7" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE7" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF7" s="7">
         <v>14465</v>
@@ -19540,10 +19927,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="9">
-        <v>1652</v>
+        <v>1759</v>
       </c>
       <c r="C8" s="9">
-        <v>2034</v>
+        <v>2166</v>
       </c>
       <c r="D8" s="9">
         <v>2709</v>
@@ -19612,22 +19999,22 @@
         <v>2065</v>
       </c>
       <c r="Z8" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA8" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB8" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC8" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD8" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE8" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF8" s="7">
         <v>14465</v>
@@ -19707,10 +20094,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="9">
-        <v>1652</v>
+        <v>1759</v>
       </c>
       <c r="C9" s="9">
-        <v>2034</v>
+        <v>2166</v>
       </c>
       <c r="D9" s="9">
         <v>2709</v>
@@ -19779,22 +20166,22 @@
         <v>2065</v>
       </c>
       <c r="Z9" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA9" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB9" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC9" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD9" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE9" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF9" s="7">
         <v>14465</v>
@@ -19874,10 +20261,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="9">
-        <v>1652</v>
+        <v>1759</v>
       </c>
       <c r="C10" s="9">
-        <v>2034</v>
+        <v>2166</v>
       </c>
       <c r="D10" s="9">
         <v>2709</v>
@@ -19946,22 +20333,22 @@
         <v>2065</v>
       </c>
       <c r="Z10" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA10" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB10" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC10" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD10" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE10" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF10" s="7">
         <v>14465</v>
@@ -20041,10 +20428,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="9">
-        <v>1652</v>
+        <v>1759</v>
       </c>
       <c r="C11" s="9">
-        <v>2034</v>
+        <v>2166</v>
       </c>
       <c r="D11" s="9">
         <v>2709</v>
@@ -20113,22 +20500,22 @@
         <v>2065</v>
       </c>
       <c r="Z11" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA11" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB11" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC11" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD11" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE11" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF11" s="7">
         <v>14465</v>
@@ -20208,10 +20595,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="9">
-        <v>1652</v>
+        <v>1759</v>
       </c>
       <c r="C12" s="9">
-        <v>2034</v>
+        <v>2166</v>
       </c>
       <c r="D12" s="9">
         <v>2709</v>
@@ -20280,22 +20667,22 @@
         <v>2065</v>
       </c>
       <c r="Z12" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA12" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB12" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC12" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD12" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE12" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF12" s="7">
         <v>14465</v>
@@ -20375,10 +20762,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="9">
-        <v>1652</v>
+        <v>1759</v>
       </c>
       <c r="C13" s="9">
-        <v>2034</v>
+        <v>2166</v>
       </c>
       <c r="D13" s="9">
         <v>2709</v>
@@ -20447,22 +20834,22 @@
         <v>2065</v>
       </c>
       <c r="Z13" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA13" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB13" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC13" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD13" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE13" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF13" s="7">
         <v>14465</v>
@@ -20542,10 +20929,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="9">
-        <v>1652</v>
+        <v>1759</v>
       </c>
       <c r="C14" s="9">
-        <v>2034</v>
+        <v>2166</v>
       </c>
       <c r="D14" s="9">
         <v>2709</v>
@@ -20614,22 +21001,22 @@
         <v>2065</v>
       </c>
       <c r="Z14" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA14" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB14" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC14" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD14" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE14" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF14" s="7">
         <v>14465</v>
@@ -20709,10 +21096,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="9">
-        <v>1652</v>
+        <v>1759</v>
       </c>
       <c r="C15" s="9">
-        <v>2034</v>
+        <v>2166</v>
       </c>
       <c r="D15" s="9">
         <v>2709</v>
@@ -20781,22 +21168,22 @@
         <v>2065</v>
       </c>
       <c r="Z15" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA15" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB15" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC15" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD15" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE15" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF15" s="7">
         <v>14465</v>
@@ -20876,10 +21263,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="9">
-        <v>1652</v>
+        <v>1759</v>
       </c>
       <c r="C16" s="9">
-        <v>2034</v>
+        <v>2166</v>
       </c>
       <c r="D16" s="9">
         <v>2709</v>
@@ -20948,22 +21335,22 @@
         <v>2065</v>
       </c>
       <c r="Z16" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA16" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB16" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC16" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD16" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE16" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF16" s="7">
         <v>14465</v>
@@ -21043,10 +21430,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="9">
-        <v>1680</v>
+        <v>1789</v>
       </c>
       <c r="C17" s="9">
-        <v>2070</v>
+        <v>2204</v>
       </c>
       <c r="D17" s="9">
         <v>2785</v>
@@ -21115,22 +21502,22 @@
         <v>2065</v>
       </c>
       <c r="Z17" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA17" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB17" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC17" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD17" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE17" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF17" s="7">
         <v>14499</v>
@@ -21210,10 +21597,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="9">
-        <v>1712</v>
+        <v>1823</v>
       </c>
       <c r="C18" s="9">
-        <v>2109</v>
+        <v>2246</v>
       </c>
       <c r="D18" s="9">
         <v>2929</v>
@@ -21282,22 +21669,22 @@
         <v>2065</v>
       </c>
       <c r="Z18" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA18" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB18" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC18" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD18" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE18" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF18" s="7">
         <v>14533</v>
@@ -21377,10 +21764,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="9">
-        <v>1733</v>
+        <v>1845</v>
       </c>
       <c r="C19" s="9">
-        <v>2134</v>
+        <v>2272</v>
       </c>
       <c r="D19" s="9">
         <v>2956</v>
@@ -21449,22 +21836,22 @@
         <v>2065</v>
       </c>
       <c r="Z19" s="7">
-        <v>5376</v>
+        <v>5725</v>
       </c>
       <c r="AA19" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AB19" s="7">
-        <v>2847</v>
+        <v>3032</v>
       </c>
       <c r="AC19" s="7">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="AD19" s="7">
-        <v>1688</v>
+        <v>1797</v>
       </c>
       <c r="AE19" s="7">
-        <v>1501</v>
+        <v>1598</v>
       </c>
       <c r="AF19" s="7">
         <v>14566</v>
@@ -21544,10 +21931,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="9">
-        <v>1746</v>
+        <v>1859</v>
       </c>
       <c r="C20" s="9">
-        <v>2151</v>
+        <v>2290</v>
       </c>
       <c r="D20" s="9">
         <v>2971</v>
@@ -21616,22 +22003,22 @@
         <v>2080</v>
       </c>
       <c r="Z20" s="7">
-        <v>5525</v>
+        <v>5884</v>
       </c>
       <c r="AA20" s="7">
-        <v>3332</v>
+        <v>3548</v>
       </c>
       <c r="AB20" s="7">
-        <v>2889</v>
+        <v>3076</v>
       </c>
       <c r="AC20" s="7">
-        <v>1960</v>
+        <v>2087</v>
       </c>
       <c r="AD20" s="7">
-        <v>1706</v>
+        <v>1816</v>
       </c>
       <c r="AE20" s="7">
-        <v>1518</v>
+        <v>1616</v>
       </c>
       <c r="AF20" s="7">
         <v>14588</v>
@@ -21711,10 +22098,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="9">
-        <v>1757</v>
+        <v>1871</v>
       </c>
       <c r="C21" s="9">
-        <v>2148</v>
+        <v>2287</v>
       </c>
       <c r="D21" s="9">
         <v>2991</v>
@@ -21783,22 +22170,22 @@
         <v>2118</v>
       </c>
       <c r="Z21" s="7">
-        <v>5570</v>
+        <v>5932</v>
       </c>
       <c r="AA21" s="7">
-        <v>3431</v>
+        <v>3654</v>
       </c>
       <c r="AB21" s="7">
-        <v>2928</v>
+        <v>3118</v>
       </c>
       <c r="AC21" s="7">
-        <v>2002</v>
+        <v>2132</v>
       </c>
       <c r="AD21" s="7">
-        <v>1742</v>
+        <v>1855</v>
       </c>
       <c r="AE21" s="7">
-        <v>1550</v>
+        <v>1650</v>
       </c>
       <c r="AF21" s="7">
         <v>14610</v>
@@ -21878,10 +22265,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="9">
-        <v>1779</v>
+        <v>1894</v>
       </c>
       <c r="C22" s="9">
-        <v>2176</v>
+        <v>2317</v>
       </c>
       <c r="D22" s="9">
         <v>3037</v>
@@ -21950,22 +22337,22 @@
         <v>2159</v>
       </c>
       <c r="Z22" s="7">
-        <v>5701</v>
+        <v>6071</v>
       </c>
       <c r="AA22" s="7">
-        <v>3458</v>
+        <v>3682</v>
       </c>
       <c r="AB22" s="7">
-        <v>2967</v>
+        <v>3159</v>
       </c>
       <c r="AC22" s="7">
-        <v>2062</v>
+        <v>2196</v>
       </c>
       <c r="AD22" s="7">
-        <v>1784</v>
+        <v>1899</v>
       </c>
       <c r="AE22" s="7">
-        <v>1586</v>
+        <v>1689</v>
       </c>
       <c r="AF22" s="7">
         <v>14632</v>
@@ -22045,10 +22432,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="9">
-        <v>1809</v>
+        <v>1926</v>
       </c>
       <c r="C23" s="9">
-        <v>2213</v>
+        <v>2356</v>
       </c>
       <c r="D23" s="9">
         <v>3051</v>
@@ -22117,22 +22504,22 @@
         <v>2209</v>
       </c>
       <c r="Z23" s="7">
-        <v>5798</v>
+        <v>6174</v>
       </c>
       <c r="AA23" s="7">
-        <v>3515</v>
+        <v>3743</v>
       </c>
       <c r="AB23" s="7">
-        <v>2969</v>
+        <v>3161</v>
       </c>
       <c r="AC23" s="7">
-        <v>2090</v>
+        <v>2225</v>
       </c>
       <c r="AD23" s="7">
-        <v>1808</v>
+        <v>1925</v>
       </c>
       <c r="AE23" s="7">
-        <v>1607</v>
+        <v>1711</v>
       </c>
       <c r="AF23" s="7">
         <v>14654</v>
@@ -22212,10 +22599,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="9">
-        <v>1852</v>
+        <v>1972</v>
       </c>
       <c r="C24" s="9">
-        <v>2266</v>
+        <v>2413</v>
       </c>
       <c r="D24" s="9">
         <v>3115</v>
@@ -22284,22 +22671,22 @@
         <v>2272</v>
       </c>
       <c r="Z24" s="7">
-        <v>5885</v>
+        <v>6267</v>
       </c>
       <c r="AA24" s="7">
-        <v>3740</v>
+        <v>3983</v>
       </c>
       <c r="AB24" s="7">
-        <v>3149</v>
+        <v>3353</v>
       </c>
       <c r="AC24" s="7">
-        <v>2131</v>
+        <v>2269</v>
       </c>
       <c r="AD24" s="7">
-        <v>1843</v>
+        <v>1962</v>
       </c>
       <c r="AE24" s="7">
-        <v>1638</v>
+        <v>1744</v>
       </c>
       <c r="AF24" s="7">
         <v>14676</v>
@@ -22379,10 +22766,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="9">
-        <v>1895</v>
+        <v>2018</v>
       </c>
       <c r="C25" s="9">
-        <v>2317</v>
+        <v>2467</v>
       </c>
       <c r="D25" s="9">
         <v>3181</v>
@@ -22451,22 +22838,22 @@
         <v>2328</v>
       </c>
       <c r="Z25" s="7">
-        <v>5923</v>
+        <v>6307</v>
       </c>
       <c r="AA25" s="7">
-        <v>3752</v>
+        <v>3995</v>
       </c>
       <c r="AB25" s="7">
-        <v>3262</v>
+        <v>3474</v>
       </c>
       <c r="AC25" s="7">
-        <v>2162</v>
+        <v>2302</v>
       </c>
       <c r="AD25" s="7">
-        <v>1870</v>
+        <v>1991</v>
       </c>
       <c r="AE25" s="7">
-        <v>1663</v>
+        <v>1771</v>
       </c>
       <c r="AF25" s="7">
         <v>14698</v>
@@ -22546,10 +22933,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="9">
-        <v>1943</v>
+        <v>2069</v>
       </c>
       <c r="C26" s="9">
-        <v>2357</v>
+        <v>2510</v>
       </c>
       <c r="D26" s="9">
         <v>3289</v>
@@ -22618,22 +23005,22 @@
         <v>2366</v>
       </c>
       <c r="Z26" s="7">
-        <v>5928</v>
+        <v>6313</v>
       </c>
       <c r="AA26" s="7">
-        <v>4058</v>
+        <v>4321</v>
       </c>
       <c r="AB26" s="7">
-        <v>3377</v>
+        <v>3596</v>
       </c>
       <c r="AC26" s="7">
-        <v>2192</v>
+        <v>2334</v>
       </c>
       <c r="AD26" s="7">
-        <v>1885</v>
+        <v>2007</v>
       </c>
       <c r="AE26" s="7">
-        <v>1674</v>
+        <v>1782</v>
       </c>
       <c r="AF26" s="7">
         <v>14720</v>
@@ -22713,10 +23100,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="9">
-        <v>1986</v>
+        <v>2115</v>
       </c>
       <c r="C27" s="9">
-        <v>2409</v>
+        <v>2565</v>
       </c>
       <c r="D27" s="9">
         <v>3380</v>
@@ -22785,22 +23172,22 @@
         <v>2418</v>
       </c>
       <c r="Z27" s="7">
-        <v>6162</v>
+        <v>6562</v>
       </c>
       <c r="AA27" s="7">
-        <v>4085</v>
+        <v>4350</v>
       </c>
       <c r="AB27" s="7">
-        <v>3486</v>
+        <v>3712</v>
       </c>
       <c r="AC27" s="7">
-        <v>2220</v>
+        <v>2364</v>
       </c>
       <c r="AD27" s="7">
-        <v>1910</v>
+        <v>2034</v>
       </c>
       <c r="AE27" s="7">
-        <v>1697</v>
+        <v>1807</v>
       </c>
       <c r="AF27" s="7">
         <v>14742</v>
@@ -22880,10 +23267,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="9">
-        <v>2036</v>
+        <v>2168</v>
       </c>
       <c r="C28" s="9">
-        <v>2469</v>
+        <v>2629</v>
       </c>
       <c r="D28" s="9">
         <v>3465</v>
@@ -22952,22 +23339,22 @@
         <v>2469</v>
       </c>
       <c r="Z28" s="7">
-        <v>6531</v>
+        <v>6955</v>
       </c>
       <c r="AA28" s="7">
-        <v>4099</v>
+        <v>4365</v>
       </c>
       <c r="AB28" s="7">
-        <v>3585</v>
+        <v>3818</v>
       </c>
       <c r="AC28" s="7">
-        <v>2278</v>
+        <v>2426</v>
       </c>
       <c r="AD28" s="7">
-        <v>1959</v>
+        <v>2086</v>
       </c>
       <c r="AE28" s="7">
-        <v>1740</v>
+        <v>1853</v>
       </c>
       <c r="AF28" s="7">
         <v>15401</v>
@@ -23047,10 +23434,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="9">
-        <v>2083</v>
+        <v>2218</v>
       </c>
       <c r="C29" s="9">
-        <v>2527</v>
+        <v>2691</v>
       </c>
       <c r="D29" s="9">
         <v>3585</v>
@@ -23119,22 +23506,22 @@
         <v>2520</v>
       </c>
       <c r="Z29" s="7">
-        <v>6899</v>
+        <v>7347</v>
       </c>
       <c r="AA29" s="7">
-        <v>4409</v>
+        <v>4695</v>
       </c>
       <c r="AB29" s="7">
-        <v>3673</v>
+        <v>3911</v>
       </c>
       <c r="AC29" s="7">
-        <v>2335</v>
+        <v>2486</v>
       </c>
       <c r="AD29" s="7">
-        <v>2008</v>
+        <v>2138</v>
       </c>
       <c r="AE29" s="7">
-        <v>1784</v>
+        <v>1899</v>
       </c>
       <c r="AF29" s="7">
         <v>15459</v>
@@ -23214,10 +23601,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="9">
-        <v>2129</v>
+        <v>2267</v>
       </c>
       <c r="C30" s="9">
-        <v>2582</v>
+        <v>2749</v>
       </c>
       <c r="D30" s="9">
         <v>3672</v>
@@ -23286,22 +23673,22 @@
         <v>2520</v>
       </c>
       <c r="Z30" s="7">
-        <v>7185</v>
+        <v>7652</v>
       </c>
       <c r="AA30" s="7">
-        <v>4516</v>
+        <v>4809</v>
       </c>
       <c r="AB30" s="7">
-        <v>3748</v>
+        <v>3991</v>
       </c>
       <c r="AC30" s="7">
-        <v>2345</v>
+        <v>2497</v>
       </c>
       <c r="AD30" s="7">
-        <v>2016</v>
+        <v>2147</v>
       </c>
       <c r="AE30" s="7">
-        <v>1791</v>
+        <v>1907</v>
       </c>
       <c r="AF30" s="7">
         <v>15524</v>
@@ -23381,10 +23768,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="9">
-        <v>2179</v>
+        <v>2320</v>
       </c>
       <c r="C31" s="9">
-        <v>2643</v>
+        <v>2814</v>
       </c>
       <c r="D31" s="9">
         <v>3799</v>
@@ -23453,22 +23840,22 @@
         <v>2536</v>
       </c>
       <c r="Z31" s="7">
-        <v>7383</v>
+        <v>7862</v>
       </c>
       <c r="AA31" s="7">
-        <v>4624</v>
+        <v>4924</v>
       </c>
       <c r="AB31" s="7">
-        <v>3828</v>
+        <v>4076</v>
       </c>
       <c r="AC31" s="7">
-        <v>2372</v>
+        <v>2526</v>
       </c>
       <c r="AD31" s="7">
-        <v>2039</v>
+        <v>2171</v>
       </c>
       <c r="AE31" s="7">
-        <v>1812</v>
+        <v>1929</v>
       </c>
       <c r="AF31" s="7">
         <v>15657</v>
@@ -23548,10 +23935,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="9">
-        <v>2235</v>
+        <v>2380</v>
       </c>
       <c r="C32" s="9">
-        <v>2711</v>
+        <v>2887</v>
       </c>
       <c r="D32" s="9">
         <v>3887</v>
@@ -23620,22 +24007,22 @@
         <v>2649</v>
       </c>
       <c r="Z32" s="7">
-        <v>7531</v>
+        <v>8020</v>
       </c>
       <c r="AA32" s="7">
-        <v>4731</v>
+        <v>5038</v>
       </c>
       <c r="AB32" s="7">
-        <v>3908</v>
+        <v>4162</v>
       </c>
       <c r="AC32" s="7">
-        <v>2507</v>
+        <v>2669</v>
       </c>
       <c r="AD32" s="7">
-        <v>2156</v>
+        <v>2296</v>
       </c>
       <c r="AE32" s="7">
-        <v>1909</v>
+        <v>2033</v>
       </c>
       <c r="AF32" s="7">
         <v>16551</v>
@@ -23715,10 +24102,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="9">
-        <v>2291</v>
+        <v>2439</v>
       </c>
       <c r="C33" s="9">
-        <v>2778</v>
+        <v>2958</v>
       </c>
       <c r="D33" s="9">
         <v>3982</v>
@@ -23787,22 +24174,22 @@
         <v>2649</v>
       </c>
       <c r="Z33" s="7">
-        <v>7742</v>
+        <v>8245</v>
       </c>
       <c r="AA33" s="7">
-        <v>4838</v>
+        <v>5152</v>
       </c>
       <c r="AB33" s="7">
-        <v>4022</v>
+        <v>4283</v>
       </c>
       <c r="AC33" s="7">
-        <v>2511</v>
+        <v>2674</v>
       </c>
       <c r="AD33" s="7">
-        <v>2159</v>
+        <v>2299</v>
       </c>
       <c r="AE33" s="7">
-        <v>1912</v>
+        <v>2036</v>
       </c>
       <c r="AF33" s="7">
         <v>16802</v>
@@ -23882,10 +24269,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="9">
-        <v>2347</v>
+        <v>2499</v>
       </c>
       <c r="C34" s="9">
-        <v>2846</v>
+        <v>3030</v>
       </c>
       <c r="D34" s="9">
         <v>4072</v>
@@ -23954,22 +24341,22 @@
         <v>2658</v>
       </c>
       <c r="Z34" s="7">
-        <v>7848</v>
+        <v>8358</v>
       </c>
       <c r="AA34" s="7">
-        <v>4945</v>
+        <v>5266</v>
       </c>
       <c r="AB34" s="7">
-        <v>4138</v>
+        <v>4406</v>
       </c>
       <c r="AC34" s="7">
-        <v>2538</v>
+        <v>2702</v>
       </c>
       <c r="AD34" s="7">
-        <v>2183</v>
+        <v>2324</v>
       </c>
       <c r="AE34" s="7">
-        <v>1932</v>
+        <v>2057</v>
       </c>
       <c r="AF34" s="7">
         <v>17222</v>
@@ -24049,10 +24436,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="9">
-        <v>2404</v>
+        <v>2560</v>
       </c>
       <c r="C35" s="9">
-        <v>2915</v>
+        <v>3104</v>
       </c>
       <c r="D35" s="9">
         <v>4199</v>
@@ -24121,22 +24508,22 @@
         <v>2677</v>
       </c>
       <c r="Z35" s="7">
-        <v>8058</v>
+        <v>8581</v>
       </c>
       <c r="AA35" s="7">
-        <v>5018</v>
+        <v>5344</v>
       </c>
       <c r="AB35" s="7">
-        <v>4273</v>
+        <v>4550</v>
       </c>
       <c r="AC35" s="7">
-        <v>2568</v>
+        <v>2734</v>
       </c>
       <c r="AD35" s="7">
-        <v>2209</v>
+        <v>2352</v>
       </c>
       <c r="AE35" s="7">
-        <v>1955</v>
+        <v>2082</v>
       </c>
       <c r="AF35" s="7">
         <v>17513</v>
@@ -24216,10 +24603,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="9">
-        <v>2460</v>
+        <v>2619</v>
       </c>
       <c r="C36" s="9">
-        <v>3004</v>
+        <v>3199</v>
       </c>
       <c r="D36" s="9">
         <v>4358</v>
@@ -24288,22 +24675,22 @@
         <v>2677</v>
       </c>
       <c r="Z36" s="7">
-        <v>8254</v>
+        <v>8790</v>
       </c>
       <c r="AA36" s="7">
-        <v>5160</v>
+        <v>5495</v>
       </c>
       <c r="AB36" s="7">
-        <v>4427</v>
+        <v>4714</v>
       </c>
       <c r="AC36" s="7">
-        <v>2568</v>
+        <v>2734</v>
       </c>
       <c r="AD36" s="7">
-        <v>2209</v>
+        <v>2352</v>
       </c>
       <c r="AE36" s="7">
-        <v>1955</v>
+        <v>2082</v>
       </c>
       <c r="AF36" s="7">
         <v>17759</v>
@@ -24383,10 +24770,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="10">
-        <v>2522</v>
+        <v>2685</v>
       </c>
       <c r="C37" s="10">
-        <v>3079</v>
+        <v>3279</v>
       </c>
       <c r="D37" s="10">
         <v>4473</v>
@@ -24455,22 +24842,22 @@
         <v>2724</v>
       </c>
       <c r="Z37" s="5">
-        <v>8532</v>
+        <v>9086</v>
       </c>
       <c r="AA37" s="5">
-        <v>5230</v>
+        <v>5569</v>
       </c>
       <c r="AB37" s="5">
-        <v>4594</v>
+        <v>4892</v>
       </c>
       <c r="AC37" s="5">
-        <v>2649</v>
+        <v>2821</v>
       </c>
       <c r="AD37" s="5">
-        <v>2279</v>
+        <v>2427</v>
       </c>
       <c r="AE37" s="5">
-        <v>2010</v>
+        <v>2140</v>
       </c>
       <c r="AF37" s="5">
         <v>18103</v>
@@ -24550,10 +24937,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="9">
-        <v>2585</v>
+        <v>2753</v>
       </c>
       <c r="C38" s="9">
-        <v>3157</v>
+        <v>3362</v>
       </c>
       <c r="D38" s="9">
         <v>4546</v>
@@ -24622,22 +25009,22 @@
         <v>2804</v>
       </c>
       <c r="Z38" s="7">
-        <v>8532</v>
+        <v>9086</v>
       </c>
       <c r="AA38" s="7">
-        <v>5513</v>
+        <v>5871</v>
       </c>
       <c r="AB38" s="7">
-        <v>4736</v>
+        <v>5043</v>
       </c>
       <c r="AC38" s="7">
-        <v>2731</v>
+        <v>2908</v>
       </c>
       <c r="AD38" s="7">
-        <v>2348</v>
+        <v>2500</v>
       </c>
       <c r="AE38" s="7">
-        <v>2071</v>
+        <v>2205</v>
       </c>
       <c r="AF38" s="7">
         <v>18376</v>
@@ -24717,10 +25104,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="9">
-        <v>2651</v>
+        <v>2823</v>
       </c>
       <c r="C39" s="9">
-        <v>3237</v>
+        <v>3447</v>
       </c>
       <c r="D39" s="9">
         <v>4692</v>
@@ -24789,22 +25176,22 @@
         <v>2804</v>
       </c>
       <c r="Z39" s="7">
-        <v>8691</v>
+        <v>9255</v>
       </c>
       <c r="AA39" s="7">
-        <v>5513</v>
+        <v>5871</v>
       </c>
       <c r="AB39" s="7">
-        <v>4736</v>
+        <v>5043</v>
       </c>
       <c r="AC39" s="7">
-        <v>2731</v>
+        <v>2908</v>
       </c>
       <c r="AD39" s="7">
-        <v>2348</v>
+        <v>2500</v>
       </c>
       <c r="AE39" s="7">
-        <v>2071</v>
+        <v>2205</v>
       </c>
       <c r="AF39" s="7">
         <v>18922</v>
@@ -24884,10 +25271,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="9">
-        <v>2733</v>
+        <v>2910</v>
       </c>
       <c r="C40" s="9">
-        <v>3337</v>
+        <v>3553</v>
       </c>
       <c r="D40" s="9">
         <v>4835</v>
@@ -24956,22 +25343,22 @@
         <v>2838</v>
       </c>
       <c r="Z40" s="7">
-        <v>8901</v>
+        <v>9479</v>
       </c>
       <c r="AA40" s="7">
-        <v>5654</v>
+        <v>6021</v>
       </c>
       <c r="AB40" s="7">
-        <v>4806</v>
+        <v>5118</v>
       </c>
       <c r="AC40" s="7">
-        <v>2772</v>
+        <v>2952</v>
       </c>
       <c r="AD40" s="7">
-        <v>2384</v>
+        <v>2538</v>
       </c>
       <c r="AE40" s="7">
-        <v>2103</v>
+        <v>2239</v>
       </c>
       <c r="AF40" s="7">
         <v>19516</v>
@@ -25051,10 +25438,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="9">
-        <v>2837</v>
+        <v>3021</v>
       </c>
       <c r="C41" s="9">
-        <v>3464</v>
+        <v>3689</v>
       </c>
       <c r="D41" s="9">
         <v>4908</v>
@@ -25123,22 +25510,22 @@
         <v>2849</v>
       </c>
       <c r="Z41" s="7">
-        <v>8954</v>
+        <v>9536</v>
       </c>
       <c r="AA41" s="7">
-        <v>5654</v>
+        <v>6021</v>
       </c>
       <c r="AB41" s="7">
-        <v>4806</v>
+        <v>5118</v>
       </c>
       <c r="AC41" s="7">
-        <v>2788</v>
+        <v>2969</v>
       </c>
       <c r="AD41" s="7">
-        <v>2398</v>
+        <v>2553</v>
       </c>
       <c r="AE41" s="7">
-        <v>2115</v>
+        <v>2252</v>
       </c>
       <c r="AF41" s="7">
         <v>20014</v>
@@ -25218,10 +25605,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="9">
-        <v>2949</v>
+        <v>3140</v>
       </c>
       <c r="C42" s="9">
-        <v>3642</v>
+        <v>3878</v>
       </c>
       <c r="D42" s="9">
         <v>5107</v>
@@ -25290,22 +25677,22 @@
         <v>3040</v>
       </c>
       <c r="Z42" s="7">
-        <v>9059</v>
+        <v>9647</v>
       </c>
       <c r="AA42" s="7">
-        <v>5725</v>
+        <v>6097</v>
       </c>
       <c r="AB42" s="7">
-        <v>4948</v>
+        <v>5269</v>
       </c>
       <c r="AC42" s="7">
-        <v>2978</v>
+        <v>3171</v>
       </c>
       <c r="AD42" s="7">
-        <v>2561</v>
+        <v>2727</v>
       </c>
       <c r="AE42" s="7">
-        <v>2260</v>
+        <v>2406</v>
       </c>
       <c r="AF42" s="7">
         <v>20644</v>
@@ -25385,10 +25772,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="9">
-        <v>3071</v>
+        <v>3270</v>
       </c>
       <c r="C43" s="9">
-        <v>3792</v>
+        <v>4038</v>
       </c>
       <c r="D43" s="9">
         <v>5232</v>
@@ -25457,22 +25844,22 @@
         <v>3251</v>
       </c>
       <c r="Z43" s="7">
-        <v>9217</v>
+        <v>9816</v>
       </c>
       <c r="AA43" s="7">
-        <v>6078</v>
+        <v>6473</v>
       </c>
       <c r="AB43" s="7">
-        <v>5160</v>
+        <v>5495</v>
       </c>
       <c r="AC43" s="7">
-        <v>3191</v>
+        <v>3398</v>
       </c>
       <c r="AD43" s="7">
-        <v>2744</v>
+        <v>2922</v>
       </c>
       <c r="AE43" s="7">
-        <v>2421</v>
+        <v>2578</v>
       </c>
       <c r="AF43" s="7">
         <v>21915</v>
@@ -25552,10 +25939,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="9">
-        <v>3190</v>
+        <v>3397</v>
       </c>
       <c r="C44" s="9">
-        <v>3939</v>
+        <v>4195</v>
       </c>
       <c r="D44" s="9">
         <v>5466</v>
@@ -25624,22 +26011,22 @@
         <v>3365</v>
       </c>
       <c r="Z44" s="7">
-        <v>9428</v>
+        <v>10040</v>
       </c>
       <c r="AA44" s="7">
-        <v>6220</v>
+        <v>6624</v>
       </c>
       <c r="AB44" s="7">
-        <v>5336</v>
+        <v>5682</v>
       </c>
       <c r="AC44" s="7">
-        <v>3307</v>
+        <v>3521</v>
       </c>
       <c r="AD44" s="7">
-        <v>2844</v>
+        <v>3028</v>
       </c>
       <c r="AE44" s="7">
-        <v>2509</v>
+        <v>2672</v>
       </c>
       <c r="AF44" s="7">
         <v>22662</v>
@@ -25719,10 +26106,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="9">
-        <v>3316</v>
+        <v>3531</v>
       </c>
       <c r="C45" s="9">
-        <v>4094</v>
+        <v>4360</v>
       </c>
       <c r="D45" s="9">
         <v>5728</v>
@@ -25791,22 +26178,22 @@
         <v>3552</v>
       </c>
       <c r="Z45" s="7">
-        <v>9849</v>
+        <v>10489</v>
       </c>
       <c r="AA45" s="7">
-        <v>6503</v>
+        <v>6925</v>
       </c>
       <c r="AB45" s="7">
-        <v>5640</v>
+        <v>6006</v>
       </c>
       <c r="AC45" s="7">
-        <v>3496</v>
+        <v>3723</v>
       </c>
       <c r="AD45" s="7">
-        <v>3006</v>
+        <v>3201</v>
       </c>
       <c r="AE45" s="7">
-        <v>2652</v>
+        <v>2824</v>
       </c>
       <c r="AF45" s="7">
         <v>23597</v>
@@ -25886,10 +26273,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="9">
-        <v>3448</v>
+        <v>3672</v>
       </c>
       <c r="C46" s="9">
-        <v>4258</v>
+        <v>4534</v>
       </c>
       <c r="D46" s="9">
         <v>6022</v>
@@ -25958,22 +26345,22 @@
         <v>3609</v>
       </c>
       <c r="Z46" s="7">
-        <v>10429</v>
+        <v>11106</v>
       </c>
       <c r="AA46" s="7">
-        <v>6715</v>
+        <v>7151</v>
       </c>
       <c r="AB46" s="7">
-        <v>5654</v>
+        <v>6021</v>
       </c>
       <c r="AC46" s="7">
-        <v>3557</v>
+        <v>3788</v>
       </c>
       <c r="AD46" s="7">
-        <v>3059</v>
+        <v>3257</v>
       </c>
       <c r="AE46" s="7">
-        <v>2699</v>
+        <v>2874</v>
       </c>
       <c r="AF46" s="7">
         <v>25027</v>
@@ -26053,10 +26440,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="9">
-        <v>3589</v>
+        <v>3822</v>
       </c>
       <c r="C47" s="9">
-        <v>4465</v>
+        <v>4755</v>
       </c>
       <c r="D47" s="9">
         <v>6318</v>
@@ -26125,22 +26512,22 @@
         <v>3886</v>
       </c>
       <c r="Z47" s="7">
-        <v>10955</v>
+        <v>11667</v>
       </c>
       <c r="AA47" s="7">
-        <v>7068</v>
+        <v>7527</v>
       </c>
       <c r="AB47" s="7">
-        <v>6278</v>
+        <v>6686</v>
       </c>
       <c r="AC47" s="7">
-        <v>3891</v>
+        <v>4143</v>
       </c>
       <c r="AD47" s="7">
-        <v>3347</v>
+        <v>3564</v>
       </c>
       <c r="AE47" s="7">
-        <v>2932</v>
+        <v>3122</v>
       </c>
       <c r="AF47" s="7">
         <v>26592</v>
@@ -26220,10 +26607,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="9">
-        <v>3753</v>
+        <v>3996</v>
       </c>
       <c r="C48" s="9">
-        <v>4669</v>
+        <v>4972</v>
       </c>
       <c r="D48" s="9">
         <v>6609</v>
@@ -26292,22 +26679,22 @@
         <v>4076</v>
       </c>
       <c r="Z48" s="7">
-        <v>11587</v>
+        <v>12340</v>
       </c>
       <c r="AA48" s="7">
-        <v>7421</v>
+        <v>7903</v>
       </c>
       <c r="AB48" s="7">
-        <v>6588</v>
+        <v>7016</v>
       </c>
       <c r="AC48" s="7">
-        <v>4083</v>
+        <v>4348</v>
       </c>
       <c r="AD48" s="7">
-        <v>3512</v>
+        <v>3740</v>
       </c>
       <c r="AE48" s="7">
-        <v>3076</v>
+        <v>3275</v>
       </c>
       <c r="AF48" s="7">
         <v>28697</v>
@@ -26387,10 +26774,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="9">
-        <v>3936</v>
+        <v>4191</v>
       </c>
       <c r="C49" s="9">
-        <v>4897</v>
+        <v>5215</v>
       </c>
       <c r="D49" s="9">
         <v>6895</v>
@@ -26459,22 +26846,22 @@
         <v>4366</v>
       </c>
       <c r="Z49" s="7">
-        <v>11955</v>
+        <v>12732</v>
       </c>
       <c r="AA49" s="7">
-        <v>7845</v>
+        <v>8354</v>
       </c>
       <c r="AB49" s="7">
-        <v>7060</v>
+        <v>7518</v>
       </c>
       <c r="AC49" s="7">
-        <v>4375</v>
+        <v>4659</v>
       </c>
       <c r="AD49" s="7">
-        <v>3762</v>
+        <v>4006</v>
       </c>
       <c r="AE49" s="7">
-        <v>3296</v>
+        <v>3510</v>
       </c>
       <c r="AF49" s="7">
         <v>29832</v>
@@ -26554,10 +26941,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="9">
-        <v>4127</v>
+        <v>4395</v>
       </c>
       <c r="C50" s="9">
-        <v>5134</v>
+        <v>5467</v>
       </c>
       <c r="D50" s="9">
         <v>7231</v>
@@ -26626,22 +27013,22 @@
         <v>4549</v>
       </c>
       <c r="Z50" s="7">
-        <v>12430</v>
+        <v>13237</v>
       </c>
       <c r="AA50" s="7">
-        <v>8260</v>
+        <v>8796</v>
       </c>
       <c r="AB50" s="7">
-        <v>7360</v>
+        <v>7838</v>
       </c>
       <c r="AC50" s="7">
-        <v>4562</v>
+        <v>4858</v>
       </c>
       <c r="AD50" s="7">
-        <v>3923</v>
+        <v>4177</v>
       </c>
       <c r="AE50" s="7">
-        <v>3437</v>
+        <v>3660</v>
       </c>
       <c r="AF50" s="7">
         <v>30982</v>
@@ -26721,10 +27108,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="9">
-        <v>4324</v>
+        <v>4605</v>
       </c>
       <c r="C51" s="9">
-        <v>5380</v>
+        <v>5729</v>
       </c>
       <c r="D51" s="9">
         <v>7505</v>
@@ -26793,22 +27180,22 @@
         <v>4767</v>
       </c>
       <c r="Z51" s="7">
-        <v>12956</v>
+        <v>13798</v>
       </c>
       <c r="AA51" s="7">
-        <v>8682</v>
+        <v>9246</v>
       </c>
       <c r="AB51" s="7">
-        <v>7647</v>
+        <v>8144</v>
       </c>
       <c r="AC51" s="7">
-        <v>4782</v>
+        <v>5092</v>
       </c>
       <c r="AD51" s="7">
-        <v>4112</v>
+        <v>4379</v>
       </c>
       <c r="AE51" s="7">
-        <v>3602</v>
+        <v>3836</v>
       </c>
       <c r="AF51" s="7">
         <v>32388</v>
@@ -26888,10 +27275,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="9">
-        <v>4526</v>
+        <v>4820</v>
       </c>
       <c r="C52" s="9">
-        <v>5631</v>
+        <v>5997</v>
       </c>
       <c r="D52" s="9">
         <v>7870</v>
@@ -26960,22 +27347,22 @@
         <v>5097</v>
       </c>
       <c r="Z52" s="7">
-        <v>13220</v>
+        <v>14079</v>
       </c>
       <c r="AA52" s="7">
-        <v>9202</v>
+        <v>9800</v>
       </c>
       <c r="AB52" s="7">
-        <v>7960</v>
+        <v>8477</v>
       </c>
       <c r="AC52" s="7">
-        <v>5116</v>
+        <v>5448</v>
       </c>
       <c r="AD52" s="7">
-        <v>4400</v>
+        <v>4686</v>
       </c>
       <c r="AE52" s="7">
-        <v>3854</v>
+        <v>4104</v>
       </c>
       <c r="AF52" s="7">
         <v>33559</v>
@@ -27055,10 +27442,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="9">
-        <v>4756</v>
+        <v>5065</v>
       </c>
       <c r="C53" s="9">
-        <v>5917</v>
+        <v>6301</v>
       </c>
       <c r="D53" s="9">
         <v>8323</v>
@@ -27127,22 +27514,22 @@
         <v>5355</v>
       </c>
       <c r="Z53" s="7">
-        <v>13722</v>
+        <v>14613</v>
       </c>
       <c r="AA53" s="7">
-        <v>9499</v>
+        <v>10116</v>
       </c>
       <c r="AB53" s="7">
-        <v>8263</v>
+        <v>8800</v>
       </c>
       <c r="AC53" s="7">
-        <v>5378</v>
+        <v>5727</v>
       </c>
       <c r="AD53" s="7">
-        <v>4625</v>
+        <v>4925</v>
       </c>
       <c r="AE53" s="7">
-        <v>4051</v>
+        <v>4314</v>
       </c>
       <c r="AF53" s="7">
         <v>34742</v>
@@ -27222,10 +27609,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="9">
-        <v>5017</v>
+        <v>5343</v>
       </c>
       <c r="C54" s="9">
-        <v>6241</v>
+        <v>6646</v>
       </c>
       <c r="D54" s="9">
         <v>8758</v>
@@ -27294,22 +27681,22 @@
         <v>5612</v>
       </c>
       <c r="Z54" s="7">
-        <v>14868</v>
+        <v>15834</v>
       </c>
       <c r="AA54" s="7">
-        <v>9722</v>
+        <v>10353</v>
       </c>
       <c r="AB54" s="7">
-        <v>8427</v>
+        <v>8974</v>
       </c>
       <c r="AC54" s="7">
-        <v>5639</v>
+        <v>6005</v>
       </c>
       <c r="AD54" s="7">
-        <v>4849</v>
+        <v>5164</v>
       </c>
       <c r="AE54" s="7">
-        <v>4248</v>
+        <v>4524</v>
       </c>
       <c r="AF54" s="7">
         <v>36437</v>
@@ -27389,10 +27776,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="9">
-        <v>5305</v>
+        <v>5649</v>
       </c>
       <c r="C55" s="9">
-        <v>6600</v>
+        <v>7029</v>
       </c>
       <c r="D55" s="9">
         <v>9220</v>
@@ -27461,22 +27848,22 @@
         <v>5869</v>
       </c>
       <c r="Z55" s="7">
-        <v>15535</v>
+        <v>16544</v>
       </c>
       <c r="AA55" s="7">
-        <v>10165</v>
+        <v>10825</v>
       </c>
       <c r="AB55" s="7">
-        <v>9029</v>
+        <v>9615</v>
       </c>
       <c r="AC55" s="7">
-        <v>5900</v>
+        <v>6283</v>
       </c>
       <c r="AD55" s="7">
-        <v>5075</v>
+        <v>5404</v>
       </c>
       <c r="AE55" s="7">
-        <v>4445</v>
+        <v>4733</v>
       </c>
       <c r="AF55" s="7">
         <v>37897</v>
@@ -27556,10 +27943,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="9">
-        <v>5616</v>
+        <v>5981</v>
       </c>
       <c r="C56" s="9">
-        <v>6987</v>
+        <v>7441</v>
       </c>
       <c r="D56" s="9">
         <v>9742</v>
@@ -27628,22 +28015,22 @@
         <v>6126</v>
       </c>
       <c r="Z56" s="7">
-        <v>16195</v>
+        <v>17247</v>
       </c>
       <c r="AA56" s="7">
-        <v>10607</v>
+        <v>11296</v>
       </c>
       <c r="AB56" s="7">
-        <v>9405</v>
+        <v>10016</v>
       </c>
       <c r="AC56" s="7">
-        <v>6161</v>
+        <v>6561</v>
       </c>
       <c r="AD56" s="7">
-        <v>5299</v>
+        <v>5643</v>
       </c>
       <c r="AE56" s="7">
-        <v>4642</v>
+        <v>4943</v>
       </c>
       <c r="AF56" s="7">
         <v>39877</v>
@@ -27723,10 +28110,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="9">
-        <v>5926</v>
+        <v>6311</v>
       </c>
       <c r="C57" s="9">
-        <v>7373</v>
+        <v>7852</v>
       </c>
       <c r="D57" s="9">
         <v>10314</v>
@@ -27795,22 +28182,22 @@
         <v>6485</v>
       </c>
       <c r="Z57" s="7">
-        <v>16882</v>
+        <v>17979</v>
       </c>
       <c r="AA57" s="7">
-        <v>10975</v>
+        <v>11688</v>
       </c>
       <c r="AB57" s="7">
-        <v>9631</v>
+        <v>10257</v>
       </c>
       <c r="AC57" s="7">
-        <v>6423</v>
+        <v>6840</v>
       </c>
       <c r="AD57" s="7">
-        <v>5588</v>
+        <v>5951</v>
       </c>
       <c r="AE57" s="7">
-        <v>4903</v>
+        <v>5221</v>
       </c>
       <c r="AF57" s="7">
         <v>42125</v>
@@ -27890,10 +28277,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="9">
-        <v>6230</v>
+        <v>6634</v>
       </c>
       <c r="C58" s="9">
-        <v>7750</v>
+        <v>8253</v>
       </c>
       <c r="D58" s="9">
         <v>10774</v>
@@ -27962,22 +28349,22 @@
         <v>6852</v>
       </c>
       <c r="Z58" s="7">
-        <v>17945</v>
+        <v>19111</v>
       </c>
       <c r="AA58" s="7">
-        <v>11711</v>
+        <v>12472</v>
       </c>
       <c r="AB58" s="7">
-        <v>10157</v>
+        <v>10817</v>
       </c>
       <c r="AC58" s="7">
-        <v>6684</v>
+        <v>7118</v>
       </c>
       <c r="AD58" s="7">
-        <v>5815</v>
+        <v>6192</v>
       </c>
       <c r="AE58" s="7">
-        <v>5138</v>
+        <v>5471</v>
       </c>
       <c r="AF58" s="7">
         <v>44930</v>
@@ -28057,10 +28444,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="9">
-        <v>6539</v>
+        <v>6964</v>
       </c>
       <c r="C59" s="9">
-        <v>8135</v>
+        <v>8663</v>
       </c>
       <c r="D59" s="9">
         <v>11344</v>
@@ -28129,22 +28516,22 @@
         <v>7122</v>
       </c>
       <c r="Z59" s="7">
-        <v>18971</v>
+        <v>20204</v>
       </c>
       <c r="AA59" s="7">
-        <v>12448</v>
+        <v>13257</v>
       </c>
       <c r="AB59" s="7">
-        <v>10835</v>
+        <v>11539</v>
       </c>
       <c r="AC59" s="7">
-        <v>6946</v>
+        <v>7397</v>
       </c>
       <c r="AD59" s="7">
-        <v>6043</v>
+        <v>6435</v>
       </c>
       <c r="AE59" s="7">
-        <v>5339</v>
+        <v>5686</v>
       </c>
       <c r="AF59" s="7">
         <v>47787</v>
@@ -28224,10 +28611,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="9">
-        <v>6849</v>
+        <v>7294</v>
       </c>
       <c r="C60" s="9">
-        <v>8521</v>
+        <v>9074</v>
       </c>
       <c r="D60" s="9">
         <v>11916</v>
@@ -28296,22 +28683,22 @@
         <v>7501</v>
       </c>
       <c r="Z60" s="7">
-        <v>19943</v>
+        <v>21239</v>
       </c>
       <c r="AA60" s="7">
-        <v>13185</v>
+        <v>14042</v>
       </c>
       <c r="AB60" s="7">
-        <v>11587</v>
+        <v>12340</v>
       </c>
       <c r="AC60" s="7">
-        <v>7207</v>
+        <v>7675</v>
       </c>
       <c r="AD60" s="7">
-        <v>6342</v>
+        <v>6754</v>
       </c>
       <c r="AE60" s="7">
-        <v>5612</v>
+        <v>5976</v>
       </c>
       <c r="AF60" s="7">
         <v>50384</v>
@@ -28391,10 +28778,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="9">
-        <v>7162</v>
+        <v>7627</v>
       </c>
       <c r="C61" s="9">
-        <v>8895</v>
+        <v>9473</v>
       </c>
       <c r="D61" s="9">
         <v>12549</v>
@@ -28463,22 +28850,22 @@
         <v>7776</v>
       </c>
       <c r="Z61" s="7">
-        <v>21289</v>
+        <v>22672</v>
       </c>
       <c r="AA61" s="7">
-        <v>14142</v>
+        <v>15061</v>
       </c>
       <c r="AB61" s="7">
-        <v>12340</v>
+        <v>13142</v>
       </c>
       <c r="AC61" s="7">
-        <v>7469</v>
+        <v>7954</v>
       </c>
       <c r="AD61" s="7">
-        <v>6572</v>
+        <v>6999</v>
       </c>
       <c r="AE61" s="7">
-        <v>5815</v>
+        <v>6192</v>
       </c>
       <c r="AF61" s="7">
         <v>53368</v>
@@ -28558,10 +28945,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="9">
-        <v>7572</v>
+        <v>8064</v>
       </c>
       <c r="C62" s="9">
-        <v>9405</v>
+        <v>10016</v>
       </c>
       <c r="D62" s="9">
         <v>13129</v>
@@ -28630,22 +29017,22 @@
         <v>8209</v>
       </c>
       <c r="Z62" s="7">
-        <v>22350</v>
+        <v>23802</v>
       </c>
       <c r="AA62" s="7">
-        <v>15086</v>
+        <v>16066</v>
       </c>
       <c r="AB62" s="7">
-        <v>13092</v>
+        <v>13942</v>
       </c>
       <c r="AC62" s="7">
-        <v>7881</v>
+        <v>8393</v>
       </c>
       <c r="AD62" s="7">
-        <v>6935</v>
+        <v>7385</v>
       </c>
       <c r="AE62" s="7">
-        <v>6137</v>
+        <v>6535</v>
       </c>
       <c r="AF62" s="7">
         <v>56707</v>
@@ -28725,10 +29112,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="9">
-        <v>8007</v>
+        <v>8527</v>
       </c>
       <c r="C63" s="9">
-        <v>9944</v>
+        <v>10590</v>
       </c>
       <c r="D63" s="9">
         <v>13860</v>
@@ -28797,22 +29184,22 @@
         <v>8674</v>
       </c>
       <c r="Z63" s="7">
-        <v>23449</v>
+        <v>24973</v>
       </c>
       <c r="AA63" s="7">
-        <v>16004</v>
+        <v>17044</v>
       </c>
       <c r="AB63" s="7">
-        <v>14089</v>
+        <v>15004</v>
       </c>
       <c r="AC63" s="7">
-        <v>8547</v>
+        <v>9102</v>
       </c>
       <c r="AD63" s="7">
-        <v>7521</v>
+        <v>8009</v>
       </c>
       <c r="AE63" s="7">
-        <v>6655</v>
+        <v>7087</v>
       </c>
       <c r="AF63" s="7">
         <v>60654</v>
@@ -28892,10 +29279,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="9">
-        <v>8438</v>
+        <v>8986</v>
       </c>
       <c r="C64" s="9">
-        <v>10481</v>
+        <v>11162</v>
       </c>
       <c r="D64" s="9">
         <v>14609</v>
@@ -28964,22 +29351,22 @@
         <v>9180</v>
       </c>
       <c r="Z64" s="7">
-        <v>25439</v>
+        <v>27092</v>
       </c>
       <c r="AA64" s="7">
-        <v>17217</v>
+        <v>18336</v>
       </c>
       <c r="AB64" s="7">
-        <v>15154</v>
+        <v>16139</v>
       </c>
       <c r="AC64" s="7">
-        <v>9277</v>
+        <v>9880</v>
       </c>
       <c r="AD64" s="7">
-        <v>8164</v>
+        <v>8694</v>
       </c>
       <c r="AE64" s="7">
-        <v>7224</v>
+        <v>7693</v>
       </c>
       <c r="AF64" s="7">
         <v>65223</v>
@@ -29059,10 +29446,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="9">
-        <v>8896</v>
+        <v>9474</v>
       </c>
       <c r="C65" s="9">
-        <v>11048</v>
+        <v>11766</v>
       </c>
       <c r="D65" s="9">
         <v>15380</v>
@@ -29131,22 +29518,22 @@
         <v>9666</v>
       </c>
       <c r="Z65" s="7">
-        <v>28072</v>
+        <v>29896</v>
       </c>
       <c r="AA65" s="7">
-        <v>19032</v>
+        <v>20269</v>
       </c>
       <c r="AB65" s="7">
-        <v>16774</v>
+        <v>17864</v>
       </c>
       <c r="AC65" s="7">
-        <v>10159</v>
+        <v>10819</v>
       </c>
       <c r="AD65" s="7">
-        <v>8839</v>
+        <v>9413</v>
       </c>
       <c r="AE65" s="7">
-        <v>7809</v>
+        <v>8316</v>
       </c>
       <c r="AF65" s="7">
         <v>70523</v>
@@ -29226,10 +29613,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="9">
-        <v>9377</v>
+        <v>9986</v>
       </c>
       <c r="C66" s="9">
-        <v>11646</v>
+        <v>12402</v>
       </c>
       <c r="D66" s="9">
         <v>16342</v>
@@ -29298,22 +29685,22 @@
         <v>10223</v>
       </c>
       <c r="Z66" s="7">
-        <v>31390</v>
+        <v>33430</v>
       </c>
       <c r="AA66" s="7">
-        <v>21299</v>
+        <v>22683</v>
       </c>
       <c r="AB66" s="7">
-        <v>18802</v>
+        <v>20024</v>
       </c>
       <c r="AC66" s="7">
-        <v>11007</v>
+        <v>11722</v>
       </c>
       <c r="AD66" s="7">
-        <v>9576</v>
+        <v>10198</v>
       </c>
       <c r="AE66" s="7">
-        <v>8460</v>
+        <v>9009</v>
       </c>
       <c r="AF66" s="7">
         <v>75351</v>
@@ -29393,10 +29780,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="9">
-        <v>9996</v>
+        <v>10645</v>
       </c>
       <c r="C67" s="9">
-        <v>12415</v>
+        <v>13221</v>
       </c>
       <c r="D67" s="9">
         <v>17244</v>
@@ -29465,22 +29852,22 @@
         <v>10704</v>
       </c>
       <c r="Z67" s="7">
-        <v>34073</v>
+        <v>36287</v>
       </c>
       <c r="AA67" s="7">
-        <v>23516</v>
+        <v>25044</v>
       </c>
       <c r="AB67" s="7">
-        <v>20556</v>
+        <v>21892</v>
       </c>
       <c r="AC67" s="7">
-        <v>11798</v>
+        <v>12564</v>
       </c>
       <c r="AD67" s="7">
-        <v>10265</v>
+        <v>10932</v>
       </c>
       <c r="AE67" s="7">
-        <v>9069</v>
+        <v>9658</v>
       </c>
       <c r="AF67" s="7">
         <v>79169</v>
@@ -29560,10 +29947,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="9">
-        <v>10612</v>
+        <v>11301</v>
       </c>
       <c r="C68" s="9">
-        <v>13180</v>
+        <v>14036</v>
       </c>
       <c r="D68" s="9">
         <v>18201</v>
@@ -29632,22 +30019,22 @@
         <v>11308</v>
       </c>
       <c r="Z68" s="7">
-        <v>36810</v>
+        <v>39202</v>
       </c>
       <c r="AA68" s="7">
-        <v>25755</v>
+        <v>27429</v>
       </c>
       <c r="AB68" s="7">
-        <v>22493</v>
+        <v>23955</v>
       </c>
       <c r="AC68" s="7">
-        <v>12944</v>
+        <v>13785</v>
       </c>
       <c r="AD68" s="7">
-        <v>11261</v>
+        <v>11992</v>
       </c>
       <c r="AE68" s="7">
-        <v>9880</v>
+        <v>10522</v>
       </c>
       <c r="AF68" s="7">
         <v>83342</v>
@@ -29727,10 +30114,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="9">
-        <v>11227</v>
+        <v>11956</v>
       </c>
       <c r="C69" s="9">
-        <v>13943</v>
+        <v>14849</v>
       </c>
       <c r="D69" s="9">
         <v>19218</v>
@@ -29799,22 +30186,22 @@
         <v>11849</v>
       </c>
       <c r="Z69" s="7">
-        <v>38237</v>
+        <v>40722</v>
       </c>
       <c r="AA69" s="7">
-        <v>26329</v>
+        <v>28040</v>
       </c>
       <c r="AB69" s="7">
-        <v>22865</v>
+        <v>24351</v>
       </c>
       <c r="AC69" s="7">
-        <v>14079</v>
+        <v>14994</v>
       </c>
       <c r="AD69" s="7">
-        <v>12108</v>
+        <v>12895</v>
       </c>
       <c r="AE69" s="7">
-        <v>10606</v>
+        <v>11295</v>
       </c>
       <c r="AF69" s="7">
         <v>87620</v>
@@ -29894,10 +30281,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="9">
-        <v>11845</v>
+        <v>12614</v>
       </c>
       <c r="C70" s="9">
-        <v>14711</v>
+        <v>15667</v>
       </c>
       <c r="D70" s="9">
         <v>20285</v>
@@ -29966,22 +30353,22 @@
         <v>12701</v>
       </c>
       <c r="Z70" s="7">
-        <v>39080</v>
+        <v>41620</v>
       </c>
       <c r="AA70" s="7">
-        <v>27129</v>
+        <v>28892</v>
       </c>
       <c r="AB70" s="7">
-        <v>23461</v>
+        <v>24985</v>
       </c>
       <c r="AC70" s="7">
-        <v>15426</v>
+        <v>16428</v>
       </c>
       <c r="AD70" s="7">
-        <v>13267</v>
+        <v>14129</v>
       </c>
       <c r="AE70" s="7">
-        <v>11621</v>
+        <v>12376</v>
       </c>
       <c r="AF70" s="7">
         <v>91751</v>
@@ -30061,10 +30448,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="9">
-        <v>12466</v>
+        <v>13276</v>
       </c>
       <c r="C71" s="9">
-        <v>15483</v>
+        <v>16489</v>
       </c>
       <c r="D71" s="9">
         <v>21400</v>
@@ -30133,22 +30520,22 @@
         <v>13564</v>
       </c>
       <c r="Z71" s="7">
-        <v>40344</v>
+        <v>42966</v>
       </c>
       <c r="AA71" s="7">
-        <v>28158</v>
+        <v>29988</v>
       </c>
       <c r="AB71" s="7">
-        <v>24280</v>
+        <v>25858</v>
       </c>
       <c r="AC71" s="7">
-        <v>16830</v>
+        <v>17923</v>
       </c>
       <c r="AD71" s="7">
-        <v>14474</v>
+        <v>15414</v>
       </c>
       <c r="AE71" s="7">
-        <v>12679</v>
+        <v>13503</v>
       </c>
       <c r="AF71" s="7">
         <v>96026</v>
@@ -30228,10 +30615,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="10">
-        <v>13063</v>
+        <v>13912</v>
       </c>
       <c r="C72" s="10">
-        <v>16224</v>
+        <v>17278</v>
       </c>
       <c r="D72" s="10">
         <v>22535</v>
@@ -30300,22 +30687,22 @@
         <v>14464</v>
       </c>
       <c r="Z72" s="5">
-        <v>41450</v>
+        <v>44144</v>
       </c>
       <c r="AA72" s="5">
-        <v>29196</v>
+        <v>31093</v>
       </c>
       <c r="AB72" s="5">
-        <v>25025</v>
+        <v>26651</v>
       </c>
       <c r="AC72" s="5">
-        <v>18332</v>
+        <v>19523</v>
       </c>
       <c r="AD72" s="5">
-        <v>15765</v>
+        <v>16789</v>
       </c>
       <c r="AE72" s="5">
-        <v>13810</v>
+        <v>14707</v>
       </c>
       <c r="AF72" s="5">
         <v>101114</v>
@@ -30395,10 +30782,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="9">
-        <v>13660</v>
+        <v>14547</v>
       </c>
       <c r="C73" s="9">
-        <v>17394</v>
+        <v>18524</v>
       </c>
       <c r="D73" s="9">
         <v>23678</v>
@@ -30467,22 +30854,22 @@
         <v>15329</v>
       </c>
       <c r="Z73" s="7">
-        <v>45826</v>
+        <v>48804</v>
       </c>
       <c r="AA73" s="7">
-        <v>32287</v>
+        <v>34385</v>
       </c>
       <c r="AB73" s="7">
-        <v>27655</v>
+        <v>29452</v>
       </c>
       <c r="AC73" s="7">
-        <v>19429</v>
+        <v>20691</v>
       </c>
       <c r="AD73" s="7">
-        <v>16710</v>
+        <v>17796</v>
       </c>
       <c r="AE73" s="7">
-        <v>14637</v>
+        <v>15588</v>
       </c>
       <c r="AF73" s="7">
         <v>106350</v>
@@ -30562,10 +30949,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="9">
-        <v>14257</v>
+        <v>15183</v>
       </c>
       <c r="C74" s="9">
-        <v>18153</v>
+        <v>19332</v>
       </c>
       <c r="D74" s="9">
         <v>24828</v>
@@ -30634,22 +31021,22 @@
         <v>16285</v>
       </c>
       <c r="Z74" s="7">
-        <v>48365</v>
+        <v>51508</v>
       </c>
       <c r="AA74" s="7">
-        <v>34157</v>
+        <v>36377</v>
       </c>
       <c r="AB74" s="7">
-        <v>29204</v>
+        <v>31102</v>
       </c>
       <c r="AC74" s="7">
-        <v>20642</v>
+        <v>21983</v>
       </c>
       <c r="AD74" s="7">
-        <v>17752</v>
+        <v>18905</v>
       </c>
       <c r="AE74" s="7">
-        <v>15550</v>
+        <v>16560</v>
       </c>
       <c r="AF74" s="7">
         <v>111411</v>
@@ -30729,10 +31116,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="9">
-        <v>14852</v>
+        <v>15817</v>
       </c>
       <c r="C75" s="9">
-        <v>18911</v>
+        <v>20140</v>
       </c>
       <c r="D75" s="9">
         <v>25741</v>
@@ -30801,22 +31188,22 @@
         <v>17181</v>
       </c>
       <c r="Z75" s="7">
-        <v>50861</v>
+        <v>54166</v>
       </c>
       <c r="AA75" s="7">
-        <v>35684</v>
+        <v>38003</v>
       </c>
       <c r="AB75" s="7">
-        <v>30708</v>
+        <v>32704</v>
       </c>
       <c r="AC75" s="7">
-        <v>21777</v>
+        <v>23192</v>
       </c>
       <c r="AD75" s="7">
-        <v>18728</v>
+        <v>19945</v>
       </c>
       <c r="AE75" s="7">
-        <v>16405</v>
+        <v>17471</v>
       </c>
       <c r="AF75" s="7">
         <v>116561</v>
@@ -30896,10 +31283,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="9">
-        <v>15448</v>
+        <v>16452</v>
       </c>
       <c r="C76" s="9">
-        <v>19671</v>
+        <v>20949</v>
       </c>
       <c r="D76" s="9">
         <v>26612</v>
@@ -30968,22 +31355,22 @@
         <v>18088</v>
       </c>
       <c r="Z76" s="7">
-        <v>52958</v>
+        <v>56400</v>
       </c>
       <c r="AA76" s="7">
-        <v>37486</v>
+        <v>39922</v>
       </c>
       <c r="AB76" s="7">
-        <v>32093</v>
+        <v>34179</v>
       </c>
       <c r="AC76" s="7">
-        <v>22926</v>
+        <v>24416</v>
       </c>
       <c r="AD76" s="7">
-        <v>19716</v>
+        <v>20997</v>
       </c>
       <c r="AE76" s="7">
-        <v>17271</v>
+        <v>18393</v>
       </c>
       <c r="AF76" s="7">
         <v>121761</v>
@@ -31063,10 +31450,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="9">
-        <v>16048</v>
+        <v>17091</v>
       </c>
       <c r="C77" s="9">
-        <v>20434</v>
+        <v>21762</v>
       </c>
       <c r="D77" s="9">
         <v>27688</v>
@@ -31135,22 +31522,22 @@
         <v>19059</v>
       </c>
       <c r="Z77" s="7">
-        <v>53922</v>
+        <v>57426</v>
       </c>
       <c r="AA77" s="7">
-        <v>38372</v>
+        <v>40866</v>
       </c>
       <c r="AB77" s="7">
-        <v>32898</v>
+        <v>35036</v>
       </c>
       <c r="AC77" s="7">
-        <v>24158</v>
+        <v>25728</v>
       </c>
       <c r="AD77" s="7">
-        <v>20776</v>
+        <v>22126</v>
       </c>
       <c r="AE77" s="7">
-        <v>18199</v>
+        <v>19381</v>
       </c>
       <c r="AF77" s="7">
         <v>127704</v>
@@ -31230,10 +31617,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="9">
-        <v>16647</v>
+        <v>17729</v>
       </c>
       <c r="C78" s="9">
-        <v>21197</v>
+        <v>22574</v>
       </c>
       <c r="D78" s="9">
         <v>28916</v>
@@ -31302,22 +31689,22 @@
         <v>19742</v>
       </c>
       <c r="Z78" s="7">
-        <v>58972</v>
+        <v>62805</v>
       </c>
       <c r="AA78" s="7">
-        <v>40383</v>
+        <v>43007</v>
       </c>
       <c r="AB78" s="7">
-        <v>34588</v>
+        <v>36836</v>
       </c>
       <c r="AC78" s="7">
-        <v>25023</v>
+        <v>26649</v>
       </c>
       <c r="AD78" s="7">
-        <v>21519</v>
+        <v>22917</v>
       </c>
       <c r="AE78" s="7">
-        <v>18850</v>
+        <v>20075</v>
       </c>
       <c r="AF78" s="7">
         <v>133824</v>
@@ -31397,10 +31784,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="9">
-        <v>17246</v>
+        <v>18366</v>
       </c>
       <c r="C79" s="9">
-        <v>21960</v>
+        <v>23387</v>
       </c>
       <c r="D79" s="9">
         <v>30003</v>
@@ -31469,22 +31856,22 @@
         <v>20732</v>
       </c>
       <c r="Z79" s="7">
-        <v>64806</v>
+        <v>69018</v>
       </c>
       <c r="AA79" s="7">
-        <v>43116</v>
+        <v>45918</v>
       </c>
       <c r="AB79" s="7">
-        <v>37002</v>
+        <v>39407</v>
       </c>
       <c r="AC79" s="7">
-        <v>26278</v>
+        <v>27986</v>
       </c>
       <c r="AD79" s="7">
-        <v>22599</v>
+        <v>24067</v>
       </c>
       <c r="AE79" s="7">
-        <v>19796</v>
+        <v>21082</v>
       </c>
       <c r="AF79" s="7">
         <v>139768</v>
@@ -31564,10 +31951,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="9">
-        <v>17742</v>
+        <v>18895</v>
       </c>
       <c r="C80" s="9">
-        <v>22592</v>
+        <v>24060</v>
       </c>
       <c r="D80" s="9">
         <v>30845</v>
@@ -31636,22 +32023,22 @@
         <v>21138</v>
       </c>
       <c r="Z80" s="7">
-        <v>68424</v>
+        <v>72871</v>
       </c>
       <c r="AA80" s="7">
-        <v>44003</v>
+        <v>46863</v>
       </c>
       <c r="AB80" s="7">
-        <v>37724</v>
+        <v>40176</v>
       </c>
       <c r="AC80" s="7">
-        <v>26792</v>
+        <v>28533</v>
       </c>
       <c r="AD80" s="7">
-        <v>23041</v>
+        <v>24538</v>
       </c>
       <c r="AE80" s="7">
-        <v>20183</v>
+        <v>21494</v>
       </c>
       <c r="AF80" s="7">
         <v>145630</v>
@@ -31731,10 +32118,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="9">
-        <v>18236</v>
+        <v>19421</v>
       </c>
       <c r="C81" s="9">
-        <v>23410</v>
+        <v>24931</v>
       </c>
       <c r="D81" s="9">
         <v>31695</v>
@@ -31803,22 +32190,22 @@
         <v>22355</v>
       </c>
       <c r="Z81" s="7">
-        <v>72443</v>
+        <v>77151</v>
       </c>
       <c r="AA81" s="7">
-        <v>46573</v>
+        <v>49600</v>
       </c>
       <c r="AB81" s="7">
-        <v>39899</v>
+        <v>42492</v>
       </c>
       <c r="AC81" s="7">
-        <v>28335</v>
+        <v>30176</v>
       </c>
       <c r="AD81" s="7">
-        <v>24368</v>
+        <v>25951</v>
       </c>
       <c r="AE81" s="7">
-        <v>21346</v>
+        <v>22733</v>
       </c>
       <c r="AF81" s="7">
         <v>149974</v>
@@ -31898,10 +32285,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="9">
-        <v>18649</v>
+        <v>19861</v>
       </c>
       <c r="C82" s="9">
-        <v>24525</v>
+        <v>26119</v>
       </c>
       <c r="D82" s="9">
         <v>32856</v>
@@ -31970,22 +32357,22 @@
         <v>23677</v>
       </c>
       <c r="Z82" s="7">
-        <v>75474</v>
+        <v>80379</v>
       </c>
       <c r="AA82" s="7">
-        <v>47622</v>
+        <v>50717</v>
       </c>
       <c r="AB82" s="7">
-        <v>40786</v>
+        <v>43437</v>
       </c>
       <c r="AC82" s="7">
-        <v>30011</v>
+        <v>31961</v>
       </c>
       <c r="AD82" s="7">
-        <v>25809</v>
+        <v>27486</v>
       </c>
       <c r="AE82" s="7">
-        <v>22608</v>
+        <v>24077</v>
       </c>
       <c r="AF82" s="7">
         <v>157973</v>
@@ -32065,10 +32452,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="9">
-        <v>19059</v>
+        <v>20297</v>
       </c>
       <c r="C83" s="9">
-        <v>25660</v>
+        <v>27327</v>
       </c>
       <c r="D83" s="9">
         <v>34027</v>
@@ -32137,22 +32524,22 @@
         <v>24307</v>
       </c>
       <c r="Z83" s="7">
-        <v>79845</v>
+        <v>85034</v>
       </c>
       <c r="AA83" s="7">
-        <v>48710</v>
+        <v>51876</v>
       </c>
       <c r="AB83" s="7">
-        <v>41813</v>
+        <v>44530</v>
       </c>
       <c r="AC83" s="7">
-        <v>30809</v>
+        <v>32811</v>
       </c>
       <c r="AD83" s="7">
-        <v>26496</v>
+        <v>28218</v>
       </c>
       <c r="AE83" s="7">
-        <v>23210</v>
+        <v>24718</v>
       </c>
       <c r="AF83" s="7">
         <v>165390</v>
@@ -32232,10 +32619,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="9">
-        <v>19442</v>
+        <v>20705</v>
       </c>
       <c r="C84" s="9">
-        <v>26784</v>
+        <v>28524</v>
       </c>
       <c r="D84" s="9">
         <v>35168</v>
@@ -32304,22 +32691,22 @@
         <v>25213</v>
       </c>
       <c r="Z84" s="7">
-        <v>82168</v>
+        <v>87508</v>
       </c>
       <c r="AA84" s="7">
-        <v>50303</v>
+        <v>53572</v>
       </c>
       <c r="AB84" s="7">
-        <v>43095</v>
+        <v>45896</v>
       </c>
       <c r="AC84" s="7">
-        <v>31957</v>
+        <v>34034</v>
       </c>
       <c r="AD84" s="7">
-        <v>27484</v>
+        <v>29270</v>
       </c>
       <c r="AE84" s="7">
-        <v>24075</v>
+        <v>25639</v>
       </c>
       <c r="AF84" s="7">
         <v>171612</v>
@@ -32399,10 +32786,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="9">
-        <v>19826</v>
+        <v>21114</v>
       </c>
       <c r="C85" s="9">
-        <v>27934</v>
+        <v>29749</v>
       </c>
       <c r="D85" s="9">
         <v>36362</v>
@@ -32471,22 +32858,22 @@
         <v>26188</v>
       </c>
       <c r="Z85" s="7">
-        <v>83625</v>
+        <v>89060</v>
       </c>
       <c r="AA85" s="7">
-        <v>51123</v>
+        <v>54445</v>
       </c>
       <c r="AB85" s="7">
-        <v>43749</v>
+        <v>46592</v>
       </c>
       <c r="AC85" s="7">
-        <v>33193</v>
+        <v>35350</v>
       </c>
       <c r="AD85" s="7">
-        <v>28546</v>
+        <v>30401</v>
       </c>
       <c r="AE85" s="7">
-        <v>25005</v>
+        <v>26630</v>
       </c>
       <c r="AF85" s="7">
         <v>178294</v>
@@ -32566,10 +32953,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="9">
-        <v>20198</v>
+        <v>21510</v>
       </c>
       <c r="C86" s="9">
-        <v>28564</v>
+        <v>30420</v>
       </c>
       <c r="D86" s="9">
         <v>37555</v>
@@ -32638,22 +33025,22 @@
         <v>27074</v>
       </c>
       <c r="Z86" s="7">
-        <v>84949</v>
+        <v>90470</v>
       </c>
       <c r="AA86" s="7">
-        <v>52188</v>
+        <v>55580</v>
       </c>
       <c r="AB86" s="7">
-        <v>44962</v>
+        <v>47884</v>
       </c>
       <c r="AC86" s="7">
-        <v>34315</v>
+        <v>36545</v>
       </c>
       <c r="AD86" s="7">
-        <v>29511</v>
+        <v>31429</v>
       </c>
       <c r="AE86" s="7">
-        <v>25851</v>
+        <v>27531</v>
       </c>
       <c r="AF86" s="7">
         <v>183803</v>
@@ -32733,10 +33120,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="9">
-        <v>20573</v>
+        <v>21910</v>
       </c>
       <c r="C87" s="9">
-        <v>29202</v>
+        <v>31100</v>
       </c>
       <c r="D87" s="9">
         <v>38783</v>
@@ -32805,22 +33192,22 @@
         <v>28055</v>
       </c>
       <c r="Z87" s="7">
-        <v>86472</v>
+        <v>92092</v>
       </c>
       <c r="AA87" s="7">
-        <v>52844</v>
+        <v>56278</v>
       </c>
       <c r="AB87" s="7">
-        <v>46592</v>
+        <v>49620</v>
       </c>
       <c r="AC87" s="7">
-        <v>35559</v>
+        <v>37870</v>
       </c>
       <c r="AD87" s="7">
-        <v>30581</v>
+        <v>32568</v>
       </c>
       <c r="AE87" s="7">
-        <v>26788</v>
+        <v>28529</v>
       </c>
       <c r="AF87" s="7">
         <v>190139</v>
@@ -32900,10 +33287,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="9">
-        <v>20932</v>
+        <v>22292</v>
       </c>
       <c r="C88" s="9">
-        <v>29711</v>
+        <v>31642</v>
       </c>
       <c r="D88" s="9">
         <v>39938</v>
@@ -32972,22 +33359,22 @@
         <v>28674</v>
       </c>
       <c r="Z88" s="7">
-        <v>88061</v>
+        <v>93784</v>
       </c>
       <c r="AA88" s="7">
-        <v>54088</v>
+        <v>57603</v>
       </c>
       <c r="AB88" s="7">
-        <v>47620</v>
+        <v>50715</v>
       </c>
       <c r="AC88" s="7">
-        <v>36343</v>
+        <v>38705</v>
       </c>
       <c r="AD88" s="7">
-        <v>31255</v>
+        <v>33286</v>
       </c>
       <c r="AE88" s="7">
-        <v>27379</v>
+        <v>29158</v>
       </c>
       <c r="AF88" s="7">
         <v>194854</v>
@@ -33067,10 +33454,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="9">
-        <v>21289</v>
+        <v>22672</v>
       </c>
       <c r="C89" s="9">
-        <v>30218</v>
+        <v>32182</v>
       </c>
       <c r="D89" s="9">
         <v>41124</v>
@@ -33139,22 +33526,22 @@
         <v>29395</v>
       </c>
       <c r="Z89" s="7">
-        <v>89451</v>
+        <v>95265</v>
       </c>
       <c r="AA89" s="7">
-        <v>55404</v>
+        <v>59005</v>
       </c>
       <c r="AB89" s="7">
-        <v>48817</v>
+        <v>51990</v>
       </c>
       <c r="AC89" s="7">
-        <v>37257</v>
+        <v>39678</v>
       </c>
       <c r="AD89" s="7">
-        <v>32041</v>
+        <v>34123</v>
       </c>
       <c r="AE89" s="7">
-        <v>28067</v>
+        <v>29891</v>
       </c>
       <c r="AF89" s="7">
         <v>199616</v>
@@ -33234,10 +33621,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="9">
-        <v>21655</v>
+        <v>23062</v>
       </c>
       <c r="C90" s="9">
-        <v>30738</v>
+        <v>32735</v>
       </c>
       <c r="D90" s="9">
         <v>42305</v>
@@ -33306,22 +33693,22 @@
         <v>29840</v>
       </c>
       <c r="Z90" s="7">
-        <v>90842</v>
+        <v>96746</v>
       </c>
       <c r="AA90" s="7">
-        <v>56188</v>
+        <v>59840</v>
       </c>
       <c r="AB90" s="7">
-        <v>49556</v>
+        <v>52777</v>
       </c>
       <c r="AC90" s="7">
-        <v>37821</v>
+        <v>40279</v>
       </c>
       <c r="AD90" s="7">
-        <v>32526</v>
+        <v>34640</v>
       </c>
       <c r="AE90" s="7">
-        <v>28492</v>
+        <v>30343</v>
       </c>
       <c r="AF90" s="7">
         <v>204142</v>
@@ -33401,10 +33788,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="9">
-        <v>21995</v>
+        <v>23424</v>
       </c>
       <c r="C91" s="9">
-        <v>31221</v>
+        <v>33250</v>
       </c>
       <c r="D91" s="9">
         <v>43346</v>
@@ -33473,22 +33860,22 @@
         <v>30650</v>
       </c>
       <c r="Z91" s="7">
-        <v>92298</v>
+        <v>98297</v>
       </c>
       <c r="AA91" s="7">
-        <v>57563</v>
+        <v>61304</v>
       </c>
       <c r="AB91" s="7">
-        <v>50901</v>
+        <v>54209</v>
       </c>
       <c r="AC91" s="7">
-        <v>38847</v>
+        <v>41372</v>
       </c>
       <c r="AD91" s="7">
-        <v>33409</v>
+        <v>35580</v>
       </c>
       <c r="AE91" s="7">
-        <v>29266</v>
+        <v>31168</v>
       </c>
       <c r="AF91" s="7">
         <v>208198</v>
@@ -33568,10 +33955,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="9">
-        <v>22330</v>
+        <v>23781</v>
       </c>
       <c r="C92" s="9">
-        <v>31696</v>
+        <v>33756</v>
       </c>
       <c r="D92" s="9">
         <v>44277</v>
@@ -33640,22 +34027,22 @@
         <v>31135</v>
       </c>
       <c r="Z92" s="7">
-        <v>93755</v>
+        <v>99849</v>
       </c>
       <c r="AA92" s="7">
-        <v>58613</v>
+        <v>62422</v>
       </c>
       <c r="AB92" s="7">
-        <v>51658</v>
+        <v>55015</v>
       </c>
       <c r="AC92" s="7">
-        <v>39462</v>
+        <v>42027</v>
       </c>
       <c r="AD92" s="7">
-        <v>33938</v>
+        <v>36143</v>
       </c>
       <c r="AE92" s="7">
-        <v>29728</v>
+        <v>31660</v>
       </c>
       <c r="AF92" s="7">
         <v>211543</v>
@@ -33735,10 +34122,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="9">
-        <v>22661</v>
+        <v>24133</v>
       </c>
       <c r="C93" s="9">
-        <v>32165</v>
+        <v>34255</v>
       </c>
       <c r="D93" s="9">
         <v>45234</v>
@@ -33807,22 +34194,22 @@
         <v>33842</v>
       </c>
       <c r="Z93" s="7">
-        <v>95278</v>
+        <v>101471</v>
       </c>
       <c r="AA93" s="7">
-        <v>59833</v>
+        <v>63722</v>
       </c>
       <c r="AB93" s="7">
-        <v>52606</v>
+        <v>56025</v>
       </c>
       <c r="AC93" s="7">
-        <v>42893</v>
+        <v>45681</v>
       </c>
       <c r="AD93" s="7">
-        <v>36889</v>
+        <v>39286</v>
       </c>
       <c r="AE93" s="7">
-        <v>32314</v>
+        <v>34414</v>
       </c>
       <c r="AF93" s="7">
         <v>214888</v>
@@ -33902,10 +34289,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="9">
-        <v>22969</v>
+        <v>24461</v>
       </c>
       <c r="C94" s="9">
-        <v>32602</v>
+        <v>34721</v>
       </c>
       <c r="D94" s="9">
         <v>45920</v>
@@ -33974,22 +34361,22 @@
         <v>34472</v>
       </c>
       <c r="Z94" s="7">
-        <v>96668</v>
+        <v>102951</v>
       </c>
       <c r="AA94" s="7">
-        <v>61092</v>
+        <v>65062</v>
       </c>
       <c r="AB94" s="7">
-        <v>53296</v>
+        <v>56760</v>
       </c>
       <c r="AC94" s="7">
-        <v>43693</v>
+        <v>46533</v>
       </c>
       <c r="AD94" s="7">
-        <v>37576</v>
+        <v>40018</v>
       </c>
       <c r="AE94" s="7">
-        <v>32915</v>
+        <v>35054</v>
       </c>
       <c r="AF94" s="7">
         <v>218233</v>
@@ -34069,10 +34456,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="9">
-        <v>23275</v>
+        <v>24787</v>
       </c>
       <c r="C95" s="9">
-        <v>33037</v>
+        <v>35184</v>
       </c>
       <c r="D95" s="9">
         <v>46425</v>
@@ -34141,22 +34528,22 @@
         <v>35229</v>
       </c>
       <c r="Z95" s="7">
-        <v>98125</v>
+        <v>104503</v>
       </c>
       <c r="AA95" s="7">
-        <v>62206</v>
+        <v>66249</v>
       </c>
       <c r="AB95" s="7">
-        <v>54159</v>
+        <v>57679</v>
       </c>
       <c r="AC95" s="7">
-        <v>44651</v>
+        <v>47553</v>
       </c>
       <c r="AD95" s="7">
-        <v>38400</v>
+        <v>40896</v>
       </c>
       <c r="AE95" s="7">
-        <v>33637</v>
+        <v>35823</v>
       </c>
       <c r="AF95" s="7">
         <v>221576</v>
@@ -34236,10 +34623,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="9">
-        <v>23588</v>
+        <v>25121</v>
       </c>
       <c r="C96" s="9">
-        <v>33480</v>
+        <v>35656</v>
       </c>
       <c r="D96" s="9">
         <v>46941</v>
@@ -34308,22 +34695,22 @@
         <v>36069</v>
       </c>
       <c r="Z96" s="7">
-        <v>99714</v>
+        <v>106195</v>
       </c>
       <c r="AA96" s="7">
-        <v>63708</v>
+        <v>67849</v>
       </c>
       <c r="AB96" s="7">
-        <v>54786</v>
+        <v>58347</v>
       </c>
       <c r="AC96" s="7">
-        <v>45716</v>
+        <v>48687</v>
       </c>
       <c r="AD96" s="7">
-        <v>39316</v>
+        <v>41871</v>
       </c>
       <c r="AE96" s="7">
-        <v>34440</v>
+        <v>36678</v>
       </c>
       <c r="AF96" s="7">
         <v>224921</v>
@@ -34403,10 +34790,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="9">
-        <v>23898</v>
+        <v>25451</v>
       </c>
       <c r="C97" s="9">
-        <v>33921</v>
+        <v>36125</v>
       </c>
       <c r="D97" s="9">
         <v>47454</v>
@@ -34475,22 +34862,22 @@
         <v>36748</v>
       </c>
       <c r="Z97" s="7">
-        <v>101170</v>
+        <v>107746</v>
       </c>
       <c r="AA97" s="7">
-        <v>64716</v>
+        <v>68922</v>
       </c>
       <c r="AB97" s="7">
-        <v>55343</v>
+        <v>58940</v>
       </c>
       <c r="AC97" s="7">
-        <v>46578</v>
+        <v>49605</v>
       </c>
       <c r="AD97" s="7">
-        <v>40057</v>
+        <v>42660</v>
       </c>
       <c r="AE97" s="7">
-        <v>35088</v>
+        <v>37368</v>
       </c>
       <c r="AF97" s="7">
         <v>228266</v>
@@ -34570,10 +34957,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="9">
-        <v>24210</v>
+        <v>25783</v>
       </c>
       <c r="C98" s="9">
-        <v>34364</v>
+        <v>36597</v>
       </c>
       <c r="D98" s="9">
         <v>47968</v>
@@ -34642,22 +35029,22 @@
         <v>37801</v>
       </c>
       <c r="Z98" s="7">
-        <v>102694</v>
+        <v>109369</v>
       </c>
       <c r="AA98" s="7">
-        <v>65867</v>
+        <v>70148</v>
       </c>
       <c r="AB98" s="7">
-        <v>56444</v>
+        <v>60112</v>
       </c>
       <c r="AC98" s="7">
-        <v>47912</v>
+        <v>51026</v>
       </c>
       <c r="AD98" s="7">
-        <v>41204</v>
+        <v>43882</v>
       </c>
       <c r="AE98" s="7">
-        <v>36094</v>
+        <v>38440</v>
       </c>
       <c r="AF98" s="7">
         <v>231611</v>
@@ -34737,10 +35124,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="9">
-        <v>24512</v>
+        <v>26105</v>
       </c>
       <c r="C99" s="9">
-        <v>34794</v>
+        <v>37055</v>
       </c>
       <c r="D99" s="9">
         <v>48496</v>
@@ -34809,22 +35196,22 @@
         <v>38924</v>
       </c>
       <c r="Z99" s="7">
-        <v>104537</v>
+        <v>111331</v>
       </c>
       <c r="AA99" s="7">
-        <v>66539</v>
+        <v>70864</v>
       </c>
       <c r="AB99" s="7">
-        <v>57152</v>
+        <v>60866</v>
       </c>
       <c r="AC99" s="7">
-        <v>49335</v>
+        <v>52541</v>
       </c>
       <c r="AD99" s="7">
-        <v>42429</v>
+        <v>45186</v>
       </c>
       <c r="AE99" s="7">
-        <v>37166</v>
+        <v>39581</v>
       </c>
       <c r="AF99" s="7">
         <v>234676</v>
@@ -34904,10 +35291,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="9">
-        <v>24807</v>
+        <v>26419</v>
       </c>
       <c r="C100" s="9">
-        <v>35212</v>
+        <v>37500</v>
       </c>
       <c r="D100" s="9">
         <v>49043</v>
@@ -34976,22 +35363,22 @@
         <v>39680</v>
       </c>
       <c r="Z100" s="7">
-        <v>106377</v>
+        <v>113291</v>
       </c>
       <c r="AA100" s="7">
-        <v>67763</v>
+        <v>72167</v>
       </c>
       <c r="AB100" s="7">
-        <v>57780</v>
+        <v>61535</v>
       </c>
       <c r="AC100" s="7">
-        <v>50294</v>
+        <v>53563</v>
       </c>
       <c r="AD100" s="7">
-        <v>43253</v>
+        <v>46064</v>
       </c>
       <c r="AE100" s="7">
-        <v>37888</v>
+        <v>40350</v>
       </c>
       <c r="AF100" s="7">
         <v>238021</v>
@@ -35071,10 +35458,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="9">
-        <v>25102</v>
+        <v>26733</v>
       </c>
       <c r="C101" s="9">
-        <v>35630</v>
+        <v>37945</v>
       </c>
       <c r="D101" s="9">
         <v>49538</v>
@@ -35143,22 +35530,22 @@
         <v>40548</v>
       </c>
       <c r="Z101" s="7">
-        <v>110770</v>
+        <v>117970</v>
       </c>
       <c r="AA101" s="7">
-        <v>68167</v>
+        <v>72597</v>
       </c>
       <c r="AB101" s="7">
-        <v>58558</v>
+        <v>62364</v>
       </c>
       <c r="AC101" s="7">
-        <v>51394</v>
+        <v>54734</v>
       </c>
       <c r="AD101" s="7">
-        <v>44199</v>
+        <v>47071</v>
       </c>
       <c r="AE101" s="7">
-        <v>38717</v>
+        <v>41233</v>
       </c>
       <c r="AF101" s="7">
         <v>241366</v>
@@ -35236,5 +35623,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>